--- a/news_data/2019_04.xlsx
+++ b/news_data/2019_04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,213 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 관광진흥기금 88개 업체 197억원 융자확정</t>
+  </si>
+  <si>
+    <t>제주도, 제주관광진흥 전략회의 개최</t>
+  </si>
+  <si>
+    <t>제주도 셀럽들이 즐겨 찾는 중문 맛집, 중문관광단지 '기원뚝배기'</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 직항노선 활용 시장다변화 겨냥</t>
+  </si>
+  <si>
+    <t>제주도관광협회, "제주 방문 환영합니다"</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 가성비끝판왕 갈치정식 먹기위한 발...</t>
+  </si>
+  <si>
+    <t>제주도 명소 용머리 관광지 앞 '플레이사계' 테마상가 공급, 발전가능성 높아</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 아오모리서 제주관광 홍보</t>
+  </si>
+  <si>
+    <t>中 노동절-日 골든위크…5월, 제주도, 관광객 ‘출렁’</t>
+  </si>
+  <si>
+    <t>하루 종일 타도 3000원, 제주도 관광지 순환버스</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 도내 관광사업체 마케팅 지원 강화</t>
+  </si>
+  <si>
+    <t>제주도 뱃길 관광 활성화 내국인 유치 나선다</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 어린이 관광아카데미 참가자 모집</t>
+  </si>
+  <si>
+    <t>제주도와 알리페이, 개별관광객 유치 위해 힘 모은다</t>
+  </si>
+  <si>
+    <t>영광군, 제주도 관광객 유치 위해 적극 홍보활동</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, WTF서 제주관광상품 알려</t>
+  </si>
+  <si>
+    <t>영광군, 제주도서 관광객 유치 위한 홍보 펼쳐</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 도내 여행업계 마케팅 지원사업 실시</t>
+  </si>
+  <si>
+    <t>[한국관광 100선] 봄이 가장 빨리 오는 제주도 여행지 9곳</t>
+  </si>
+  <si>
+    <t>제주도의회 “道 관광국장, 카지노감독위 당연직 위촉은 부적절”</t>
+  </si>
+  <si>
+    <t>제주도, 인도 신시장 개척...한국문화관광대전 참가 제주알려</t>
+  </si>
+  <si>
+    <t>영광군, 제주도 관광객 유치 홍보 나서</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 올레길 15코스 환경정화활동</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 갈치회+갈치구이+갈치조림까지 한번...</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 희망찬 제주 만들기 앞장</t>
+  </si>
+  <si>
+    <t>제주도-알리페이 업무협약...중국인 관광객 빅데이터 활용</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사, '2019 제주에코파티' 개최</t>
+  </si>
+  <si>
+    <t>'청정과 공존' 벌써 헛구호? 위태로운 관광천국 '제주도'</t>
+  </si>
+  <si>
+    <t>효리의단골집 갈치조림 먹기위해 찾는 사람 많은 제주도 중문 관광단지 맛집</t>
+  </si>
+  <si>
+    <t>제주도 쪽빛 바다 따라 국제관광마라톤축제 개최</t>
+  </si>
+  <si>
+    <t>제주도 볼거리 많은 중문관광단지 근처 맛집, '기원뚝배기'</t>
+  </si>
+  <si>
+    <t>효리의단골집 서귀포 갈치조림으로 유명한 제주도 중문 관광단지 맛집 어디?</t>
+  </si>
+  <si>
+    <t>신한카드, '제주지니'와 제주도 관광지 할인 쿠폰 서비스 제공</t>
+  </si>
+  <si>
+    <t>몸 불린 제주도 카지노 매출액 껑충…관광기금 조성 ‘잭팟’</t>
+  </si>
+  <si>
+    <t>[제주소식] 제주도·관광협회, 다크 투어리즘 상품개발 지원</t>
+  </si>
+  <si>
+    <t>제주관광공사 상임이사 현창행 제주도 전 협치정책기획관 임명</t>
+  </si>
+  <si>
+    <t>관광앱 ‘제주지니’와 ‘이제주몰’이 만났다 [제주도]</t>
+  </si>
+  <si>
+    <t>제주도, 일본 관광객 유치 위해 총력</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 올레길 15코스 정화활동 전개</t>
+  </si>
+  <si>
+    <t>제주도 유명 관광지만 가봤다면, 올봄엔 '제주에코파티' 갈까?</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 산정 위한 카지노 매출액 조사 시행</t>
+  </si>
+  <si>
+    <t>제주도의회, 저가관광 개선대책 마련 정책토론회 18일 개최</t>
+  </si>
+  <si>
+    <t>전주연탄은행, 독거노인들에 제주도 효도관광 선물</t>
+  </si>
+  <si>
+    <t>국내 1박2일 관광 여행지 추천, 제주도 아이들과 가볼만한 곳 『제주도 여행백...</t>
+  </si>
+  <si>
+    <t>제주관광대학교, 제주도 기능경기대회에서 우수한 성적 거둬</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 '이조은식당' 감칠맛 좋은 갈치조림...</t>
+  </si>
+  <si>
+    <t>제주도, 올해 상반기 제주관광진흥기금 융자지원 추진</t>
+  </si>
+  <si>
+    <t>제주도 관광객 씀씀이 내국인 줄고 외국인 늘었다</t>
+  </si>
+  <si>
+    <t>‘권아솔 출전’ 로드FC “제주도 관광 산업 활성화 기대”</t>
+  </si>
+  <si>
+    <t>제주도 "관광개발사업 새 투자 안 받고 기존 사업장 관리에 집중"</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 2019 내나라여행박람회 제주관광 홍보관 우수상</t>
+  </si>
+  <si>
+    <t>제주도 테마상가 '플레이사계' 분양…용머리관광지 개발사업지와 인접해</t>
+  </si>
+  <si>
+    <t>제주도, 미진한 관광개발사업장 관리 나선다</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 中 가성비 좋은 곳으...</t>
+  </si>
+  <si>
+    <t>제주도관광협회 호텔업 등급결정제도 설명회 개최</t>
+  </si>
+  <si>
+    <t>제주도·도관광협회, 봄맞이 찾아가는 관광안내소 운영</t>
+  </si>
+  <si>
+    <t>제주도 관광약자 접근성 안내센터, 2019년 '여행 작가 교실'참가자 모집</t>
+  </si>
+  <si>
+    <t>제주도·도관광협회, 내국인 관광객 유치 총력</t>
+  </si>
+  <si>
+    <t>[제주도 가볼만한 곳] 체험관광지, 제주도예촌부터 조랑말체험공원까지…제주...</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 벚꽃, 그리고 갈치정식</t>
+  </si>
+  <si>
+    <t>제주도, 베트남 제주관광 도약시장 삼는다</t>
+  </si>
+  <si>
+    <t>속초시장, 재난급 강원 산불 피해…방심한 탓? "그 와중에 제주도 관광해" 눈...</t>
+  </si>
+  <si>
+    <t>제주도 관광개발사업 활발, 땅값 오름세 속 '케렌시아 타운하우스' 눈길</t>
+  </si>
+  <si>
+    <t>상권, 관광지, 교육 3박자 골고루 갖춘 제주도 전원주택 팔라티노 타운하우스...</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 봄꽃과 함께 갈치조...</t>
+  </si>
+  <si>
+    <t>속초시장, 제주도 관광 하느라 강원 산불 피해 몰라? "금방 꺼질 줄 알고 방심...</t>
+  </si>
+  <si>
+    <t>제주도 사업추진 더딘 관광개발사업장 애로사항 듣는다</t>
+  </si>
+  <si>
+    <t>제주도 용머리관광지, 단일규모 최대면적 테마상가 ‘플레이사계’ 상가분양 ...</t>
+  </si>
+  <si>
+    <t>제주도, 기존 관광개발사업 정상화에 집중</t>
+  </si>
+  <si>
     <t>제주도 서귀포 중문 맛집 '대포동산 횟집', 4월 관광객에게 신선한 돗돔 선보...</t>
   </si>
   <si>
@@ -52,31 +259,214 @@
     <t>신한카드, ‘제주지니’ 통해 제주도 관광지 할인 혜택 제공</t>
   </si>
   <si>
-    <t>제주도 서귀포 중문 맛집 ‘대포동산 횟집’, 4월 관광객에게 신선한 돗돔 선보여 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 10:30 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문 맛집 ‘대포동산 횟집’, 4월 관광객에게 신선한 돗돔 선보여 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 서귀포 중문 맛집 ‘대포동산 횟집’, 4월 관광객에게 신선한 돗돔 선보여 기자명 인터넷뉴스팀 입력 2019.04.07 12:21 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 [사진 = 중문 맛집 ‘대포동산 횟집’] 꽃잎이 흔들리고 본격적으로 따뜻해지는 4월에는 제주 유채꽃축제, 향기나는 동백꽃 축제, 우도 소라축제 등 다양한 봄철 축제가 열리고 있어 많은 관광객이 찾아온다.특히 제주도 서귀포에 위치한 중문관광단지는 국내 최대 규모의 주상절리와 천제연 폭포, 식물원 등 다양한 볼거리고 있으며 이색적인 먹거리와 다양한 맛집이 즐비해 제주도 필수 코스중 하나다. 사방이 바다인 섬지역 제주도에서 ‘회’를 빼놓을 수 없다. 대포동산횟집에서는 특히 봄철 돗돔을 선보이고 있다.돗돔은 전설의 물고기라 불릴 정도로 잡기 어려운 생선이다. 단백질, 무기질이 많아 성장기 어린이에게도 좋다. 특히 회로 먹을 경우 레몬을 뿌리면 돗돔의 살을 탄력있게 해주며 철분의 흡수를 도와준다. 또한 고단백이며 열량이 낮아 비만인 사람에게 적합하다.그 외에도 서귀포 중문 맛집 대포동산횟집은 자연산 다금바리, 갯돔, 구문쟁이, 흑돔벵에돔, 광어회  등 횟감을 매일 들여와 활어회, 모듬회를 제공한다. 자연 그대로의 신선함과 함께 비린내 없이 즉석에서 조리하는 노하우로 고소하고 담백한 맛을 선사한다. 특히 대포포구가 바로 앞에 있어 푸른 하늘과 바다를 보며 식사를 할 수 있고 인근에 중문색달해변과 중문관광단지, 대포주상절리, 천제연폭포, 외돌개 등이 위치해 여행하며 방문하기 좋다. 또한 새우, 전복, 문어, 키조개, 관자 등 신선한 해산물 등으로 이뤄진 10여가지 이상의 푸짐한 밑반찬(쓰끼다시)이 무한으로 제공되며 본관, 별관 총 200여석 규모로 단체 식사도 가능하다. 단체 여행 온 손님을 위해서는 픽업 서비스도 제공된다.이밖에도 대포동산횟집은 콘도형 펜션인 동산나라 펜션을 자체적으로 운영 중이여서 식사와 숙박까지 한꺼번에 해결할 수 있다.예약 등 자세한 사항은 대포동산 횟집으로 문의하면 된다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 [특징주] 오토앤 주가 급등세... 이유는? 당신만 안 본 뉴스 50대 여배우 ‘조은숙’ 근황 공개...검색량은? "무안하고 당황스러워" 돈스파이크 와이프 성하윤 고충 토로 한그루 이혼에 남편 누구?...과거 애칭·인스타그램 재조명 롤 서버 점검, 언제까지 하나 "차 보닛에 손 대봐" 성하윤 소름 돋게 한 돈스파이크 의심 뭐였길래 50대 여배우 조은숙 "신랑, 어린 걸 불편..." 연하 남편 애칭 뭐길래 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 50대 여배우 ‘조은숙’ 근황 공개...검색량은? 오늘공감 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 10월 4일 오늘의 띠별 운세 '쥐띠·소띠·뱀띠·용띠·개띠 주목' 합참 "북한, 동쪽 방향으로 미상 탄도미사일 발사"...일본 상공 통과한듯 인기기사 1 [오늘의 금값시세] 10월 3일 24·18k 한돈 금시세는? 2 [2022년 10월 공모주 청약 일정] 에스비비테크 수요예측·확정 공모가·상장일은? 3 [2022년 10월 공모주 청약 일정] 샤페론 수요예측·확정 공모가·상장일은? 4 [검은 손이 노린다] 피싱 범죄, 아는 만큼 피할 수 있다 (완) 5 [주유소 가격비교] 10월 3일 기름값 싼곳 어디? 최저가 휘발유 1517원·경유 1679원 6 [특징주] 오토앤 주가 급등세... 이유는? 7 김민기 의원, ``LH 임대주택 부적격 입주자 5년간 4만명 육박`` 8 최영희 의원 “건강보험공단 고액자산가·소득자 구상금 미납 심각” 9 한 총리 "연대·상생으로 재도약…홍익인간 정신으로 새시대 열어가야 10 배준영 의원 "5년간 국세청 과오납환급금 30조5천억 육박" 최신기사 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 다크투어리즘 지원사업 실시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 다크투어리즘 지원사업 실시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 다크투어리즘 지원사업 실시 문유미 기자 승인 2019.04.03 13:40 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주역사의 올바른 인식을 위한 다크투어리즘 지원사업이 실시되고 있다. 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 제주4·3과 일제강점기 등 역사유적을 활용한 다크투어리즘 상품 개발 및 마케팅 지원사업을 실시하고 있다고 3일 밝혔다. 이번 지원사업은 지정 유적지를 1개소 이상 방문하는 단체(10인 이상)를 유치한 도내 여행업체를 대상으로 오는 11월 말까지 차량임차료, 공연·이벤트비 등 지원금을 지급한다. 지정 유적지는 4.3평화공원, 항일기념관, 알뜨르비행장 등이다. 신청방법 등 자세한 사항은 제주도관광협회 홈페이지를 참고하거나 전화(741-8794)로 문의하면 된다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>김철수 속초시장, 초비상 화재 현장에 안보여.. ‘제주도 관광 즐겨’ 속초시장 15시간 만에 나타나 &lt; 사회 &lt; 기사본문 - 한스경제(한국스포츠경제) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 ESG 경제 산업 생활 정치 사회 문화 스포츠 한스컷 Updated2022-10-04 10:13 (화) 로그인 로그인 회원가입 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 김철수 속초시장, 초비상 화재 현장에 안보여.. ‘제주도 관광 즐겨’ 속초시장 15시간 만에 나타나 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 김철수 속초시장, 초비상 화재 현장에 안보여.. ‘제주도 관광 즐겨’ 속초시장 15시간 만에 나타나 기자명 고예인 기자 입력 2019.04.06 06:46 댓글 0 바로가기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 닫기 내용요약 김철수 속초시장 ‘강원 산불 피해’ 속 15시간만에 나타나 김철수 속초시장 “아내 환갑, 결혼 35주년 제주도 여행” 속초시장 초비상 걸린 속초시, 15시간 만에 모습 드러나 논란 속초시장 “비행기가 매진돼 첫 비행기로 귀환했다” 말해 김철수 속초시장, 속초화재 피해 속 제주도 관광 즐겨 세간의 비난 쏟아져, '강원 산불 피해' 속 속초시장 김철수를 향한 세간의 비난이 쏟아지고 있다. SBS 방송화면 캡처 [한국스포츠경제=고예인 기자] 김철수 속초시장, 속초 초비상사태때 제주도 여행 즐겨.. 세간의 비난 쏟아져'강원 산불 피해' 속 속초시장 김철수를 향한 세간의 비난이 쏟아지고 있다.5일 오후 방송된 SBS '8뉴스'는 김철수 속초 시장이 화재 현장 15시간 만에 나타났다고 보도했다.이날 김철수 속초 시장은 화재 대응을 총괄해야 했으나, 부재중이었던 것으로 알려졌다. 그는 부인과 제주도 여행 중이었던 것으로 밝혀졌다. 강원도 중 가장 큰 피해를 입었던 속초시는 김철수 시장의 부재로 부시장이 관계장관회의에 참석했다. 김철수 시장은 화재 발생 15시간이 이날 오전 10시 20분에 상황실에 나타났다속초시장 김철수는 강원 산불 피해 소식에도 자리를 지키지 못한 것에 대해 "산불 소식을 듣고 4일 저녁 비행기를 타려고 했으나, 표가 없어서 5일 첫 비행기를 탈 수밖에 없었다"라고 해명했다.하지만 김철수가 속초시장 자리로 복귀한 것은 5일 오전 10시가 훌쩍 지난 시간, 이에 대해 일각에서는 "첫 비행기도 아니고, 할 일 다하고 천천히 놀다 온 것 같다"라며 의심을 떨치지 못하고 있다.김철수 속초시장은 "부시장에게 강원 산불 관리를 해달라고 미리 지시했다"라고 덧붙인 바 있다.이 또한 "강원 산불의 피해 정도를 모르고 본인 여행을 우선시한 게 아니냐", "금방 꺼질 줄 알고 방심했는데 불길이 커져서 당황했을 듯" 등 그를 비난하는 목소리만 높아지고 있다.한편 속초시장이 자리를 지키지 않은 4일 밤, 재난 영화급 산불이 속초 시내를 뒤덮었다.하지만 '8뉴스' 측은 "현재 '산불조심기간'으로 범정부 총력 대응이 이뤄지는 시기라, 바람직하지 못한 처신이다"라고 꼬집었다. 고예인 기자 yi4111@sporbiz.co.kr 관련기사 이정재-임세령 홍콩 데이트 즐겨, 임세령 상위 0.1%의 금수저 배우 이일재 폐암으로 별세, 이일재 생전 영정사진 직접 찍고, 가족여행도 다녀와 오늘날씨 ‘미세먼지 나쁨’ 한식날 강원 산불지역 눈비소식 있어 폴리코사놀 ‘새싹보리’에 듬뿍 들어있어.. ‘폴리코사놀’ 효능 화제 홍지민 다이어트 비법 '핑거루트' 효능 화제 ‘로또853회당첨번호’ 125억원 예상 ‘로또853회당첨번호’ 판매마감시간 및 방송시간은? 노유정 이혼, "전남편 나와 잘 아는 동료배우와 외도" 충격 류현진, 아내 배지현과 코리안 바비큐 파티 달달한 신혼 근황 알려 [속보]영천 산불, 현재 진화 중.. 소방헬기 7대 투입 전국적 대형 산불 빈번해 기안84, 동료에게 과한 막말 논란 일부 네티즌 “초심 잃은 듯...” 키워드 #김철수속초시장 #속초시장 #속초화재 고예인 기자 yi4111@sporbiz.co.kr 다른기사 보기 저작권자 © 한스경제(한국스포츠경제) 무단전재 및 재배포 금지 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 1 "제발 이사 가지 말아 주세요"...집주인들, 세입자 나갈까 전전긍긍 2 미분양 늘고 돈줄 끊기고...건설사, 줄도산 경고등 3 삼성전자, 아이폰14 공략할 맞불 전략은 4 [김동용의 수소경제 톺아보기] 제주, 그린수소 글로벌 허브로…동해신항 수소항만, 1000억원 경제효과 5 ’카페 맞아?’..특화매장에 진심인 커피업계 6 전기차 시대 고성능차 염원 이룬 현대차그룹 7 리모델링 자신감 생긴 SK에코플랜트, 용인 수지서 첫 단독수주 8 LH, 청년·신혼부부 매입임대주택 3310호 입주자 모집 9 이디야커피, 가을맞이 커피용품 MD 6종 선봬 10 무역수지, 6개월 연속 적자…한경연 '역대 최대적자 전망' 한스경제 PICK 산업 미분양 늘고 돈줄 끊기고...건설사, 줄도산 경고등 산업 삼성전자, 아이폰14 공략할 맞불 전략은 경제 다음주 국감서 법인세·종부세 논쟁 주목 산업 재계 12위?…52조원 품은 김동관의 광폭 행보 산업 재건축 대표 규제 재초환 완화...면제금액 3000만원→1억원 상향 주요뉴스 경제 일반 무역수지, 6개월 연속 적자…한경연 '역대 최대적자 전망' 자동차·물류 전기차 시대 고성능차 염원 이룬 현대차그룹 정치 일반 [격돌! 국정감사 2022] 윤석열 정부 첫 국감…치열한 공방 예고 속 '전운' 감돌아 스포츠 종합 2023년 AIPS 총회 서울서 열린다…역대 4번째 국내 개최 건설·중공업 "제발 이사 가지 말아 주세요"...집주인들, 세입자 나갈까 전전긍긍 하단영역 하단메뉴 언론사소개 언론윤리 공정보도 독자문의 고충처리인 광고·제휴·콘텐츠문의 이용약관 개인정보취급방침 청소년보호정책 오시는길 매체정보 서울특별시 종로구 율곡로2길 7 서머셋팰리스서울 4층 대표전화 : 02-725-6007 팩스 : 02-725-3939 법인명 : ㈜한국뉴미디어 제호명 : 한스경제(한국스포츠경제) 등록번호 : 서울 아 03577 등록일 : 2015-02-09 발행일 : 2015-02-23 발행·편집인 : 송진현 편집국장·청소년보호책임자 : 송진현 한스경제(한국스포츠경제) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 한스경제(한국스포츠경제). All rights reserved. mail to news@sporbiz.co.kr 위로 전체메뉴 전체기사 ESG 전체 기업·CEO 공기업 지방자치단체 경제 전체 경제 일반 금융 증권 산업 전체 기업·CEO 전자·통신 IT·게임 자동차·물류 건설·중공업 바이오 에너지 생활 전체 유통 식·음료 패션·뷰티 정치 전체 정치 일반 사회 전체 사회 일반 지역 교육 전국 문화 전체 컬처 연예 스포츠 전체 스포츠 일반 스포츠 종합 야구 축구 골프 여행ㆍ레저 2021 한국컵 2020 도쿄올림픽 2022 한국컵 보도자료 전체메뉴닫기</t>
+    <t>제주도, 관광진흥기금 88개 업체 197억원 융자확정 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광진흥기금 88개 업체 197억원 융자확정 등록 2019.04.30 14:06:57 작게 크게 제주도 CI. 【제주=뉴시스】강정만 기자 = 제주특별자치도는 올 상반기 제주관광진흥기금 융자추천 대상으로 총 88개 업체, 197억원을 확정하고 30일 도청 홈페이지에 공고했다. 이를 분야별로 보면 경영안정자금분야는 접수된 96개 업체 198억원 중 타 기금 수혜, 행정처분 등의 사유로 17개 업체 37억원을 제외해 최종 79개 업체 161억원(신청액 대비 81.29%)을 확정했다. 시설분야는 개·보수자금 5개 업체에 16억원, 건설자금 4개 업체에 20억원이 각각 신청한 가운데 9개 업체, 36억원 전액을 융자추천 확정했다. 2019년도 상반기 확정된 융자금은 전체 105개 업체가 신청한 234억원에 비해 84.19% 규모다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 울산시교육청, 사립유치원 42개원 종합 지도·점검 창원시, 150억 규모 동읍 농촌중심지 활성화 사업 추진 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 제주관광진흥 전략회의 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 제주관광진흥 전략회의 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 제주관광진흥 전략회의 개최 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.04.30 17:13 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 관광정책에 빅데이터 활용하는 방안을 모색하는 자리가 마련됐다.제주특별자치도는 30일 오후 2시 제주도청 한라홀 4층에서 '제주관광진흥 전략회의'를 개최했다.이날 회의는 통계 조사 및 빅데이터를 통해 관광 사업의 현실태를 진단하고 정책 활용도를 높일 수 있는 방안을 모색하기 위해 마련됐다.이 자리에는 관광분야 실국단장, 행정시 부시장을 비롯해 제주관광협회, 제주관광공사, ICC 제주 등 유관기관 등이 함께 참석했다.참가자들은 제주방문 관광객 실태조사 결과, 신용카드 매출액 분석, 관광동향 및 빅데이터 기반 행정 추진 현황 및 활용 방안 등을 공유했다.이 자리에서 원희룡 제주도지사는 "불필요한 논란과 갈등을 줄일 수 있는 것은 바로 데이터"라면서 "기술적‧법적 허용 범위 안에서 늘 최신으로 반영하고, 예산을 지원해 인프라를 구축해야 한다"고 강조했다.이어 "정보로서 가치가 있는 것은 공유하고 공개할 수 있는 방안을 만들어야 한다"며 "카드 매출 실적 등 제주 관광 현황과 연결된 데이터가 많이 나오고 있기 때문에 이를 토대로 대응전략을 세우는 것은 시대적으로 매우 중요하고 관광 문제를 해결하기 위한 좋은 요인이 될 것"이라 전망했다.한편 제주도는 빅데이터 정책 추진 상황과 데이터 기반 정보를 공유하고, 실무부서에서 필요로 하는 과제를 발굴하기 위한 '빅데이터 실무협의회'를 지난해 연 2회에서 분기별로 개최하며 데이터 관점의 컨설팅제를 운영하고 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 셀럽들이 즐겨 찾는 중문 맛집, 중문관광단지 ‘기원뚝배기’ - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 셀럽들이 즐겨 찾는 중문 맛집, 중문관광단지 ‘기원뚝배기’ 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 셀럽들이 즐겨 찾는 중문 맛집, 중문관광단지 ‘기원뚝배기’ 김영수 기자 승인 2019.04.30 10:52 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도는 지금 봄을 만끽하려는 여행객들로 붐비고 있다. 한라산과 한라산의 기생화산인 오름이 300여개로 육지와 또 다른 이국적인 정취를 느낄 수 있는 제주도는, 한 시간만 비행하면 도착할 수 있어 바쁜 일상에서 벗어나 독특한 자연환경 속에서 편히 쉴 수 있는 곳으로 각광을 받고 있다.제주도에 위치한 여러 제주 맛집 가운데 서귀포시 색달동 중문관광단지 삼거리 부근에 위치한 제주 중문 맛집 '기원뚝배기'는 갈치 특유의 비린내를 잡아주는 황금비율의 특제 양념을 사용한 통갈치조림이 대표 메뉴다. 제주 중문 맛집 기원뚝배기의 통갈치조림은 싱싱한 제주산 통갈치를 사용하여 특제양념과 어우러진 독특하고 깊은 맛이 특징이다.또한 약초를 숙성시킨 효소의 특제양념 덕분에 비린내가 없고 고소하고 담백한 맛을 느낄 수 있어 조림양념을 활용해 밥을 비벼 먹는 손님들도 많다. 그리고 손님들에게 제주도 특유의 밥상과 함께 건강식을 제공하고자 통갈치조림에 제주산 고사리를 넣어 주고 있어 육지에서 맛보기 힘든 통갈치와 고사리가 조화를 이룬 맛을 느낄 수 있다. 또다른 메뉴인 전복뚝배기는 생전복을 활용하여 부드러운 식감을 느낄 수 있는 메뉴이다. 이외에도 낙지전복해물전골, 문어전복해물전골, 성게국 등은 10가지 재료를 사용하여 오랜 시간 육수를 끓여 요리해 해장 메뉴로 적합하다.기원뚝배기는 최대 90명까지 수용 가능하며, 오전 6시부터 오후 10시까지 연중무휴로 운영된다, 또 술자리 손님의 안전을 위해 중문관광단지 내 숙소까지 이동서비스도 제공한다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영수 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 직항노선 활용 시장다변화 겨냥 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광공사, 직항노선 활용 시장다변화 겨냥 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광공사, 직항노선 활용 시장다변화 겨냥 기자명 강지환 기자 입력 2019.04.28 15:40 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 필리핀 제주 전세기 활용 여행업계 및 미디어 초청 팸투어.제주와 직항노선이 운항 중인 국가를 중심으로 한 제주관광 시장다변화 마케팅이 활발하게 추진된다. 제주특별자치도와 제주관광공사(사장 박홍배)는 말레이시아와 필리핀 미디어 등을 활용, 제주관광 홍보에 나선다고 밝혔다.필리핀에서는 지난 24일부터 27일까지 여행업계 5곳, 언론 1곳의 관계자가 제주를 방문, 제주의 이색 관광지 등 신규 콘텐츠를 답사했다.이번 팸투어로 개발된 상품은 올 하반기 추가 운항 예정인 필리핀 마닐라와 제주 간 전세기 상품으로 활용될 예정이다. 말레이시아에서는 지난 25일부터 30일까지 현지 유명 인플루언서와 촬영팀이 제주의 카페, 빈티지샵, 레저스포츠(해녀체험, 패러글라이딩, 해변승마 등)를 체험하고 있다.체험하면서 촬영된 영상은 사회관계망서비스(SNS)와 2030 대상 온라인채널, 에어아시아X 홈페이지 등에서 홍보된다.제주관광공사 관계자는 "성공적인 제주관광 시장다변화를 위해서는 신규 직항노선은 물론 기존 노선의 운항 안정화가 필수요소"라며 "항공사, 여행사, 미디어 등을 활용한 지속적이고 공격적인 마케팅을 통해 제주관광 활성화에 나설 것"이라고 말했다.한편 올 들어 지난 2월까지 일본과 중국, 홍콩, 대만 등 인접국가를 제외한 아시아 국가에서 제주를 방문한 관광객은 3만8223명으로 전년 대비 32% 증가했다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, "제주 방문 환영합니다" &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, "제주 방문 환영합니다" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 제주도관광협회, "제주 방문 환영합니다" 기자명 문서현 기자 입력 2019.04.28 10:47 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주국제공항 국제선 대합실서 기념품 제 공 등중국 노동절, 일본 골든위크 등 1만5000여명 방문 예정 제주도관광협회는 중국 노동절과 일본 골드위크기간에 제주를 찾는 외국인 관광객들을 대상으로 입도 환영행사를 개최하고 있다제주도와 제주도관광협회(회장 김영진)는 일본과 중국의 최대 연휴인 골든위크와 노동절을 맞아 제주를 방문하는 외국인 관광객을 대상으로 제주 방문 환영행사를 실시한다.이번 환영행사는 5. 1(수) 제주 국제공항 1층 국제선 대합실에 분위기 조성을 위한 환영 현수막 및 부스를 마련하고 제주를 찾는 관광객들에게 삼다수와 함께 감귤 쿠키 등 기념품을 전달 하며 환영 메시지를 전달할 계획이다.한편, 골든위크 (4.27(토)~5.6(월)) 및 노동절 (5.1(수)~5.5(일)) 기간동안 제주를 방문하는 외국인 관광객은 일본인 약 3000여 명,중국인 약 1만2390여 명으로 총 1만5390여 명이 제주를 찾을 것으로 예상하고 있다.도관광협회 관계자는 "연휴기간 동안 입도 관광객을 대상으로 적극적인 환대 분위기를 조성하여 제주관광 재방문 및 제주관광 친절 이미지 확산을 위해 적극 노력하겠다"고 밝혔다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 지나가다가 열받아서 2019-04-28 12:05:44 더보기 삭제하기 안 가요 제주 왜 가요? 비싸기만 한데 손님을 지나가는 개 만도 못하게 취급하고 개밥 보다 못한 식단을 사람 보며 바가지 씌우는데 돈 줘도 안 가요 갔다오면 기분만 잡쳐서. 답글쓰기 0 2 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 가성비끝판왕 갈치정식 먹기위한 발길 이어져 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도 명소 용머리 관광지 앞 ‘플레이사계’ 테마상가 공급, 발전가능성 높아 &lt; 문화 &lt; 핫이슈 &lt; 기사본문 - 서울와이어 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 모바일웹 2022-10-11 12:50 (화) 경제/산업 금융/증권 정치/사회 글로벌 부동산 핫이슈 ESG 포토뉴스 영상뉴스 보도자료 인사·부고 더보기 기사검색열기 기사검색 검색 검색닫기 본문영역 이전 기사보기 다음 기사보기 제주도 명소 용머리 관광지 앞 ‘플레이사계’ 테마상가 공급, 발전가능성 높아 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 핫이슈 문화 제주도 명소 용머리 관광지 앞 ‘플레이사계’ 테마상가 공급, 발전가능성 높아 기자명 정시환 기자 승인 2019.04.25 14:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [서울와이어 정시환 기자] 국내 최대 관광지로 알려진 제주도는 과거부터 현재까지 국내에서 가장 인기 많은 신혼여행지로 손꼽히며 해마다 많은 이들이 방문한다. 이는 교통여건이 좋아진 덕에 왕복이 수월해졌기 때문이다. 더불어 제주도로 이주하는 이들도 크게 늘었다. 한 예능프로그램에서 유명 가수부부가 낭만적인 제주도의 삶을 누리는 것이 전파를 타면서 낭만적인 제주도 삶을 꿈꾸며 제주도로 이주하는 이들이 부쩍 늘었다. 제주도는 수련회나 수학여행, 동호회, 가족여행, 데이트 등 모임구성이나 목적은 제각각 다르지만 뜻 깊은 추억을 남기기에는 손색이 없다. 가장 대표적인 명소인 한라산과 성산일출봉을 비롯해 매년 약1,500만 명의 관광객이 유입되는 용머리관광지도 큰 인기를 누리고 있다. 이처럼 제주도에는 유명 관광지가 많은데, 제주도에서 처음 유명 관광지 앞 단일규모로 최대면적을 자랑하는 제주도 테마상가 ‘플레이사계’가 분양 중이다. ‘플레이사계’는 1~2층, 총 43개 호실로 구성되어 있으며, 광장형 테마상가로 구성되어 있어 용머리관광지에 또 다른 핫 플레이스가 될 것으로 기대된다. 입지조건은 상당히 우수하다. 제주도는 약234억 원을 사업비로 들여, 오는 2020년 12월31일까지 용머리 관광지 개발사업을 추진하고 있는데, 개발사업이 추진되는 곳은 용머리관광지 공영주차장 인근이며 특히 ‘플레이사계’는 용머리관광지 공영주차장 바로 앞에 위치해 있다. ‘플레이사계’ 분양담당자는 “제주도로 이주하는 분들이 늘어 제주도 타운하우스와 전원주택, 아파트 등 주거단지가 지속적으로 늘고 있지만, 관광명소의 자연경관은 훼손하지 않고 있어 제주도를 찾는 여행객들에게 있어 여행에 불편함은 없어보인다”고 설명했다. 그는 덧붙여 “특히 용머리관광지는 제주도 여행객들에게 큰 인기를 누리고 있는데, 플레이사계는 입지조건이 워낙 좋아 수요자들 입장에서 매력적인 테마상가다”라고 전했다. 한편, 제주도 가볼만한 곳 용머리관광지 인근에는 산방산랜드와 하멜상선전시관, 송악산 등이 있어 용머리관광지를 방문한 뒤 다른 명소로 이동이 수월하다. home@seoulwire.com 정시환 기자 home@seoulwire.com 다른기사 보기 저작권자 © 서울와이어 무단전재 및 재배포 금지 당신만 안 본 뉴스 출근길 서울지하철 5호선 또 먹통...장애인단체 시위 마약 최근 손댔다던 돈스파이크… 10년전부터 상습 투약 영국 패션쇼에 오른 한복… '예비신부' 김연아가 디자인 유튜브 댓글 의심이 사실로… 가수 돈스파이크 필로폰 투약 다가온 콘서트 시즌… '히어로' 임영웅 실물 보려면 대전 현대아울렛 직원 보상...매니저 350만원, 판매사원 250만원 [CEO투데이] '두 번째 혁신' 준비하는 김슬아 마켓컬리 대표 출근길 서울지하철 5호선 또 먹통...장애인단체 시위 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 尹 “청년 꿈 좌절 안 하도록… 희망의 사다리 놓아야” 강원경찰청, 외국인 노동자 상대 마약유통… 태국인 65명 검거 KB자산운용, 글로벌 원자력 ETF 출시 한국투자증권, 테슬라·애플 기초 주가연계증권 모집 노벨경제학상 버냉키 "금융위기극복, 다양한 사건 주시해야" [부고] 박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 최신뉴스 尹 “청년 꿈 좌절 안 하도록… 희망의 사다리 놓아야” 강원경찰청, 외국인 노동자 상대 마약유통… 태국인 65명 검거 KB자산운용, 글로벌 원자력 ETF 출시 한국투자증권, 테슬라·애플 기초 주가연계증권 모집 노벨경제학상 버냉키 "금융위기극복, 다양한 사건 주시해야" 핫이슈 나주시, 대한민국 평생학습대상 우수상 쾌거 광주시, 안전대전환 집중안전점검 최종보고회 개최 해남군‘어르신이 행복한 해남 만들기’맞춤형 노인복지 강화 무안군, 고품질 돌김 생산 위한 김 양식어장 예찰지도 실시 인기뉴스 1 임영웅, 6일만에 유튜브 1000만 조회수 달성… 17억뷰 고지 목전 2 [산업 이슈 픽] 국정감사 앞둔 한전, 여야 집중타깃 되나? 3 김주형 PGA 최연소 2승...레전드 타이거 우즈 기록 갈아치웠다 4 러, 우크라 주요도시 미사일 타격… 크림대교 폭파 보복 추정 5 중국, 반도체 때리기에 희토류 수출 통제로 대응 6 [날씨] 전국 흐리고 비… 강한 바람에 체감온도 '뚝' 떨어진다 7 담원 기아 압도적 우승… 배틀그라운드 모바일, ‘PMPS 2022 시즌 4’ 성료 8 뉴욕증시, 통화긴축 우려·전쟁 불안·JP모건 경고에 하락 마감 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 서비스 전체보기 매체정보 서울특별시 마포구 만리재로 15 (제일빌딩) 10층 1011,1012호 대표전화 : 02-6952-0992 청소년보호책임자 : 김숙영 법인명 : 이슈앤비즈미디어(주) 제호 : 서울와이어 등록번호 : 서울 아 03747 등록일 : 2015-05-21 발행일 : 2015-04-01 발행인 : 편집인 : 김종현 서울와이어 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 서울와이어. All rights reserved. mail to sw@seoulwire.com 한국인터넷신문협회 회원사 위로 전체메뉴 전체기사 경제/산업 전체 생활경제 공유경제 브랜드경제 정치 정상회담 산업 IT 업사이클 금융/증권 전체 금융 증권 정치/사회 글로벌 전체 글로벌 부동산 전체 부동산 핫이슈 전체 정치 정상회담 사회 패션/뷰티 문화 오피니언 인사·동정 사회적기업 인터뷰 정책 방송/연예/스포츠/라이프 전체 방송/연예/스포츠 스타트업 생생! 톡 전체 생생! 주부톡 생생! 알람톡 생생! 푸드톡 생생! 아이톡 생생! 엔터톡 영상뉴스 증시 공시 기획특집 긴급진단 기자수첩 ESG 보도자료 인사·부고 CEO 투데이 메타센서 글렌다박의 블루오션 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 아오모리서 제주관광 홍보 &lt; 기업 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광공사, 아오모리서 제주관광 홍보 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 기업 제주도·관광공사, 아오모리서 제주관광 홍보 기자명 강지환 기자 입력 2019.04.25 10:36 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 수요 창출을 통한 일본인 관광객 유치 활성화 아오모리 히로사키 벚꽃축제.제주특별자치도와 제주관광공사(사장 박홍배)는 제주의 자매결연도시인 일본 아모오리현에서 지방도시 일본인 관광객 유치 활성화를 위한 홍보 활동에 나선다.제주도와 관광공사는 오는 26일 아오모리현의 히로사키에서 개최되는 벚꽃 축제에 참가해 아오모리현 주민 대상으로 제주 홍보 및 제주와 관련된 참여형 이벤트를 열고 제주 관광에 대한 이미지도 환기와 인지도도 높이기 위한 행사를 개최한다고 25일 밝혔다.이날 도와 공사는 아오모리현청 관계자를 찾아 제주-아오모리 간의 관광 교류 확대를 위한 논의도 진행한다.이번 논의는 이번 히로사키 벚꽃 축제의 제주 관광 홍보도 자매도시인 아오모리현청의 협조로 마련됐다.이에 제주관광공사는 아오모리현의 신문기자와 파워블로거를 활용한 제주관광 팸투어를 추진할 계획이다.제주관광공사 관계자는 "지속적으로 일본인 관광객의 제주 유치 확대를 위해서는 지방도시에서의 제주관광 수요 창출이 필요하다"며 '앞으로 아오모리현과의 지속적인 관계 유지를 통해 상호 간 관광교류가 확대 될 수 있도록 노력해나가겠다"고 말했다.한편 히로사키 벚꽃 축제는 일본에서 가장 큰 규모의 벚꽃 축제로 개최 기간 약 200만명의 방문객이 다녀가고 있다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>中 노동절-日 골든위크…5월, 제주도, 관광객 ‘출렁’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 中 노동절-日 골든위크…5월, 제주도, 관광객 ‘출렁’ 파이낸셜뉴스입력 2019.04.23 13:28수정 2019.04.23 16:27 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 중국 한한령 완화…중·일 관광객 1만5000명이상 될 듯국내 '봄 여행 주간'과 맞물려 도내 관광업계 특수 예고 제주국제공항 국제선 대합실. fnDB [제주=파이낸셜뉴스 좌승훈 기자] 중국 노동절(5월 1일~5일)과 일본 골든위크(4월 27일~5월 6일) 연휴가 겹치면서 이 기간에 제주도를 찾는 외국인관광객은 최소 1만 5000며명이상될 것으로 전망되고 있다. 제주도관광협회(회장 김영진)가 중국 노동절과 일본 골든위크 주간을 앞두고 23일을 기준으로 국내외 항공편과 대형 크루즈를 이용해 제주도를 찾는 외국인 관광객을 집계한 결과 중국인은 1만2390여명, 일본인은 3000여명인 것으로 파악됐다. 중국인 관광객은 지난해 같은 기간보다 42.1%나 증가한 것으로, 지난 2016년 중국 정부의 한한령(限韓令·한류 제한령) 조치가 다소 완화된 것으로 분석되고 있다. 이 가운데 항공편 이용해 제주를 찾는 중국인은 1만1600명, 국내 다른 지역의 공항을 경유해 제주도를 찾는 중국인은 760명에 이를 전망이다. 여객선을 통해 제주도로 들어오는 중국인 관광객은 30명인 것으로 집계됐다. 일본 골든위크는 일본 헌법기념일과 어린이날 등이 포함된 5월 첫주 약 7일간의 휴일을 말한다. 다만 이 기간 동안 제주도를 찾는 일본인 관광객은 지난해 보다 200여명 가량 소폭 감소한 것으로 조사됐다. 다만 연휴 시작까지 며칠 여유가 있는 만큼 제주도를 찾는 외국인 관광객 수는 더 늘어날 것으로 전망된다. 제주도는 이에 따라 5월 중·일 관광객 특수와 함께 국내 봄 여행주간(4월 27~5월 12일)과 맞물려 크게 활기를 띨 전망이다. jpen21@fnnews.com 좌승훈 기자 키워드#중국 노동절 #일본 골든위크 #한한령 #봄 여행주간 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>하루 종일 타도 3000원, 제주도 관광지 순환버스 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 하루 종일 타도 3000원, 제주도 관광지 순환버스 파이낸셜뉴스입력 2019.04.23 11:49수정 2019.04.23 11:52 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 6월 말까지 인스타그램 스탬프 이벤트 진행 제주 관광지 순환버스 /사진=fnDB [제주=파이낸셜뉴스 좌승훈 기자] 제주도 관광지순환버스(주)(대표이사 고창호)는 22일부터 6월 30일까지 관광지 순환버스 이용객 대상으로 인스타그램 스탬프 이벤트를 진행하고 있다. 지난해에 이어 두 번째로 실시되는 이번 스탬프 이벤트는 관광지 순환버스를 탑승해 노선 내 관광지 또는 오름 2곳 이상을 여행하면서 홍보 리플릿에 스탬프를 찍고 여행사진과 함께 인스타그램에 업로드하면 자동으로 응모가 된다. 추첨을 통해 푸짐한 경품이 제공되며, 당첨자 발표는 오는 7월 12일 마련된다. 관광지 순환버스는 대중교통 이용요금과 동일한 1150원(성인 기준·교통카드 결제)이다. 1일 정액권(성인 3000원, 청소년 2000원, 어린이 1000원)을 환승센터에서 구입하면 저렴하게 관광지 순환버스를 하루 종일 이용할 수 있다. 아울러 노선 내 관광지 입장료도 할인혜택까지 받을 수 있다. 또 관광지순환버스에는 국내여행 안내사 자격증을 보유한 교통관광도우미가 함께 탑승해 관광객들에게 교통정보와 관광정보를 제공하고 있으며, 안전도우미 역할도 수행한다. 동부지역 관광지순환버스는 제주시 구좌읍 대천동에서 출발해 제주세계자연유산센터-비자림- 용눈이오름 등을 거쳐 대천동으로 돌아오며, 서부지역 관광지순환버스는 서귀포시 안덕면 제주신화역사공원과 제주항공우주박물관-제주오설록 티뮤지엄-저지오름 등을 순환한다. 첫 차는 오전 8시20분 동광환승센터와 8시30분 대천환승센터에서 각각 출발하며, 막차는 오후 5시30분으로 30∼60분 간격으로 양방향 운행하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 도내 관광사업체 마케팅 지원 강화 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광협회, 도내 관광사업체 마케팅 지원 강화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광협회, 도내 관광사업체 마케팅 지원 강화 기자명 강지환 기자 입력 2019.04.26 15:45 수정 2019.04.26 17:52 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도와 제주도관광협회(회장 김영진)는 제주여행업계 경쟁력 강화를 유도하기 위한 마케팅 지원 사업을 실시한다고 26일 밝혔다.이번 사업은 제주지역 내국인 관광객이 감소로 인해 여행업체, 숙박업체, 식당 등 관광사업체들이 어려움을 겪고 있어 마련했다.이에 도와 협회는 제주여행 상품 경쟁력 강화를 위한 온·오프라인 홍보, 인플루언서 팸투어 및 현지 판촉 활동비 등 다양한 제주 관광객 유치를 위한 지원정책을 추진한다.사업 기간은 올해 4월부터 12월까지다. 지원대상은 제주도내 본점을 둔 관광사업체다. 단, 여행업체의 경우 영업보증보험(공제보험)에 가입된 업체에 한한다.지원금액은 업체당 최대 300만원이다.이번 사업은 오는 5월 31일까지 사전접수를 받고 있다.더 자세한 사항은 협회 홈페이지(www.visitjeju.or.kr) 내 공지사항을 참고하거나 담당부서(064-741-8794)를 통해 확인할 수 있다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 뱃길 관광 활성화 내국인 유치 나선다 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 뱃길 관광 활성화 내국인 유치 나선다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 뱃길 관광 활성화 내국인 유치 나선다 기자명 이은지 기자 입력 2019.04.21 13:26 수정 2019.04.21 15:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 씨월드고속훼리의 퀸메리호.육지-제주 노선별 선사 4개 선정선상 이벤트·홍보 시설 등 지원제주도가 뱃길 관광 활성화를 통해 내국인 관광객 유치에 적극적으로 나선다.도는 육지와 제주를 잇는 여객선사별로 1개 노선을 선정해 집중적으로 지원할 계획이다.선정한 노선은 완도-제주(실버 클라우드호), 고흥-제주(아리온 제주호), 부산-제주(뉴스타호), 목포-제주(퀸메리호) 등 4개다.도는 특히 선사와 공동으로 선상 이벤트와 홍보 시설 등을 지원해 뱃길 관광 수요층을 점진적으로 확대할 계획이다. 아울러 KTX와 선박을 함께 이용하면 할인 혜택을 제공하는 '레일쉽' 상품(용산·오송 출발)을 개발하고 목포발 제주행 퀸메리호의 승선료를 30~40% 할인한다. 또 각종 대중매체를 활용, 뱃길 관광을 홍보하고 제주 뱃길 통합 홍보물 등을 제작해 뱃길 관광객 편의를 도모할 예정이다.지난해 제주도 입도객 통계에 따르면 입도 관광객 가운데 3.4%가 뱃길을 통해 제주를 찾았다. 올해 뱃길을 이용해 제주를 찾은 관광객은 10만7000여명으로 지난해 같은 기간 9만9000여명에서 8.5% 증가했다.올해는 지난 2014년 세월호 사고 이후 중단됐던 제주~인천 노선이 재개된다. 내년에는 성산~녹동, 제주~삼천포 등 노선을 신규 취항한다. 양기철 제주도 관광국장은 "제주 관광을 유도하기 위한 뱃길홍보를 강화하겠다"며 "특히 향후 신규 취항노선에 대해 여객편의 서비스와 즐길거리 등을 제공해 침체한 국내 관광을 활성화하겠다"고 밝혔다.이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 어린이 관광아카데미 참가자 모집 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도관광협회, 어린이 관광아카데미 참가자 모집 (제주=뉴스1) 강승남 기자					| 2019-04-18 11:53 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도관광협회 어린이 관광아카데미 포스터© 뉴스1 제주특별자치도관광협회(회장 김영진)가 19일부터 26일까지 도내 초등학교 3~6학년을 대상을 어린이 관광아카데미 참가자를 선착순으로 모집한다.모집인원은 어린이 40명, 보호자 40명 등 모두 80명이다.제주특별자치도관광협회는 5월부터 10월까지 매월 셋째 주 토요일에 동백동산습지센터, 올레바당체험마을, 국립제주박물관, 낙천리 의자마을, 렛츠런팜 등에서 역사, 문화, 자연을 접목한 내용으로 교육을 진행한다. 체험활동 중심의 프로그램으로 교육효과를 높이고, 보호자 동행을 가능하게 해 가족 단위 교육의 장을 제공한다. 아카데미는 전액 무료다. 희망자는 제주특별자치도관광협회 홈페이지에서 신청서를 내려 받아 작성 후 제출하면 된다. 기타 자세한 내용은 제주특별자치도관광협회 기획팀으로 문의하면 된다. 제주특별자치도관광협회는 2009년 초등학생용 관광교재 개발을 시작으로 제주특별자치도교육청과 함께 관광교육 선도학교, 찾아가는 친절관광교육 등을 운영하고 있다. ksn@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도와 알리페이, 개별관광객 유치 위해 힘 모은다-국민일보 시사 시사 &gt; 전체기사 제주도와 알리페이, 개별관광객 유치 위해 힘 모은다 제주도, 알리페이코리아와 업무협약식 체결 입력 : 2019-04-19 15:52 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 개별관광객 유치를 위해 알리페이 코리아와 업무협약을 체결했다.(제주도 제공 )제주도가 개별관광객 유치를 위해 알리페이 코리아와 업무협약을 체결했다.알리페이 코리아는 중국 내 9억 명에 달하는 가입자와 중국 내 모바일 결제 점유율 80%이상(2018년 기준)을 차지하고 있는 알리바바 그룹 계열사 알리페이의 한국법인이다.이번 협약에 따라 제주도는 알리페이 데이터와 알리바바 그룹 계열사를 통한 제주도 관광홍보 기회 및 제주 특산제품 판매 창구 등을 제공받을 수 있을 전망이다.도는 알리페이로 결재한 사용자 빅데이터를 통해 보다 효과적으로 중국인 관광객의 소비 패턴과 구매력을 파악할 수 있게 돼 관광·교통·상권 등 여러 분야의 정책수립 및 활용 기반을 공고히 다지게 될 것으로 기대하고 있다.제주도와 알리페이코리아는 전통시장, 중소상공인, 택시 등을 대상으로 알리페이 가맹점을 확대하고, 중국인 개별관광객에 대한 다양한 판매촉진 행사를 열어 매출 신장을 함께 도모해 나갈 예정이다.노희섭 도 미래전략국장은 “빅데이터 분석이 모든 정책에 기반이 되고 있는 시점에 알리페이 코리아와 협약을 체결하게 돼 기쁘다”며 “알리페이의 유의미한 빅데이터 수집·분석을 통해 제주지역 경제 활성화와 관광홍보 채널 다변화에 기여하는 유기적 선순환이 이뤄질 것으로 기대한다.”고 밝혔다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
+  </si>
+  <si>
+    <t>스포츠서울 - 영광군, 제주도 관광객 유치 위해 적극 홍보활동 영광군, 제주도 관광객 유치 위해 적극 홍보활동 입력2019-04-19 09:52 수정2019-04-19 12:23 영광군은 제주특별자치도 도서관주간을 맞아 ‘여행자가와 함께하는 재미난 체험여행’ 부스운영 모습. (제공=영광군) [영광=스포츠서울 이정진 기자] 전남 영광군은 영광의 구석구석 명소와 매력을 담은 ‘너와 함께 영광여행’의 저자 양소희 여행작가와 함께 지난 12일부터 13일까지 이틀간 제주도 지역에서 영광군을 알리는 홍보활동을 펼쳤다. 영광군은 제주특별자치도 도서관주간을 맞아 한라도서관 일원에서 개최된 도서관 책 잔치의 일원으로 여행작가와 함께하는 재미난 체험여행 부스운영을 하였다.양소희 작가는 ‘너와 함께 영광여행’ 책 속에 나오는 영광군 관광명소 및 특산품 등을 참가자들의 눈높이에 맞춰 재미난 이야기를 들려주었고 참여자들은 스토리 청취 후 무지 에코백 위에 상사화, 굴비, 백수해안도로, 영광대교 등을 그려 완성하는 체험활동을 실시했다.또한 영광군 관계자는 체험 참가자들에게 준비한 책자 250권과 천일염, 찰보리쌀을 기념품으로 제공하며 꼭 한번 영광여행을 와줄 것을 당부했다.군 관계자는 “이날 행사에 참여한 제주지역 도서관 15개소에 영광여행책자를 비치해줄 것을 요청했고 제주도민에게 영광군을 알릴 수 있는 좋은 기회가 되었다며 앞으로도 관광객 유치를 위한 적극적인 홍보활동을 펼치겠다”고 말했다.이정진기자 leejj0537@sportsseoul.com ▶ 디지털 뉴스콘텐츠 이용규칙 보기 0 오늘의 핫키워드 선우은숙 재혼 l 김지민 l 신혜성 l 오은영 박사 인기기사-네이버 '재혼' 선우은숙-유영재 아나, 어떻게 만났나 ... '쌍둥이 임신?' 김지민, 열애 공개한 이유가.... 7kg 감량 홍진영, 초미니로 뽐낸 각선미 '이정후 절친' 고우석, 이종범 사위 된다 '이상화♥' 강남, 장모와 XX수술도 같이해 외도 70대 노부부...오은영도 할 말 잃었다 신혜성, 도난차량서 음주측정 거부로 '체포' 강민경, '65억대' 매입 신사옥으로 이사 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 영상 포토 페이스북 트위터 카카오톡 구글플러스 카카오스토리 밴드 TOP 뉴스 1/2 이전 다음 맥심 선정 '세계 최고 섹시 미녀' 골프선수 중 타이거 우즈보다 팔로워 수가... 강민경, '65억' 매입 신사옥으로 이사 강민경이 신사옥으로 이사한다... 신세경, '헉' 소리 나는 베이글 여신 배우 신세경이 여신 같은 아름다움을... 호주 가라테 국대 출신, 남심 저격 호주 가라테 국가대표 출신으로 모델과... 과감 누드 화보 찍은 '91세' 최고령 모델 미국은 물론이고 전세계를 통틀어... 16살인데...이동국 딸, 넘사벽 성숙미 축구스타 이동국의 딸이자 모델 재시가... 부산국제영화제 레드카펫, 최고의 여신은? 부산국제영화제 레드카펫은... '아이언맨'의 그녀, 50세 기념 누드 배우 기네스 팰트로가 50세 생일을 기념한... SS TV 캐스트 구독하기 스포츠서울 SNS 스포츠서울 앱 살펴보기 스포츠서울 서울가요대상 Android 서울가요대상 IOS [사고]2022 제11회 전국 중.고 인문학 경진대회 X</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, WTF서 제주관광상품 알려 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광협회, WTF서 제주관광상품 알려 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광협회, WTF서 제주관광상품 알려 기자명 강지환 기자 입력 2019.04.21 12:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 도내 관광업계 4개 업계와 공동으로 제주관광상품 홍보를 위해 지난 17일부터 21일까지 중국 상해에서 개최된 2019 상해세계관광자원박람회(WTF)에 참가했다고 21일 밝혔다.상해세계관광자원박람회는 53개국 약 750개 기관(업체)이 참가하고 약 5만6000명의 참관한 대규모 관광전문 박람회다.이 기간 도내 관광업계는 제주관광 정보제공 뿐만 아니라현지 여행업계 및 소비자를 대상으로 자사상품을 홍보했다.나아가 제주도와 도내 관광상품에 대한 인지도를 높이는데 기여했다.또 현지 업계와의 B2B 미팅을 통하여 실질적 비즈니스 네트워크를 구축했다.아울러 도관광협회는 제주국제관광마라톤축제 등 도내 개최 레저·스포츠 상품을 활용한 특수목적관광객(SIT)와 제주시티투어 등과 연계한 FIT 유치를 위한 비즈니스 마케팅을 전개했다.특히 이 기간 현장에서는 중국 현지 관광업계 대상으로 의료투어 및 레저스포츠 등 특수목적형 관광 상담이 많이 이뤄져 약 100여건의 상담이 진행됐다.한편 제주도와 관광협회는 도내 업계의 중화권시장 확대를 위한 마케팅 역량 및 경쟁력을 강화하기 위해 중화권(홍콩, 대만) 주요 관광전문박람회를 중심으로 공동해외세일즈를 지속적으로 실시할 예정이다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 도내 여행업계 마케팅 지원사업 실시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 도내 여행업계 마케팅 지원사업 실시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 도내 여행업계 마케팅 지원사업 실시 문유미 기자 승인 2019.04.28 13:46 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 도내 여행업계의 경쟁력 강화를 위한 마케팅 지원사업을 실시한다고 28일 밝혔다. 이번 지원사업은 제주도내에 본점을 둔 관광사업체를 대상으로 연간 온·오프라인 홍보비용의 최대 60%(업체당 최대 300만원)를 지원한다. 이 밖에 육지부 현지 판촉 활동을 위한 항공·선박료, 간담회비, 차량임차비·주유비 등을 1회당 최대 40만원 한도 내에서 업체당 70만원까지 지원한다. 또 여행상품 개발을 위한 팸투어 비용의 최대 70%(업체당 최대 100만원)를 지원한다. 지원사업 신청 기간은 다음 달 31일까지며, 이메일 또는 방문 접수하면 된다. 문의=741-8794. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>[한국관광 100선] 봄이 가장 빨리 오는 제주도 여행지 9곳-디지틀조선일보(디조닷컴 dizzo.com) 국내여행 [한국관광 100선] 봄이 가장 빨리 오는 제주도 여행지 9곳 박해진 hi21hi@chosun.com 기사입력 2019.01.28 16:21 "주말에 나들이 갈만한 곳은?""커피를 좋아하면 '강릉 커피거리'는 어때?"여행이나 나들이 계획을 잡을 때 가장 먼저 고려하는 것은 장소이다. 장소를 정할 때는 예산과 시간을 고려하거나 친구·지인이 추천한 곳을 잡기도 한다. 이번 여행 장소를 잡을 때는 문화체육관광부와 한국관광공사가 선정한 '한국인이 꼭 가봐야 할 관광지 100선'을 참고하면 어떨까? '한국 관광지 100선'은 수도권 26곳, 강원권 13곳, 충청권 10곳, 전라권 14곳, 경상권 28곳, 제주권 9곳이다. 먼저 봄이 가장 빨리 찾아오는 곳 제주도의 관광지 9곳을 만나보자. 한국관광 100선 - 제주편 01CNN도 인정한 해돋이 명소 '성산일출봉' ▲ www.picpen.chosun.com 회원 'Newspaper'님 사진(위 사진), '제주리뷰'님 사진 제주에서 일출 명소는 어디일까? 한라산, 섭지코지, 광치기해변 등 여러 곳이 있지만 '성산일출봉'을 빼놓을 수 없다. 매년 연말·연초에 성산일출축제도 열린다. 해돋이를 위한 정상 정복이 아니더라도 분화구가 있는 꼭대기에 오르면 푸른 바다와 제주를 한눈에 내려다 볼 수 있다. 미국 뉴스 전문채널인 CNN의 웹사이트에서 공개한 '한국에서 가봐야 할 아름다운 50곳' 중 첫 번째로 꼽은 곳이 성산일출봉이다. 매표소에서 전망대까지는 걸어서 25분 걸린다. ☞  [관련 기사] CNN &lt;50 beautiful places to visit in South Korea&gt; 보기* 성산일출봉 온라인 사이트 바로가기 * 운영 시간 : 3월~9월: 07:00~20:00 (매표 마감 19:00)10월~2월: 07:30~19:00 (매표 마감 17:50)* 이용 요금: 성인 2000원 / 청소년, 군인, 어린이 1000원* 위치 : 제주 서귀포시 성산읍 성산리 1 02유채꽃 활짝 필 때 가고 싶은 '섭지코지' ▲ www.picpen.chosun.com 회원 '無頂'님 사진, '山길나그네'님 사진 유채꽃 활짝 피는 봄에 제주를 간다면, 섭지코지를 가보자. 3월~4월 언덕 위 하얀 등대에 서면 노란 유채꽃과 푸른 바다, 해안절벽이 어우러져 장관을 이룬다. 배우 송혜교와 이병헌이 주인공으로 나온 드라마 '올인'의 촬영지이기도 하다. 풍경만 보고 떠나기 아쉽다면, 세계적인 건축가 '안도 타다오'가 설계한 '글라스하우스'와 '유민미술관'을 가는 것도 좋다. 글라스하우스 1층은 지포(Zippo) 뮤지엄이고, 2층은 레스토랑이다. 유민미술관에서는 유리공예 전시를 볼 수 있다.* 섭지코지 온라인 사이트 바로 가기* 운영시간 : 연중 무휴* 이용 요금 : 무료* 위치 : 제주 서귀포시 성산읍 고성리 03버스투어도, 캠핑도 가능한 '우도' ▲ www.picpen.chosun.com 회원 'Newspaper'님 사진(위 사진), '제주리뷰'님 사진 성산일출봉의 남쪽 바다에 떠 있는 우도는 여의도 3배 크기로 '작은 제주도'라 불린다. 성산포에서 3.8km, 여객선으로 15분이면 닿는 거리에 있다. 우도에선 버스 투어를 하거나 자전거·미니전기차를 빌려 둘러봐도 좋다. 섬에서 가장 높은 봉우리인 '우도봉'에 오르면 사방이 탁 트여 마을 곳곳을 볼 수 있고 바다 건너 성산일출봉과 한라산까지 눈에 들어온다. 우도의 바다 산호해수욕장, 검멀레해수욕장, 하고수동해수욕장도 빼놓을 수 없다. 산호해수욕장 근처에는 한국에선 유일한 '빨간머리 앤' 전용 전시관이 있다. 캠핑을 즐기는 당신이라면 '비양도'를 추천한다. 이곳에 캠핑장이 있어 파도 소리 들으며 잠들고 깰 수 있다. 또한 해질녘 노을 진 바다는 일몰 명소이다.* 우도 소개 온라인 사이트 바로 가기 * 우도 가는 배 운항 시간 및 요금 안내 바로 가기* 위치 : 제주 제주시 우도면 04타임머신 없이도 과거로 갈 수 있는 '성읍민속마을' ▲ 성읍마을 온라인 사이트 제주 성읍민속마을의 초가집은 특별하다. 제주 전통 초가집엔 마을 주민이 실제로 살고 있다. 초가집 돌담을 따라 마을을 천천히 걸으면 도심의 답답함을 날려 버릴 수 있다. 성읍마을의 '오메기술 체험장'에서는 제주 전통술인 오메기술 빚기와 시음도 가능하다.(오메기술 전통 체험장의 이용 시간은 오전 10시~오후 5시) 성읍민속마을을 구경만 하고 떠나기 아쉽다면 여행객을 위한 초가집에서 하룻밤 묵을 수도 있다. 일일 숙박비는 5만원부터 8만원까지(2인기준) 다양하다. * 성읍마을 소개 온라인 사이트 보기 * 초가집 소개 및 숙박 예약 사이트 보기 * 입장료 무료* 관람시간 연중무휴* 위치 : 제주 서귀포시 표선면 성읍정의현로 19 05볼거리 먹을거리 다 있는 '매일올레 시장' ▲ www.picpen.chosun.com 회원 '제주리뷰'님 사진 눈과 입이 즐거운 곳이 시장이다. 오메기떡, 흑돼지꼬치, 귤하르방 빵, 한라봉주스… 이름만 들어도 알 수 있는 제주의 먹거리들이다. 서귀포에서 제일 큰 시장인 '서귀포 매일올레 시장'에 가면 맛볼 수 있다. 시장에서 배를 채웠다면 근처 천지연폭포, 정방폭포, 이중섭거리 등 유명 관광지도 둘러 보면 좋다.* 서귀포매일올레시장 온라인 사이트 보기   * 운영 시간 : 07:00 ~ 21:00 (연중 무휴)* 위치 : 제주특별자치도 서귀포시 중정로73번길 22 06대한민국서 하늘과 가장 가까운 곳, '한라산' ▲ www.picpen.chosun.com 회원 '북한산'님 사진(사진 위), '트레발변'님 사진 '은하수를 잡을 수 있을 만큼 높은 산'이란 뜻의 한라산(漢拏山)은 높이 1,947m로 대한민국에서 가장 높은 산이다. 2002년에는 유네스코 생물권보전지역으로 지정됐고, 2007년에는 유네스코 세계자연유산으로 등재되었다.한라산을 오를 수 있는 등산로가 여럿 있지만, 정상인 백록담까지 갈 수 있는 길은 '성판악 탐방로'와 '관음사 탐방로'이다. 동절기와 하절기에 따라 입산 마감 시간이 다르므로, 한라산국립 공원 온라인 사이트에서 미리 확인하자.* 한라산 탐방로 자세한 안내 보기* 한라산 탐방로별 입산·하산 시간 보기  * 입장료 무료* 위치 : 제주 서귀포시 상효동 산220-1 07산림욕으로 스트레스를 풀 수 있는 '비자림' ▲ www.picpen.chosun.com 회원 '뽕'님 사진 제주에 처음 생긴 산림욕장인 '바자림'은 500∼800년생 비자나무 2,800여 그루가 있다. 비자림에 들어서면 푸른 나무와 은은한 나무향으로 기분까지 좋아진다. 청정 자연에서 휴식을 취하며 정신적 스트레스와 육체적 피로를 풀 수 있다. 날이 맑으면 맑은 대로, 비가 오면 비가 오는 대로 좋은 곳이 '바자림'이다. 비 오는 날엔 나무향이 더 진해져 숲의 향기를 만끽할 수 있다.* 비자림 소개 온라인 사이트 보기 * 운영 시간 : 09:00~18:00* 입장료 : 일반 3,000원 / 청소년·어린이 1,500원* 위치 : 제주 제주시 구좌읍 비자숲길 55 08가족과 함께 걷기 좋은 '절물자연 휴양림' ▲ www.picpen.chosun.com 회원 '無頂'님 사진 절물자연 휴양림은 면적 300만㎡에 수령 30년 이상의 삼나무들이 울창한 숲을 이루고 있다. 하늘로 쭉쭉 뻗은 삼나무와 새소리를 들으면 마음까지 편안해진다. 휴양림 내에는 산책로, 약수터, 폭포, 연못, 잔디광장, 목공예체험장, 운동시설, 어린이 놀이시설, 숙박시설 등이 갖춰져 있어 가족 모두가 즐기기에도 좋다. 휴양림 가운데 자리 잡은 절물오름 정상에 오르면 제주시와 한라산을 볼 수 있다.* 절물자연 휴양림 소개 온라인 사이트 보기 * 입장시간 : 07:00~18:00 (숙박이용 시간 입실 15:00~퇴실 12:00)* 이용요금 : 어른 1,000원 / 청소년 600원 / 어린이 300원* 위치 : 제주시 명림로 584 09뚜벅뚜벅 도보여행가를 위한 '올레길' ▲ www.picpen.chosun.com 회원 '선화'님 사진(사진 위), '자청 권정식'님 사진 '올레'는 제주 방언으로 차가 다니지 않는 길로 도로에서 집 앞까지 이어지는 작은 길을 뜻한다. 해안길, 산길, 들길 등 걷기 좋을 산책로로  '올레 1코스'부터 '올레 21코스'까지 제주 일주가 가능하다. 두 발로 바닷가도 걷고, 오름(산봉우리의 제주 방언)도 오르며 제주의 구석구석을 느낄 수 있다. 도보여행이 아니더라도, 숙소에서 가까운 올레길을 걷는 것도 좋다. * 제주 올레길 온라인 사이트 보기 * 위치: 제주 전역 박해진 hi21hi@chosun.com 관련뉴스 [한국관광 100선] 마음이 통하는 사람과 함께 떠나는 서울 여행지 5곳 [한국관광 100선] 바다를 즐기는 색다른 방법, '부산' 여행지 6곳 [한국관광 100선] 하늘이 내린 정원과 산이 있는 전라남도 여행지 9곳 [한국관광 100선] 보석 같은 경상북도 여행지 4곳 [한국관광 100선] 색다른 경험, 그 섬에 가고 싶다! 경상남도 여행지 4곳 [한국관광 100선] 새벽부터 밤까지 매력 뽐내는 경상남도 여행지 5곳 [한국관광 100선] 야(夜)한 여정의 매력, 대구 여행지 4곳 [한국관광 100선] '산 중턱', '강 한가운데' 있어 특별한 강원도 여행지 6곳 [한국관광 100선] 마음 속에 저장하고픈 강원도 여행지 7곳 [한국관광 100선] '바다의 기적' '멋진 야경' 볼 수 있는 경기도 여행지 6곳 [한국관광 100선] 하늘이 주신 자연에 인간의 손을 더한 경기도 여행지 6곳 [한국관광 100선] 해가 져도 멋진 인천 여행지 4곳 [한국관광 100선] 과거로 시간여행 가능한 전라북도 여행지 5곳 [한국관광 100선] 천혜의 자연 품은 충청도 여행지 10곳 [한국관광 100선] 산, 바다 그리고 먹거리까지 놓칠 수 없는 경상북도 여행지 5곳 [한국관광 100선] 우리의 밤은 어느 때보다 아름다워… 서울 여행지 5곳 최신뉴스 Copyright ⓒ 디지틀조선일보&amp;dizzo.com</t>
+  </si>
+  <si>
+    <t>제주도의회 “道 관광국장, 카지노감독위 당연직 위촉은 부적절” :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도의회 “道 관광국장, 카지노감독위 당연직 위촉은 부적절” 등록 2019.04.15 14:52:59 작게 크게 문화관광체육위 제371회 임시회 1차 회의 【제주=뉴시스】15일 오전 이경용 제주도의회 문화관광체육위원회 위원장이 도 카지노감독과를 상대로 질의하고 있다. 2019.04.15. (사진=제주도의회 제공) photo@newsis.com 【제주=뉴시스】조수진 기자 = 제주특별자치도가 관광국장을 카지노업 감독위원회의 당연직으로 위촉하는 내용의 조례 개정을 추진하려 했으나 무산됐다. 15일 오전 제주도의회 문화관광체육위원회(위원장 이경용)는 제371회 임시회 1차 회의를 열어 ‘제주도 카지노업 관리 및 감독에 관한 조례 일부개정 조례안’을 상정해 심의했다. 앞서 도는 카지노업 감독위원회의 구성 조항 중  ▲9명 이내 위원→성별 균형을 고려한 11명 이내의 위원 ▲위원회의 당연직 위원은 제주특별자치도 카지노 업무 담당(관광국) 국장으로 위촉 등이 포함된 개정안을 제출했다. 이날 문광위는 “관광국장의 당연직 위촉이 카지노감독위원회의 독립성과 전문성을 침해할 소지가 있다”며 해당 조항을 삭제한 뒤 개정안을 수정·가결했다. 이경용 위원장(무소속·서귀포시 서홍·대륜동)은 “도 관광국장이 참여하면 회의를 주도적으로 할 가능성도 있고 감독위는 회의 결과를 도지사에 건의할 수 있다고 돼 있는데 ‘셀프건의’가 되지 않을까 우려된다”며 “국장이 들어가면 발언권과 의결권을 다 갖게 되는데 감독위가 도정의 방향으로 흘러가게 되는 것 아닌가”하고 지적했다. 이에 고동완 도 카지노감독과장은 “일단 (감독위가) 합의제 기구로 갈 때까지 담당국장이 위원으로 참여하면 다른 위원들에게 급속히 변화하는 카지노산업의 트렌드에 대해 정확히 알리고 사안별로 충분히 설명해 정확한 판단을 내릴 수 있게 하는 역할을 하는 등 긍정적인 측면이 많을 것으로 보고 당연직으로 포함했다”고 답했다. 그러자 이 위원장은 “국장이 위원들을 제대로 가르치기 위해 참여한다는 건가”라 물으며 “당초 도는 전국적으로 변호사와 교수, 시민단체 등 전문가들로 감독위를 구성했는데 이분들이 (국장 없이는) 정확한 판단을 못 한다고 생각되면 다시 전문성 있는 사람들로 위촉하면 된다. 국장의 당연직 필요성에 대한 논리가 잘못됐다”고 비판했다. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 울산시교육청, 사립유치원 42개원 종합 지도·점검 창원시, 150억 규모 동읍 농촌중심지 활성화 사업 추진 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 인도 신시장 개척...한국문화관광대전 참가 제주알려 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 인도 신시장 개척...한국문화관광대전 참가 제주알려 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 인도 신시장 개척...한국문화관광대전 참가 제주알려 기자명 고병수 기자 입력 2019.04.21 07:35 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 인도 현지 여행업계 대상 세일즈 콜 전개 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 지난 13일과 14일 인도 최대경제 도시 뭄바이에서 개최된 한국문화관광대전(Korea Culture &amp; Tourism Festival)에 참가해 제주의 관광자원을 알리고 현지 여행 업계를 대상으로 세일즈 콜을 전개했다고 20일 밝혔다.道는 제주관광공사와 함께 현지 언론대상 미디어 컨퍼런스, 트래블마트, 한국 관광의 밤 행사에 참가해 토마스 쿡(Tomas Cook), 콕스앤킹스(Cox&amp;Kings) 등 현지 대형여행사를 대상으로 국내 최대 관광목적지인 제주를 알렸다.뭄바이 최대 쇼핑몰인 피닉스몰(Phoenix Mall)에서 진행된 소비자 대상 행사를 통해 인도의 잠재 소비자를 대상으로 제주 관광자원을 소개했다.특히 현지 여행사 세일즈 콜을 통해 올 10월 약 200명 규모의 메디컬 컨퍼런스 유치를 확정했다. 인도는 신남방정책의 핵심국으로 인구 13억 명의 세계 2위 인구대국이며 뭄바이와 델리 지역 거주자가 5천만 명에 달하는 등 아웃바운드 잠재력이 큰 시장이라는 것.관계자는 “제주는 관광시장 다변화를 위한 신시장으로 인도를 선점하도록 마케팅 홍보활동을 강화할 예정”이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>중도일보 - 영광군, 제주도 관광객 유치 홍보 나서 영광군, 제주도 관광객 유치 홍보 나서 //=$stickSnsGg?&gt; 최종 편집일 : 2022-10-11 홈 기획연재 중도TV 정치행정 경제과학 사회교육 문화 오피니언 스포츠 전국 비주얼 사람들 대학입시 로그인 회원가입 뉴스 전체기사 기획/연재 운세 기획/연재 더보기 스토리가 있는 대전·충남 대학 공간 대전의 아름다운 건축물 얼마나 아니? 대전 Y-zone 프로젝트 여기 찜했슈 대전 더하기 뉴스바나나 거기 그곳 [유난한 식탁] 저는 채식주의자입니다 REE-PORT:친환경 보고서 트렌드일기: MZ읽기 골목시장을 걷다 문화 in, 문화 人 2022 리포트 충청지대 뉴스포커스 여론을 리서치하다 중도초대석 검색에 없는 대전·충남 파워 충청, 판을 바꾸자 도시재생 리포트 2021 지속가능한 문화도시 프로젝트 세종에 살어리랏다 [오류동사진관]다시 보는 충청의 역사 미제사건, 그날의 기억속으로 데이터 in 충청 기획 신천식의 이슈토론 창간70주년 기획 판소리의 원류는 충청도다 운세 오늘의 운세 오늘의 별자리 생년월일 운세 중도TV 전체기사 기획 시·도정소식 현장리포트 신천식의 이슈토론 박하림의 골프스튜디오 골린이 100일만에 필드보내기 정치/행정 6·1 지방선거 대전 충남/내포 지방의회 국회/정당 국정/외교 세종 썰: 솔깃한 이야기 2022 대선 대전의 2030 선대위 누가 있나 경제/과학 더보기 지역경제 건설/부동산 금융/증권 유통/쇼핑 기업/CEO 자동차 취업/창업 대전정부청사 대덕특구 공사·공단 IT/과학 아파트Info 로또 4차 산업 사회/교육 사건/사고 법원/검찰 교육/시험 노동/노사 환경/교통 미담 날씨 국방/안보 이슈&amp;화제 건강/의료 문화 더보기 공연/전시 영화/비디오 문화/출판 여성/생활 건강/의료 여행/축제 문화 일반 사람들 인터뷰 새인물 인사 동정 알림 부고 뉴스 社告 결혼 내방 다문화 신문 사회복지신문 실버라이프 바로잡습니다 오피니언 더보기 사설 독자 칼럼 독자위원회 &amp; 독자위원 칼럼 사외칼럼 세상읽기 여론광장 교단만필 시사오디세이 세상보기 세상속으로 춘하추동 오늘과내일 풍경소리 프리즘 중도시평 편집국에서 염홍철의 아침단상 우난순의 식탐 사이언스칼럼 월요논단 전문인칼럼 목요광장 홍석환의 3분 경영 문화人 칼럼 김선생의 시네레터 D-MZ:청년칼럼 홍키호테 세창밀시 문예공론 장상현의 재미있는 고사성어 알기쉬운 금융상식 문학박사 김우영의 문화산책 스포츠 더보기 한화이글스 축구 농구 배구 골프 생활체육 야구종합/메이저리그 스포츠종합 엘리트체육 대전하나시티즌 바둑 드림인대전 전국 더보기 수도권 부산/영남 충북 광주/호남 강원 천안시 아산시 공주시 보령시 서산시 당진시 논산시 계룡시 금산군 부여군 서천군 청양군 홍성군 예산군 태안군 비주얼 카드뉴스 포토 인포그래픽 대학입시 정시 수시 전국 광주/호남 영광군, 제주도 관광객 유치 홍보 나서 승인 2019-04-21 08:39 이승주 기자 영광군이 제주도 관광객 유치를 위해 적극 홍보에 나섰다. /영광군 제공전남 영광군이 영광의 구석구석 명소와 매력을 담은 '너와 함께 영광여행'의 저자 양소희 여행작가와 함께 최근 이틀간 제주도 지역에서 영광군을 알리는 홍보활동을 펼쳤다. 영광군은 제주특별자치도 도서관주간을 맞아 한라도서관 일원에서 개최된 도서관 책 잔치의 일원으로 여행작가와 함께하는 재미난 체험여행 부스운영에 참여했다. 양소희 작가는 '너와 함께 영광여행' 책 속에 나오는 영광군 관광명소 및 특산품 등을 참가자들의 눈높이에 맞춰 재미난 이야기를 들려주었고 참여자들은 스토리 청취 후 무지 에코백 위에 상사화, 굴비, 백수해안도로, 영광대교 등을 그려 완성하는 체험활동을 실시했다. 또한 영광군 관계자는 체험 참가자들에게 준비한 책자 250권과 천일염, 찰보리쌀을 기념품으로 제공하며 꼭 한번 영광여행을 와줄 것을 당부했다.군 관계자는 "이날 행사에 참여한 제주지역 도서관 15개소에 영광여행책자를 비치해줄 것을 요청했고 제주도민에게 영광군을 알릴 수 있는 좋은 기회가 됐다"며 "앞으로도 관광객 유치를 위한 적극적인 홍보활동을 펼치겠다"고 말했다.영광=이승주 기자 13141910@ 중도일보(www.joongdo.co.kr), 무단전재 및 수집, 재배포 금지 기자의 다른기사 보기 랭킹뉴스 한국농수산식품유통공사, 이해충돌방지 자문위원 위촉 [정치펀치]상병헌 세종시의장, 성추행 논란 확산 양상 부원건설, 대전 최초 '트리쉐이드' 브랜드아파트 공급 2022 개정 교육과정 놓고 커지는 교육계 갈등 지역대학생에게 직무 체험 제공하는 '청년 뉴리더 양성사업' 축소 여부 촉각 꺾이지 않는 소비자물가 상승률... 한은, 12일 빅스텝 밟을까 골프존, 12일 '신한투자증권 KPGA 코리안투어 2차대회' 개최 [정치펀치] 세종시의회 민주당, 10일 오후 내내 어수선 [장상현의 재미있는 고사성어] 제140강 타초경사(打草驚蛇) 벌써 22대 총선 전초전?… "대전 동구·중구 경쟁 뜨겁다?" 헤드라인 뉴스 우주산업 클러스터 3각체제 추진에 대전시 "환영" 과학기술정보통신부 우주개발진흥실무위원회가 우주산업 클러스터 3각 체제 추진안을 의결하고 연구·인재개발 분야 특화지구를 발표했다. 특화지구 지역은 11월 발표될 예정이지만, 대전시는 우선 환영의 뜻을 밝혔다. 우주 관련 연구 및 인재개발 인프라를 보유하고 있는 만큼 향후 특화지구 지정에 한 발 다가섰다는 입장이다. 우주산업 클러스터 3각 체제는 경남 사천, 전남 고흥과 함께 앞으로 정부의 민간주도 우주산업 육성을 위한 전초기지가 될 예정이다. 과기부는 추가된 연구·인재개발 특화지구는 기존 발사체·위성 특화지구와 차별화된 미래 신산업.. #생물안전 #공용연구시설 #병원제자원 대전에 '생물안전 3등급' 고위험 병원체자원 공용연구시설 생겼다 충남대학교병원(원장 윤환중)은 10월 7일 의생명융합센터에서 '고위험 병원체자원 BL3 공용연구시설' 준공식을 가졌다. &lt;사진&gt; 고위험 병원체자원 공용연구시설은 신종 감염병에 대한 분석과 진단·연구를 공동으로 진행, 기업지원체계를 구축하는 것이 골자다. 이에 따라 대전지역 내 감염병 관련 신약개발연구가 활성화될 것으로 기대된다. 이날 준공식에는 대전시 이석봉 과학부시장을 비롯해 대전시의회 송활섭 운영위원장·박주화 교육위원장, 임헌문 대전테크노파크 원장, 충남대학교병원 윤환중 원장, 대전을지대학교병원 이승훈 의생명과학연구원장, 건양대.. #지역화폐 #온통대전 #캐시백 캐시백 줄어들자 사용자 이탈? "유지냐 폐지냐" 10월 온통대전 운명 결정된다 유지 또는 폐지 갈림길에 선 대전시 지역화폐 온통대전의 운명이 이달 결정된다. 올 연말까지는 추경 예산 투입으로 월 30만 원, 5% 캐시백은 유지되겠지만, 정부 지원 예산이 중단되는 2023년 정책 방향을 결정해야 할 시점이기 때문이다. 폐지를 속단하긴 이르지만 현재까지 관측된 바로는 온통대전 앞날은 '흐림'이다. 이장우 대전시장은 당선 이후 줄곧 소비의 불공정 언급하며 부정적 의견을 피력해 유지 가능성은 낮아 보인다. 문제는 소상공인(자영업자)과 시민 만족도가 높은 정책이다 보니 일방적인 폐지는 시정 지속성을 잃어버린 '주민참여.. 더불어민주당 대전시당 "온통대전 전체업종 매출 증가 긍정적" 실시간 뉴스 8분전한국수자원공사, 건강한 친환경 수돗물 홍보 캠페인 13분전김영환 도지사 증평서 도민과의 대화 1시간전논산시, 백제병원과 24시간 임산부·영유아 응급의료협약 1시간전금산소방서, 소방안전체험장 운영 성공적 마무리 1시간전평생학습도시 재지정평가 금산군 우수 도시 선정 1시간전제40회 금산인삼축제 10일 피날레…역대 최대 103만 명 운집 1시간전옥천 ㈜더조은숲, 취약계층에게 연탄 2000장 나눔 1시간전예산군, 제33회 추사 김정희 선생 추모 전국휘호대회 성료 1시간전예산군, 예산장터 삼국축제에서 나무 나눠주기 행사 추진 1시간전예산 삽교중에서 등굣길 폭력예방 캠페인 펼쳐 1시간전공주교육지원청, 보건·흡연예방 교육 연구회 ? 흡연예방 거리 캠페인 실시 1시간전48년째 명맥 이어온 부여 충화면 백제문화제 전통제례 '눈길' 1시간전공주정보고, 전국청소년 배구대회 '최종 우승' 1시간전공주시, ‘도서관 책 축제’ 오는 15일 개최 1시간전공주시, 조기폐차 및 LPG 화물차 신차구입 지원 추가 신청 전체기사보기아이콘 기획시리즈 판소리의 원류는 충청도다 검색에 없는 대전충남史 중도초대석 Biz &amp; Money 휴먼스토리 드림인대전 대전시티즌 한화이글스 문화이슈 '톡톡' 이성희의 카메라 지난 기획시리즈 정치 [캠페인] 코로나19 극복 응원메시지 충청 총선 2020 총선열전 정치이슈 2017 19대 대통령선거 [19대] 대선주자 SNS 과학벨트 [19대] 대선주자 UCC 6·4 지방선거 제 18대 대통령선거 4·11 총선 후보자 동영상 미리보는 대전 시의회 2010 6·2 전국동시지방선거 2010 6·2 지방선거 출마의변 선택 6·2 지선 여론조사 김대중기자의 정치읽기 총선 당선자에게 듣는다 선택 4.9총선 총선주자 토크토크 선택 2007 大選 4.25 재보선 2차 남북정상회담 5·31 지방선거 6·5 재보선 4·15 총선 경제 생활의 지혜 신상품 [캠페인] 노벨상 응원메세지 빅데이터로 보는 상권분석 물가동향 장바구니 물가 인포그래픽으로 보는 세상 이코노미 줌 In 이경태기자의 부동산Q 세입자라면 꼭 알아두자 오늘의 대전 소셜커머스 알기쉬운 세무상식 주간증시전망 사회 대전 착한 SNS 릴레이 NGO 충남학교신문 미래 핵심역량의 시대 해군 천안함 침몰 北 연평도 포격 4.29 도교육감 선거 12.17 시교육감 선거 당직병원안내 6.25 도교육감 선거 문화 힐링 사자성어는 삶의 이음매 맛있는 주말 우리말OX 펫 book 뉴스 스나이퍼 거기 그곳 알쓸신조 관상톡 실전육아 톡톡톡 슬기로운 육아생활 일반 뉴스 대중음악 오복만땅 만약에 시사용어 이정은 기자의 원룸냥이 게임/웹툰 중국어교실 가요는 삶의 축 아침 山詩 일상탈출 우리동호회 백영주의 명화살롱 인생 사자성어 도시락(樂) 우난순의 필톡 우리문화를 아시나요 연예인실록 오완영시인의 時想 시경 주대환 교수의 생생 생활영어 금주의 핫클릭 5 궁금어사전 뜬금톡 이재복 박사의 한자세상 대한人 송교수의 우리말 이야기 뜬금포 글러벌 중도 이름으로 행복찾기 배워봅시다! 명의를 찾아서 작은콘서트 탁탁탁 즐겨요 충남 충정의 문화유산 종교/학술 오피니언 스포츠돋보기 이홍기의 말씀 세상 기자수첩 우난순의 필톡 문화칼럼 톡톡헬스뷰티 중도칼럼 아침세상 발언대 한마디 최충식 경제통 최충식 칼럼 경찰의 눈 사이언스리뷰 행복시대 월요아침 미디어의 눈 시시각각 문화산책 논단 시론 NGO소리 중도춘추 경제포럼 청풍명월 열린마당 모닝갤러리 의창(醫窓) 시사에세이 시시각각 세설 포토스포츠 엔터테인먼트 데스크시각 포토월드 맥클로이교수의 생활영어 청풍명월 임연희의 커뮤니케이션 주역과 세상 조성남 칼럼 신목민학 여론광장 최경애교수의 생활영어 빵의문화 장미의문화 논어로 푸는 세상 장영우의 뜸부기 장영우의 중도카툰 절기이야기 백마강(연재소설) 손지혜의 아침창가 즐거운 잡학 이런책 저런얘기 김영수의 詩 아침 책갈피 夕佳軒이야기 고충처리인제도 2007 활동상황 나도 한마디 임청산 박사의 만화만상 삶이 있는 아침 중도의 눈 심판자(연재소설) 김우영의 우리말 산책 시로 여는 아침 천둥 사람들 사람들 휴먼 보도자료 만나고 싶었습니다 캐릭터인터뷰 오늘의 소사 동네방네 기획연재 리뉴얼 충청 코로나19 극복! 힘내라 대전! 대전기록프로젝트 부 동 산 박붕준의 방송 타임머신 해외여행 리뷰 특집 최민호 소설-아웃터넷 오늘의 중도일보 유통 자치현장을 찾아서 기 업 금융 재밌는 법률상식 Q&amp;A 계룡로 객원기자의 눈 이현장,이문제 피플 월요포커스 아줌마 전성시대 청춘예찬 여기는 대덕특구 세상은 요지경 금주의 행사 안치홍의 골프세상 [특집] 과학의날 세계 핫이슈 더불어 삶 이제는 바꿉시다 여행 백북스와 함께 읽는 책 이슈 집중취재 손인중 기자의 Rewind 현장 우리동네 부동산 충남, 내고향의 산 명품 강좌를 말한다 여성/종교 창간 61주년 특집 JD 모닝레터 NGO 2012 신년호 특집 중도 60년 희망 60인 인터뷰 창간 60주년 특집 자율ㆍ창의 학교 특색살리기 김프로의 골프119 궁금어 사전 바른품성 5운동 한성일 기자의 성지순례 탐방기 족보 있는 도시 대전 조성남 주필의 스페인 문화산책 한방칼럼 이경태 기자의 세상돋보기 나눔사회 캠페인 365일 36.5도 우리동네 주치의 재미있는 단위 이야기 지영철의 렌즈속 세상 돌까마귀의 둘레산길 창간 60주년 기획대담 알기쉬운 세무상식 日강진 쓰나미 대재앙 손지혜의 통통칼럼 [중도일보60주년]2011새해특집 충청의 올레길 친환경 농산물이 책임진다 2010 세계대백제전 녹색자금 지원사업 현장을 가다 가자!세계문화유산으로 [창간59주년]브랜드NEW충청 [6.25전쟁]끝나지 않은 이야기 당선자에게 듣는다 2010부동산 가이드 글로벌 브랜드로 키우자 중국속의 백제문화 대전개시60년 그현장 그모습 장인의 혼을 찾아서 사랑실은 바른 인성교육 금강리포트 [그린시티]시민 삶을 바꾼다 일본도요산책 [창간58주년]파워풀충청 김대중 前대통령 서거 北, 2차 핵실험 [특별기획]승리의 역사를 가다 노무현 前대통령 서거 2009안면도 국제 꽃박람회 지역현안 단체장에 듣는다 과학이 희망이다 2009부동산 가이드 그때그현장 금요 골프 산이야기 대전을 명품 평생학습도시로 충청현장 이슈 2009 다시뛰는 충청 열려라! 방과후 학교 세계로 가는 충남도 충남 글로벌 예절교육 나는야 논술 짱 English Class 캠퍼스라이프 서해안을 살리자[연중캠페인] 대전 방과후학교 대청호 8경을 찾아서 학교탐방 김명환의 가요세상 충청박물지 대전.충남 개발현장을 가다 교육/대학 계룡대 숭례문 화재 대한민국 교육 大計 서민경제 현장을 가다 선택 4.9총선 實用시대 충청이 바뀐다 주말Fan 와인이야기 학교탐방 2007 충청아젠다 함께사는 공동체 집중취재 대전을 명품도시로 내고장최고 충청아젠다53제 만화세상 깨끗한 대전가꾸기 추석특집 창간56주년 재테크 돼지해 부자됩시다 클린대전 힘모읍시다 2007대선 만인 여론조사 총체적 위기 대전시티즌 한미FTA시대 함께사는사회를만들자 충청경제[economy] 주말매거진[Weekend秀] 작가의 산실 신충청시대를 열자 新 문화도시를 만들자 경제인줌인 비만없는도시를 만들자 대전,이래서좋다 신대동여지도 해체되는 가족사회 6ㆍ5 재보선 누가 뛰나? 선거문화 달라진다 나의도전2004 내고장자랑 추천기사 우주산업 클러스터 3각체제 추진에 대전시 "환영" 대전에 '생물안전 3등급' 고위험 병원체자원 공용연구시설 생겼다 캐시백 줄어들자 사용자 이탈? "유지냐 폐지냐" 10월 온통대전 운명 결정된다 벌써 22대 총선 전초전?… "대전 동구·중구 경쟁 뜨겁다?" 대전시 튀르기예, 우루과이, 가봉과 우호도시 협약 체결 걷고, 쉬며, 노는 '세종축제 2.0'개막 동영상 [영상]대전시립미술관 열린 수장고 개관…백남준 작가 프랙탈 거북선 원형 복원 포토뉴스 2022 세계지방정부연합(UCLG)개막…14일까지 다양한 행사 풍성 갑자기 찾아온 추위에 잔뜩 움츠린 시민들 3년 만에 대면으로 열린 효문화뿌리축제…관람객들로 ‘북적북적’ 대전 오월드 백두산호랑이 3남매 100일 맞아 일반에 공개 인기뉴스 한국농수산식품유통공사, 이해충돌방지 자문위원 위촉 [정치펀치]상병헌 세종시의장, 성추행 논란 확산 양상 부원건설, 대전 최초 '트리쉐이드' 브랜드아파트 공급 2022 개정 교육과정 놓고 커지는 교육계 갈등 지역대학생에게 직무 체험 제공하는 '청년 뉴리더 양성사업' 축소 여부 촉각 회사소개 기자별 기사보기 조직도 찾아오시는 길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 독자투고 중도일보 RSS 중도일보 PDF보기 고충처리인 편집규약 윤리강령 및 기자준칙 제작 윤리강령 광고 윤리강령 판매 윤리강령 청탁금지법 안내 청소년보호정책 원격지원 서울특별시 중구 서소문로 11길 2 효성빌딩 (우) 04515 전화 : 1522-4620  ㅣ  대전광역시 중구 계룡로 832 (우) 34908 전화 : 042-220-1114 회사명 : (주)중도일보사  제호 : 중도일보  인터넷신문 등록번호 : 대전 아00341  등록일자 : 2019-08-16  발행인 : 김원식  편집인 : 유영돈  청소년보호책임자 : 김덕기 Copyright by 중도일보 Co.,Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 올레길 15코스 환경정화활동 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 올레길 15코스 환경정화활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도관광협회, 올레길 15코스 환경정화활동 기자명 강지환 기자 입력 2019.04.21 11:38 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 김영진)는 지난 20일 올레길 15-B코스 일대에서 협회 임직원 30여명이 참가한 가운데 잡목과 쓰레기를 처리하는 환경정화활동을 전개했다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 희망찬 제주 만들기 앞장 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 등반동호회, 희망찬 제주 만들기 앞장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도관광협회 등반동호회, 희망찬 제주 만들기 앞장 기자명 강지환 기자 입력 2019.04.21 11:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주관광상품 개발 촉진 위해 20일 11회 가파도 청보리축제 참가 제주특별자치도관광협회 등반동호회(회장 박지혜·)는 제주의 다양한 관광상품을 개발·촉진하고 관광으로 만들어가는 희망찬 제주를 만들기 위해 지난 20일 도내 관광사업체 대표, 임원 및 종사자 등 회원 100여명과 함께 제11회 가파도 청보리축제에 참가했다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-알리페이 업무협약...중국인 관광객 빅데이터 활용 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도-알리페이 업무협약...중국인 관광객 빅데이터 활용 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도-알리페이 업무협약...중국인 관광객 빅데이터 활용 기자명 이승록 기자					(leerevol@naver.com) 입력 2019.04.18 16:13 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도는 17일 오후 알리페이 코리아와 업무협약을 체결했다.알리페이 코리아는 중국 내 9억명에 달하는 가입자와 중국 내 모바일 결제 점유율 80%이상(2018년 기준)을 차지하고 있는 알리바바 그룹 계열사 알리페이의 한국법인이다.이번 협약을 통해 제주도는 알리페이 측으로부터 알리페이 데이터와 알리바바 그룹 계열사를 통한 제주도 관광 홍보 기회 및 제주 특산 제품 판매 창구 등을 제공받을 수 있을 것으로 예상된다.제주도는 알리페이로 결재한 사용자 빅데이터를 통해 보다 효과적으로 중국인 관광객의 소비 패턴과 구매력을 파악할 수 있게 돼 궁극적으로 관광, 교통, 상권 등 여러 분야의 정책 수립 및 활용 기반을 공고하게 다지는 시금석이 될 것으로 기대된다.제주도와 알리페이코리아는 전통시장, 중소상공인, 택시 등을 대상으로 알리페이 가맹점을 확대하고, 중국인 개별 관광객에 대한 다양한 판매촉진 행사를 개최함으로써 도내 매출 신장을 함께 꾀할 예정이다.노희섭 제주도 미래전략국장은 “빅데이터 분석이 모든 정책에 기반이 되고 있는 시점에 알리페이 코리아와 협약을 체결하게 되어 기쁘다”면서 “이번 협약을 계기로 알리페이의 유의미한 빅데이터 수집 및 분석을 통해 제주지역 경제 활성화와 관광 홍보 채널의 다변화에 기여하는 유기적 선순환이 이루어질 것으로 기대한다”고 밝혔다.또한 “앞으로 알리페이 코리아가 제주지역 전통시장, 중소상공인, 택시 등을 대상으로 판매 촉진을 통한 지역경제 활성화에 함께 협력해 줄 것으로 기대한다.”고 덧붙였다.한편 제주도는 지난해 과학기술정보통신부로부터 전국 행정기관 최초로 빅데이터 전문센터 지정을 받았으며, 올해에는 도내 문제해결을 목적으로 하는 민관 빅데이터랩을 운영하는 등 지속적으로 빅데이터 활용 생태계 조성에 주력해 나갈 방침이다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사, '2019 제주에코파티' 개최 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·제주관광공사, '2019 제주에코파티' 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·제주관광공사, '2019 제주에코파티' 개최 기자명 강지환 기자 입력 2019.04.16 10:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도와 제주관광공사(사장 박홍배)는 제주도내 다양한 마을 체험, 생태, 문화 자원과 재미를 결합한 '마을로 떠나는 힐링여행 2019 제주에코파티'를 개최한다고 16일 밝혔다.에코파티는 제주 마을 속으로 들어가 마을 사람들과 어우러지면서 마을의 다양한 문화체험을 해보고 복잡한 도시 속을 벗어나 마음에 힐링과 휴식을 선사하는 제주 대표 마을여행 프로그램이다.올해 프로그램은 (사)제주농어촌체험휴양마을협의회(협회장 임안순)와 함께 운영된다.특히 주말에만 열렸던 지난 프로그램과 달리 올해에는 주중에도 진행된다.오는 20일과 5월 18일에 열렸던 유수암 마을 에코파티를 시작으로 27일부터 5월 12일까지 △무릉2리(27일) △마라도(28일, 5월 5일) △한남리 머체왓숲길(29일, 5월 3일) △선흘1리(5월 4일) △하효마을 방귤당(5월 6일, 10일) △청수리 곶자왈(5월 11일) △신풍리(5월 12일)에서 각각 개최된다.제주에코파티 프로그램 확인 및 참가신청·접수는 '탐나오' 홈페이지(www.tamnao.com)에서 가능하며 세부일정은 '탐나오'와 '비짓제주(www,visitjeju.net)'에서 확인할 수 있다. 문의=제주관광공사 지역관광처(064-740-6072). 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'청정과 공존' 벌써 헛구호? 위태로운 관광천국 '제주도' &lt; 제리뉴스 &lt; 매거진 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 '청정과 공존' 벌써 헛구호? 위태로운 관광천국 '제주도' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 매거진 제리뉴스 '청정과 공존' 벌써 헛구호? 위태로운 관광천국 '제주도' 기자명 제주의소리					(news@jejusori.net) 입력 2019.04.23 13:48 댓글 6 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 [제리뉴스] (6) 이대로 제주가 지속가능할까요? 대한민국 최고의 관광지인 제주도. 그런데 요즘 제주도가 관광 때문에 몸살을 앓고 있습니다. 관광객이 많이 오니 부자가 되고 더 살기 좋아진 거 아닌가요? 어떻게 된 거죠?2005년 제주를 찾는 관광객이 처음으로 연간 500만명을 넘은 뒤, 2013년 1000만명을 기록했습니다. 그리고 3년만인 2016년 1500만명을 돌파했습니다. 제주 이주 열풍까지 불면서 인구도 10년 새 13만명이 늘었습니다.섬이 감당하기엔 힘든 변화였습니다. 도심지 교통혼잡이 심각해졌고, 쓰레기난, 부동산 폭등, 상하수도 문제가 발생했습니다.2016년 8월, 제주하수처리장의 방류수 수질이 기준치를 넘어섰다는 충격적인 사실이 공개됐습니다. 1년 넘게 기준치를 넘어선 깨끗하지 않은 물이 제주 앞바다에 흘러나간 겁니다. 제주도의 하수처리능력이 한계에 봉착했다는 거죠.2018년 8월에는 제주신화월드 워터파크에서 하수 역류 사태가 발생했습니다. 인근 하수처리장이 이미 적정처리용량을 초과한 상태에서 무리하게 허가를 내준 사실이 뒤늦게 드러나 논란이 컸습니다.쓰레기도 문제입니다. 제주도는 전국에서 1인당 폐기물 배출량이 가장 많은 지역입니다. 급증한 관광객들이 버린 쓰레기가 대표적인 원인입니다. 제주 주요 관광명소에서 발견되는 쓰레기 중 60%가 플라스틱입니다. 매립장마다 어마어마한 쓰레기가 쌓여있는데, 어떻게 처리할지 난감한 상황입니다. 한 때 논란이 된 제주산 쓰레기의 필리핀 반출 논란의 근본적인 원인도 여기에 있습니다.2019년 4월에는 추자도 해안, 서귀포 앞바다에 쓰레기로 가득 찬 모습이 공개되면서 충격을 주기도 했습니다.주민들의 삶은 불편해졌는데, 경제적으로 별로 나아진 게 없다는 목소리도 나옵니다. 지역주민보다는 면세점과 외부 개발자본이 막대한 이익을 챙기고 있습니다. 조용한 마을이었다가 갑자기 관광지가 된 지역은 땅값이 폭등하고 생활불편이 늘어나 주민들의 삶의 질이 떨어졌습니다. 월정리가 대표적입니다.한국은행 제주본부는 2017년 11월 “무제한적인 관광객의 입도를 허용하기보다는, 제주도가 수용가능한 관광객 수를 책정해 이에 맞게 관광객 수를 제한할 필요가 있다”고 지적했습니다.영국 BBC는 2018년 4월 ‘너무 많은 관광객 때문에 씨름하고 있는 전 세계 관광지 5곳’을 뽑았는데 여기에 제주가 포함됐습니다. 이쯤 되면 얼마나 심각한지 아시겠죠?물론 그렇다고 관광산업을 하지 않을 순 없습니다. 문제는 속도입니다. 그 동안 우리사회는 관광에 대해 경제적 효과에만, 늘어나는 통계 수치에만 관심을 가져왔습니다. 그 지역의 주민들이 살아갈 권리, 섬의 지속가능성에 대해서는 잘 다루지 않았습니다.이대로 제주도가 지속가능할까요? 이 섬은 지금 이 변화를 받아들일 수 있는 상황일까요? 제주도가 슬로건으로 내세운 ‘청정과 공존’이 헛구호에 그치지 않도록, 이 땅을 살아가는 주민들의 일상이 지켜지도록 관광지 제주의 현주소에 대해 다시 한 번 생각해볼 때입니다. / 기획·편집 문준영 기자 제주의소리 news@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>효리의단골집 갈치조림 먹기위해 찾는 사람 많은 제주도 중문 관광단지 맛집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도 쪽빛 바다 따라 국제관광마라톤축제 개최 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 쪽빛 바다 따라 국제관광마라톤축제 개최 파이낸셜뉴스입력 2019.04.10 23:23수정 2019.04.10 23:25 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주도·제주도관광협회, 내달 26일 개최…국내·외 5000여 명 참가 예정 제24회 제주국제관광 마라톤축제 [제주=좌승훈 기자] 제주도가 주최하고 제주도관광협회(회장 김영진)가 주관하는 '제24회 제주국제관광마라톤축제'가 오는 5월 26일 제주시 구좌종합운동장과 종달 해안도로 일원에서 개최된다. 제주마라톤축제는 청정 제주의 에메랄드 빛 해안을 마라톤 코스로 구성해 남녀노소 누구나 즐길 수 있는 스포츠 축제의 장이다. 올해는 국내외 마라토너 5000여명이 참가할 예정이다. 경기 코스는 대한육상연맹의 공인코스로 지정된 풀코스(42.195km)와 하프코스(21.0975km), 일반코스(10km), 해안도로 워킹(10km)코스 4개로 구성됐다. 참가비는 풀코스와 하프코스 3만원, 일반코스(10km)와 해안도로 워킹(10km) 2만원이다. 참가 신청은 5월 4일까지 마라톤축제 홈페이지로 하면 된다. 관광협회 마라톤축제사무국과 국내 홍보사무소로도 참가신청이 가능하다. 시상은 종목별 남녀 종합 5위까지 트로피와 부상을, 풀·하프 코스 남녀 종합 1위 등 최대 10명에게는 해외 마라톤대회 참가 특전이 제공된다. 또 종목별·연령별(10세 단위) 남녀 1위에 한해 상장과 부상(중복 수상자 제외)을 수여하며, 팀 대항전과 동호회 최다 참가상도 시상한다. 마라톤축제 참가자 전원에게는 완주 기념메달과 티셔츠, 지역 특산물인 전복죽을 무료로 제공된다. 행사장에서는 다양한 이벤트 프로그램과 푸짐한 경품 추첨 행사도 진행된다. 또 참가자 중 추첨을 통해 선발된 300명을 대상으로 이봉주 전 선수 팬 사인회와 기념사진을 촬영 등의 이벤트도 마련되며, 참가자들의 교통편의를 위해 행사 당일 무료 셔틀버스(제주시·서귀포시)가 운행된다. jpen21@fnnews.com 좌승훈 기자 키워드#제24회 제주국제관광마라톤축제 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 볼거리 많은 중문관광단지 근처 맛집, ‘기원뚝배기‘ - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 볼거리 많은 중문관광단지 근처 맛집, ‘기원뚝배기‘ 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 볼거리 많은 중문관광단지 근처 맛집, ‘기원뚝배기‘ 김영수 기자 승인 2019.04.19 13:06 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 봄을 만끽하기 위해 여행 계획 많이 세울 것이다. 국내부터 해외까지 여행은 그 자체만으로도 설레지만 4월의 제주도만큼 설레는 곳도 많지 않다.특히 서귀포시에 위치한 ‘중문관광단지’는 제주도 관광의 꽃이라고도 말할 수 있는 필수여행코스다.4가지 색을 띄는 모래가 펼쳐져있는 ‘중문해수욕장’은 따뜻해진 봄 날씨에 바다를 즐기기에 안성맞춤이고, 3단으로 내려오는 웅장한 모습의 ‘천제연폭포’와 또 오랜 세월 파도에 부딪혀 만들어진 ‘주상절리’의 해안절벽도 꼭 들를만한 명소다.제주도의 많은 곳 중 서귀포시에 위치한 ‘중문관광단지’는 제주의 자연이 선사하는 아름다운 풍경과 각종 테마의 박물관 및 체험관, 그 외 맛있는 맛집까지. 여행의 다양한 요소를 두루 갖춘 관광단지다.제주 맛집 기원뚝배기는 메인 요리 외에 서비스로 나오는 것도 많다. 통갈치조림에 제주산 옥돔구이가 서비스로 나오고 식사 손님들을 위해 성게국도 무료로 제공된다. 특히 통갈치조림정식 A세트는 옥돔구이 1개 서비스 외에 추가로 옥돔구이가 하나 더 제공되며, 성게국도 하나 더 서비스로 나온다. 또한 함께 나오는 밑반찬은 계절별로 바뀌는데 업소에서 매일 국내산 재료를 구입하여 직접 만들어 손님 상에 올리고 있다.제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 한라산 고사리가 들어간 문어해물통갈치조림을 선보이고 있다. 통갈치조림에 들어간 고사리는 양념과 어우러져 고소한 맛을 느낄 수 있다. 특히 이 업소는 갈치 특유의 비린 냄새를 잡고 고소한 맛이 나도록 자체 개발한 약초숙성 양념을 사용하고 있다.실제 양념은 맛이 뛰어나고 건강에도 좋기 때문에 밥에 양념을 비벼 먹는 사람들이 많다. 게다가 문어해물통갈치조림에는 제주 바다에서 갓 잡은 싱싱한 문어와 새우, 그리고 생전복 등 다양한 해산물이 양념과 어우러져 푸짐하면서도 맛깔스런 식사가 가능하다.한편 제주도 맛집 기원뚝배기는 널찍한 전용 주차장이 있어 편리하다. 또한 이른 아침과 저녁 손님을 위해 영업시간은 오전 6시~오후 10시 연중무휴로 문을 열고 있어 제주 중문 아침식사 맛집으로도 잘 알려져 있다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영수 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
+  </si>
+  <si>
+    <t>신한카드, '제주지니'와 제주도 관광지 할인 쿠폰 서비스 제공 - 녹색경제신문 × 전체기사 ESG 기획 전체 [2030 부산엑스포] [ESG경영] [ESG 뛰는 사람들] [ESG 특별기획] [ESG 신기술] [테크&amp;디자인] [데이터뉴스룸] 피플&amp;리더즈 [팩트체커스] [녹경 단독] 함께하는 ESG 경제 전체 지배구조 개선 ESG 지금 해외는 사회공헌 친환경 에너지 전체 미래 모빌리티 친환경 에너지 ESG 동향 전체 ESG 트렌드 ESG 정책 ESG NGO 디지털 혁신 전체 AI&amp;빅데이터 메타버스 뉴디바이스&amp;소프트웨어 5G&amp;6G 모바일 VR AR &amp; 게임 디지털금융&amp;핀테크 NFT &amp; 가상화폐 로봇&amp;스마트팩토리 우주&amp;사이언스 오피니언 전체 데스크 ESG칼럼 기자수첩 특별기고 화제의 ESG 신간 오풍연 칼럼 경제 전체 정치 정책 재계 일반 IT가전 자동차 철강/중공업/화학/조선 항공/물류 유통&amp;라이프 금융 건설/부동산 국방&amp;방산 중기/벤처 보도자료 인사/동정 제약바이오 사회 대중문화 수동기사 과거 기획물 모음 전체 [특별기획] [CEO이야기] 동영상 [그날그후] 과학이야기 UPDATE : 2022-10-11 12:48 (화) 로그인 회원가입 전체기사보기 모바일웹 네이버포스트 기사검색 검색 ESG 기획 [재계가 뛴다,부산EXPO] [ESG경영] [ESG 뛰는 사람들] [ESG 특별기획] [데이터뉴스룸] [테크&amp;디자인] 피플&amp;리더즈 친환경 에너지 미래 모빌리티 친환경 에너지 ESG 동향 ESG트렌드 환경정책 NGO 함께하는 경제 사회공헌 지배구조 개선 지금 해외는 오피니언 데스크 ESG칼럼 기자수첩 특별기고 화제의 ESG 신간 디지털 혁신 AI&amp;빅데이터 뉴디바이스&amp;소프트웨어 5G&amp;6G 모바일 VR AR &amp; 게임 우주&amp;사이언스 디지털금융&amp;핀테크 블록체인&amp;가상화폐 ESG 기획 [재계가 뛴다,부산EXPO] [ESG경영] [ESG 뛰는 사람들] [ESG 특별기획] [데이터뉴스룸] [테크&amp;디자인] 피플&amp;리더즈 친환경 에너지 미래 모빌리티 친환경 에너지 ESG 동향 ESG트렌드 환경정책 NGO 함께하는 경제 사회공헌 지배구조 개선 지금 해외는 오피니언 데스크 ESG칼럼 기자수첩 특별기고 화제의 ESG 신간 디지털 혁신 AI&amp;빅데이터 뉴디바이스&amp;소프트웨어 5G&amp;6G 모바일 VR AR &amp; 게임 우주&amp;사이언스 디지털금융&amp;핀테크 블록체인&amp;가상화폐 전체기사 이전 다음 신한카드, '제주지니'와 제주도 관광지 할인 쿠폰 서비스 제공 기사공유하기 상태바 HOME 경제 금융 신한카드, '제주지니'와 제주도 관광지 할인 쿠폰 서비스 제공 이석호 기자 승인 2019.04.12 10:23 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 신한카드 을지로 사옥 전경신한카드(사장 임영진)는 제주지역 특화 여행플랫폼 '제주지니(JEJUJINI)'를 통해 관광지 할인 쿠폰을 구매하는 고객을 대상으로 추가 할인 혜택을 제공한다고 12일 밝혔다.이번 제휴로 신한카드 고객이라면 제주지니 모바일 앱 내 할인 쿠폰 서비스를 통해 각종 할인 쿠폰을 10%까지 추가 할인 받아 국내 최저가 수준으로 구입할 수 있다.제주지니 할인 쿠폰 서비스는 워터서커스 공연, 우도 스카이라인, 요트 투어 등 제주도의 각종 테마파크, 박물관, 액티비티 입장권을 최대 90% 할인된 가격으로 구매할 수 있는 서비스다.제주지니 할인 쿠폰 서비스와 관련된 자세한 사항은 제주지니 모바일 앱에서 확인할 수 있다. 한편, 제주지니는 차별화된 제주도 관광정보 제공을 위해 현지인 맛집 소개, 관광 코스, 핸즈프리(Hands-free, 짐 옮김 서비스), 맛집 줄서기 예약, 관광지 할인쿠폰 등 다양한 서비스를 실시하고 있다. 개시 5개월여 만에 누적 다운로드 100만 회를 돌파하며 제주도를 찾는 관광객들의 필수 앱으로 자리 잡았다.신한카드 관계자는 “제주지니와 함께 제주 여행을 계획 중인 고객들을 대상으로 여행 경비를 절감할 수 있는 할인 혜택 서비스를 제공하게 됐다”며, “앞으로도 참신한 아이디어의 연결을 통해 고객의 생활을 편리하게 하는 정보와 서비스를 제공해 고객이 매일같이 찾아오는 '라이프 인포메이션(Life Information)' 기업으로 거듭나겠다”고 말했다. 이석호 기자  financial@greened.kr ▶ 기사제보 : pol@greened.kr(기사화될 경우 소정의 원고료를 드립니다) ▶ 녹색경제신문 '홈페이지' / '페이스북 친구추가' 저작권자 © 녹색경제신문 무단전재 및 재배포 금지 이석호 기자 다른기사 보기 페이스북 트위터 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 추천기사 이재용, 삼성바이오로직스 4공장 찍고 삼성준법위 방문하나...'뉴 삼성' 비전 행보 이재용, 삼성바이오로직스 4공장 찍고 삼성준법위 방문하나...'뉴 삼성' 비전 행보 [유통가 레이더] 롯데하이마트, 쌀쌀해진 날씨로 난방가전 인기 급상승 등 [유통가 레이더] 롯데하이마트, 쌀쌀해진 날씨로 난방가전 인기 급상승 등 [디펜스 365] 한화에어로스페이스, 한국형발사체 체계종합기업 우선협상대상자 최종 확정 [디펜스 365] 한화에어로스페이스, 한국형발사체 체계종합기업 우선협상대상자 최종 확정 많이 본 뉴스 1 "슬로우 라이프를 즐겨라"... NS홈쇼핑, '제주 한달살기 X 올레길' 단독 론칭 등 2AAA인지는 몰라도 신경 쓰이는 7일 신작 게임  4종 3LG이노텍, 글로벌 수준 '거버넌스 역량' 가속 페달...“국제 가이드라인 맞춰 시스템 구축 노력” 4 KT-노키아, 5G 네트워크 클라우드 전환 시연 성공...“원격으로 인터넷 장애 복구” 5외환고 ‘줄줄’ 새는데…기재부-한은, 한·미 통화스와프 엇박자 6상반기 선방한 메리츠증권, 하반기는 ‘물음표’…부동산 경기 변수 7LH 땅장사 실태...2010년 이후 공공주택용지 민간에 187조원 어치 팔아치워 8 SK네트웍스의 민팃, 'SDGs 아이치 엑스포'서 일본 시장 ‘노크’ 등 9LG전자 3분기 영업이익 7466억원 ‘전망치 하회’...“가전·TV 어렵고, 전장 흑자 기조 유지” 10 "할로윈에는 던킨"... SPC 던킨, 할로윈 맞이 ‘잭오랜턴 아이스티’ 출시 등 11시가총액 10조 무너진 크래프톤…’칼리스토 프로토콜’이 구원할까 12 보험사 보유 휴면보험금 8천억원↑···"이자는 고객에게 돌려주도록 개선 필요" 13리엔케이, 민감한 피부 위한 ‘더마 리페어 라인’ 신제품 출시 14뷰티업계 3분기도 실적부진 지속될듯...반등 묘수는? 15 가구업계 실적, 집값 폭락한 2012년 보다 심각...이유는? 16기업은행 차기 은행장, 노조 반대에 발목 잡히나...“낙하산 기용 시 반대 투쟁 강행” 17"서울 세계불꽃축제엔 배달 어렵다"... 쿠팡이츠·배민, 배달 중단 방침 18 중소기업, ESG 환경·지배구조 '4등급'...중소벤처기업부 "구체적 지원할 것" 19삼성전자 분기 영업이익 10.8조원 '어닝 쇼크'...“메모리 사업 부진에 휘청” 20금리상승에 '연복리 4.5% 저축성보험' 봇물···금감원, "실질금리 꼭 확인하세요" 21 신한은행, 산업부-금감원 사업재편제도 파트너쉽 기관 참여 [기획] 재계가 뛴다,부산EXPO [2030 부산엑스포] 삼성전자·현대차, 우루과이·엘살바도르 등 중남미 집중 홍보...SNS 4000만뷰 돌파 [2030 부산엑스포] 삼성전자·현대차, 우루과이·엘살바도르 등 중남미 집중 홍보...SNS 4000만뷰 돌파 [AD] 현대차그룹 중남미·유럽 5개국 대상 부산세계박람회 유치활동... “글로벌 네트워크 활용 득표 총력전” [AD] 현대차그룹 중남미·유럽 5개국 대상 부산세계박람회 유치활동... “글로벌 네트워크 활용 득표 총력전” [2030 부산엑스포] LG전자·기아, 아프리카 집중 공략 나선 이유..."유럽 만큼 회원국 많은 지역" [2030 부산엑스포] LG전자·기아, 아프리카 집중 공략 나선 이유..."유럽 만큼 회원국 많은 지역" [2030 부산엑스포] 최태원 "대한민국 경쟁력, 충분히 승산 있다"..."해외 투자는 생존에 필수" [2030 부산엑스포] 최태원 "대한민국 경쟁력, 충분히 승산 있다"..."해외 투자는 생존에 필수" [기획] ESG경영 [ESG 경영] KB국민카드, 동반성장 선도기업 구현···"탄탄한 지배구조 기반에 'E'·'S' 박차" [ESG 경영] KB국민카드, 동반성장 선도기업 구현···"탄탄한 지배구조 기반에 'E'·'S' 박차" [ESG 경영]코레일, 친환경 물류로 한번 더 주목..."내년 의왕ICD 반환 계기로 화물분담률 높여야" [ESG 경영]코레일, 친환경 물류로 한번 더 주목..."내년 의왕ICD 반환 계기로 화물분담률 높여야" [ESG 경영] AK홀딩스, ESG 경영 확대로 '진정성' 논란 극복할 수 있을까? [ESG 경영] AK홀딩스, ESG 경영 확대로 '진정성' 논란 극복할 수 있을까? [ESG 경영] NH농협은행, 2022년 ESG 경영 도약 나선다…"농협이 곧 ESG" [ESG 경영] NH농협은행, 2022년 ESG 경영 도약 나선다…"농협이 곧 ESG" ESG트렌드 美 텍사스주 화석연료 차별 투자 반발에 기로에 선 'ESG &amp; 녹색 투자" 美 텍사스주 화석연료 차별 투자 반발에 기로에 선 'ESG &amp; 녹색 투자" [KES 2022 현장➁] 삼성전자, 한국전자전 최초 ‘C랩관’ 조성하자 대학생 관심 ‘폭발’...왜? [KES 2022 현장➁] 삼성전자, 한국전자전 최초 ‘C랩관’ 조성하자 대학생 관심 ‘폭발’...왜? [ESG 동향] 롯데손해보험, 본업에 충실한 ESG 차별성 주목···'업(業)을 통한 사화공헌' 전략 지속 [ESG 동향] 롯데손해보험, 본업에 충실한 ESG 차별성 주목···'업(業)을 통한 사화공헌' 전략 지속 [ESG 동향] 농심, "백산수 마시면 백혈병소아암 환자 도와요” [ESG 동향] 농심, "백산수 마시면 백혈병소아암 환자 도와요” 오피니언 [기자수첩] 2년 동안 한결 같은 인기를 자랑하는 ‘원신’의 비결은 무엇일까? [기자수첩] 2년 동안 한결 같은 인기를 자랑하는 ‘원신’의 비결은 무엇일까? 지난 9월 28일자로 호요버스의 ‘원신’이 출시된지 2년이 지났다.‘원신’은 호요버스의 오리지널 IP 게임으로 비록 게임 플레이 자체는 ‘젤다의 전설 야생의 숨결’에서 커다란 영향... [박진아의 나머지 유럽 이야기] 공영주택을 박물관으로 변신시키는 법 [기자수첩] 변화없던 한국 게임…코로나 19와 함께 추락하나 [기자수첩]정치논쟁에 휘말린 ESG…'기업가 정신' 필요하다 [기자수첩] 아이폰으로 갈아타지 않을 이유는...갤럭시式 혁신 시급 [기자수첩] 하이트진로 파업 6개월이 우리에게 남긴 것은 무엇인가 데이터 뉴스룸 [데이터 뉴스룸] 올 상반기 임원 급여 1억 넘은 철강 업체는?…포스코홀딩스, 4억 넘어 1위 [데이터 뉴스룸] 올 상반기 임원 급여 1억 넘은 철강 업체는?…포스코홀딩스, 4억 넘어 1위 [데이터 뉴스룸] 석화業 상반기 직원 보수 억대 넘은 곳은?…업계 평균 급여는 4000만 원 [데이터 뉴스룸] 석화業 상반기 직원 보수 억대 넘은 곳은?…업계 평균 급여는 4000만 원 [데이터 뉴스룸] 전자業 상반기 직원 평균 월급은 540만원…SK하이닉스, 1350만원 업계 톱 [데이터 뉴스룸] 전자業 상반기 직원 평균 월급은 540만원…SK하이닉스, 1350만원 업계 톱 구광모 "전문가·MZ세대 자문단 구성하겠다"..."LG ESG 경영에 대한 의견 수렴·개선" 구광모 "전문가·MZ세대 자문단 구성하겠다"..."LG ESG 경영에 대한 의견 수렴·개선" 지금해외는 [ESG 기업에너지전환] 기업 간 협업・지분 인수 통해 혁신 가속화 [ESG 기업에너지전환] 기업 간 협업・지분 인수 통해 혁신 가속화 2년 여의 코로나-19로 인한 인내의 시간과 2022년 여름 휴가철을 마감하고 글로벌 비즈니스계는 다시 움직이고 있습니다. 특히 기업들의 친환경 대체 에너지를 원동력으로한 홈리빙,... “화석투자 더 늘려라”…美 ESG 반대 행동주의 펀드 돌풍 [EU 에너지 이슈] 유럽의 에너지 대란 대책, 너무 늦고 태부족 ESG 모범생, 어쩌다 미운털 박혔나…블랙록 잇단 투자중단 위기 ESG 역풍이 분다…美 공화당 주정부, ESG 보이콧 가속화 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 녹색경제신문 주식회사 서울특별시 마포구 도화길 43 (나눔빌딩) 507호 등록번호 : 서울 아-01323 등록일 및 발행일 : 2010-08-16 발행·편집인 : 한익재 대표전화 : 02-712-8692 청소년보호책임자 : 방형국 광고책임자 : 황창영(1putter1@naver.com) 녹색경제신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 녹색경제신문. All rights reserved. mail to gogreen@greened.kr 위로</t>
+  </si>
+  <si>
+    <t>몸 불린 제주도 카지노 매출액 껑충…관광기금 조성 ‘잭팟’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 몸 불린 제주도 카지노 매출액 껑충…관광기금 조성 ‘잭팟’ 파이낸셜뉴스입력 2019.04.04 13:03수정 2019.04.04 13:09 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주도, 도내 8개 외국인 전용 카지노 매출액 조사  지난해 매출액 5112억원 추산…전년 대비 189%↑랜딩카지노 확장 효과 커…기금 471억원 조성 예상 제주도내 외국인 전용 카지노 8곳의 지난해 잠정 매출액은 약 5112억원 규모이며, 전년의 1769억원에 비해 189%나 증가할 것으로 예상되고 있다. [제주=좌승훈 기자] 지난해 제주도내 8곳 외국인 전용 카지노 매출액이 5000억원을 넘어설 것으로 예상됐다. 제주특별자치도는 는 8일부터 17일까지 10일 동안 제주관광진흥기금 부과액 산정을 위해 도내 외국인전용 카지노 8곳을 대상으로 2018년도 매출액 조사를 실시한다고 4일 밝혔다. 도는 도내 외국인 전용 카지노 8곳의 2018년도 잠정 매출액이 전년보다 3343억원(189%) 증가한 5112억원에 달할 것으로 추산하고 있다. 이는 지난해 중문 하얏트호텔에 있던 랜딩카지노가 복합리조트단지인 제주신화월드로 옮긴 뒤 규모를 키워 영업함에 따른 것으로 알려졌다. 이에따라 제주관광진흥기금 부과액도 전년도의 134억원에 비해 250% 증가한 471억원으로 전망하고 있다. 양기철 도 관광국장은 “카지노 매출액을 명확하게 조사·확정해 제주관광진흥기금 산출액의 신뢰성을 확보하고 카지노 영업과 회계절차의 투명성을 향상시켜 관광산업의 한 축으로 건전하게 관리해 나갈 계획이다”고 밝혔다. 한편 도는 2006년 정부로부터 관광진흥기금 운영을 이양 받아 도내 카지노 매출액의 10%와 제주국제공항을 통해 해외로 나가는 사람에게 1인당 1만원을 부과하는 출국납부금으로 관광진흥기금 재원을 마련하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>[제주소식] 제주도·관광협회, 다크 투어리즘 상품개발 지원 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 [제주소식] 제주도·관광협회, 다크 투어리즘 상품개발 지원 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 [제주소식] 제주도·관광협회, 다크 투어리즘 상품개발 지원 송고시간2019-04-03 16:35 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 제주도와 제주도관광협회는 제주4·3과 일제강점기 전쟁 유적을 활용한 다크 투어리즘 상품개발 지원사업을 실시한다. 옛 일제 알뜨르비행장의 현재 모습 [연합뉴스 자료사진] 이번 지원사업은 4·3평화공원과 항일기념관, 알뜨르 비행장 등 관련 유적지 방문 단체 여행객(10명 이상)을 유치한 도내 여행업체를 대상으로 오는 11월 30일까지 차량임차료와 공연·이벤트비용 등 일정 기준의 지원금을 지급한다. 신청은 제주도관광협회(www.visitjeju.or.kr) 홈페이지 공지사항을 참조하거나 담당부서(☎ 064-741-8794)로 문의하면 된다. 광고 제주항공 "기내수하물 10㎏ 1개만 가능합니다" (제주=연합뉴스) 제주항공이 본격적인 여행철을 앞두고 항공기 안으로 들고 가는 휴대 수하물 규정을 알리고 규정준수를 강조하는 캠페인을 시작한다. (제주=연합뉴스) 제주항공 신입승무원들이 본격적인 여행철을 앞두고 김포국제공항 국제선 카운터 앞에서 휴대 수하물 규정을 알리고 규정준수를 강조하는 캠페인을 진행하고 있다. [제주항공 제공] 제주항공은 1인당 3면 길이의 합이 115㎝ 이하, 10㎏ 이하의 휴대용 소형가방 1개 또는 기내용 여행 가방 1개와 면세품 쇼핑백 1개만 기내 반입을 허용하고 있다. 지금까지는 규정한 범위를 넘더라도 탄력적으로 반입을 허용했지만, 기내로 갖고 들어가는 휴대 수하물이 계속 늘어나며 출발 지연 등 여러 문제가 발생함에 따라 앞으로는 규정을 엄격히 적용하겠다는 것이다. 다만, 유모차를 제외한 유아용품이나 소형 전자기기, 도서는 반입이 가능하다. 제주은행, 모바일뱅킹 환전 서비스 개선 (제주=연합뉴스) 제주은행은 모바일뱅킹 환전 서비스를 가상 계좌 입금 방식을 통해 로그인 없이 누구나 환전할 수 있도록 편리하게 개선했다. 제주은행, 모바일뱅킹 환전 서비스 개선 [제주은행 제공] 또 온라인 채널을 통해(JBANK+, 인터넷뱅킹) 환전하는 경우 달러화(USD), 엔화(JPY), 위안화(CNY) 등 주요 통화에 대해 환전수수료를 최대 90％까지 우대한다. 제주은행 통장이 없는 고객도 별도의 회원가입 없이 환율우대 혜택을 받을 수 있고, 제주관광공사 면세점에서 이용할 수 있는 할인 쿠폰을 온라인 채널 환전 고객 모두에게 지급할 예정이다. 제주은행 관계자는 "해외여행을 준비하는 고객이라면 제주은행 모바일뱅킹을 통해 높은 환율 우대 혜택을 받아볼 좋은 기회"라고 설명했다. 제주신화월드, '봄에 떠나는 프랑스 와인 여행' 행사 진행 (제주=연합뉴스) 제주신화월드가 오는 5일 저녁 7시 호텔 안 레스토랑 '스카이 온 파이브 다이닝'에서 해설이 있는 '봄에 떠나는 프랑스 와인 여행' 행사를 진행한다. 제주신화공원 '봄에 떠나는 프랑스 와인 여행' [제주신화공원 제공] 제주신화월드는 서울와인스프릿 피에르 앙드레 두세(Pierre-Andre Doucet) 대표의 특별한 해설을 마련, 와인 입문자부터 전문가까지 누구나 부담 없이 참가할 수 있도록 이 행사를 준비했다. 참가 고객들은 우아한 블렌딩을 선사하는 '부베 라뒤베 사피르 브뤼' 2016년산, 풍부한 아로마가 일품인 '라그라브 마르티약 레드' 2015년산, 은은한 멘톨향과 동시에 부드러운 캐러멜 향을 느낄 수 있는 '샤또 페이로스 비에이 비뉴' 2014년산을 포함한 프리미엄 프랑스산 와인 7종을 시음할 수 있다. 이와 함께 세계 3대 진미 중 하나로 꼽히는 프랑스산 푸아그라, 레드 와인과 최상의 조합을 이루는 쇠고기 안심 훈제, 망고 커스터드 등 다양한 요리까지 곁들여 와인의 풍미를 더욱 높여줄 것으로 기대된다. 이번 행사는 4일까지 선착순 40명에 한해 예약제로 운영되며, 가격은 1인당 12만원이다. 제주도민들은 20％ 할인 혜택을 받을 수 있다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2019/04/03 16:35 송고 #제주항공 #다크투어리즘 #제주은행 #신화역사공원 #제주 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 22 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주관광공사 상임이사 현창행 제주도 전 협치정책기획관 임명 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주관광공사 상임이사 현창행 제주도 전 협치정책기획관 임명 등록 2019.04.01 09:45:24 작게 크게 【제주=뉴시스】제주관광공사 상임이사 현창행 전 도 협치정책기획관. (사진=제주관광공사 제공) 【제주=뉴시스】조수진 기자 = 제주관광공사(사장 박홍배) 상임이사에 현창행 전 제주도 협치정책기획관이 임명됐다. 공사는 1일 상임이사 선발 절차를 모두 마무리하고 임명장 수여식을 진행했다고 밝혔다. 현창행 상임이사는 도 협치정책기획관을 비롯해 제주도개발공사 대외협력 담당을 맡은 바 있다. 공사 상임이사 임기는 3년으로 1년 단위 연임이 가능하다. 박홍배 사장은 “현창행 신임 상임이사의 행정 경험과 도개발공사 대외협력 등 지방공사의 풍부한 이해를 바탕으로 공사와 도, 의회, 지역사회 이해관계자와의 협력을 통해 공사를 잘 이끌어줄 것으로 기대한다”고 밝혔다. 한편 제주관광공사는 신임 상임이사 선발을 위해 지난 1월 임원추천위원회를 구성해 서류 및 면접심사를 거쳐 최종 후보자를 추천했다. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 울산시교육청, 사립유치원 42개원 종합 지도·점검 창원시, 150억 규모 동읍 농촌중심지 활성화 사업 추진 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 일본 관광객 유치 위해 총력 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 16℃ 자카르타 30℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도, 일본 관광객 유치 위해 총력 '신화' 멤버 신혜성, 도난차량서 음주측정 거부해 체포 '루나 폭락' 권도형 19일 여권 무효화…불법 체류자 신분 된다 2022년 10월 11일(화) 사통팔달 피플 아투시티초대석 볼거리 전체메뉴 종합 경기·인천 세종·충청 영남 호남 강원 제주 검색버튼 제주도, 일본 관광객 유치 위해 총력 기사승인 2019. 04. 09. 11:13 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 티웨이항공 나고야 제주 직항에 맞춰 대대적 현지 마케팅 제주 양준호 기자 = 제주특별자치도가 제주를 찾는 일본인 관광객을 최대한 유치하기 위해 총력을 기울이고 있다.제주도와 제주관광공사, 제주관광협회는 8~9일 일본 나고야와 오사카에서 관광객 유치 활성화를 위한 제주 관광 설명회 등 현지 마케팅을 진행했다.이들은 나고야 지역 주요 여행업 관계자와 간담회를 갖고 9일 부터 취항하는 티웨이 항공의 나고야-제주 직항 노선을 활용한 고부가가치 제주 관광 상품 개발을 협의했다.나고야는 일본 최고의 경제 산업 도시로 기업체 관광이나 고부가가치 관광객을 유치하기 좋은 곳으로 평가되고 있다.제주관광공사는 특히 도쿄와 오사카에 이어 나고야 노선까지 운항하게 된 티웨이 항공(정홍근 대표이사)과 노선 활성화를 위한 업무 협약을 체결했다.양 측은 온라인을 활용한 노선 홍보와 TV, 옥외 광고 등을 통해 일본 지역에서 대대적인 공동 마케팅을 실시할 방침이다.나고야는 1994년 부터 대한항공이 운항했으나 2012년 이후 한일 관계 악화 등의 영향으로 수요가 감소하면서 14년 운항이 중단됐다.제주관광공사 관계자는 “최근 일본의 젊은 층을 중심으로 친구와의 주말 여행, 사랑 주말 여행이 늘어 나는 추세”라며 “나고야 제주 직항 노선을 안정화 시키기 위해 항공사 및 여행사와 더욱 협력해 나갈 것”이라고 말했다. 양준호 기자 &gt; truth116@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 전국 많이 본 뉴스 1 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 2 ‘주민등록법위반 혐의’ 김재한 창녕군의회 의장 피소 3 김동연 도지사 “전통시장은 지역경제의 근간, 지역화폐 활.. 4 고흥, 친환경 양식 클러스터 조성 1100억원 투자협약... 5 ‘주홍빛 물든 청도에서 즐겨보자’...청도반시축제·세계코.. 6 목포, 주암댐 ‘가뭄심각’ 장흥댐 용수 사용전환 위해 ‘.. 7 김영록 전남지사, 중앙지방협력회의서 중앙권한 과감한 이양.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 올레길 15코스 정화활동 전개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 올레길 15코스 정화활동 전개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회, 올레길 15코스 정화활동 전개 편집팀 iheadline@hanmail.net 승인 2019.04.20 17:24 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 20일 올레길 15-B코스 일대에서 잡목과 쓰레기를 처리하는 환경정화활동을 전개했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 유명 관광지만 가봤다면, 올봄엔 '제주에코파티' 갈까?-디지틀조선일보(디조닷컴 dizzo.com) 국내여행 제주도 유명 관광지만 가봤다면, 올봄엔 '제주에코파티' 갈까? 서미영 기자 pepero99@chosun.com 기사입력 2019.04.18 09:10 4월이나 5월에 제주도로 여행을 간다면 에코파티에 참여해 보는 건 어떨까? 제주도내 다양한 마을 체험, 생태, 문화 자원과 재미를 결합한 ‘마을로 떠나는 힐링여행인 '2019 제주에코파티'가 개최된다. 에코파티는 제주 마을 속으로 들어가 마을사람들과 어우러지면서 마을의 다양한 문화체험을 해보고, 잠시나마 복잡한 도시 속을 벗어나 마음에 힐링과 휴식을 선사하는 제주 대표 마을여행 프로그램이다. 4월과 5월에 운영되는 제주에코파티 프로그램을 알아보자.유수암 에코파티 '나무야 놀자' ▲ 사진출처=제주관광공사 4월 20일과 5월 18일에는 유수암 마을 에코파티가 개최된다. 유수암 에코파티에서는 해설사와 함께하는 마을 탐방과 함께 나무볼펜 만들기 체험, 양궁체험, 삼색수제비 로컬푸드 체험으로 구성되어 진행된다.무릉2리 '곶자왈과 함께하는 복사꽃 꿈의 마을' 봄 여행주간이 시작되는 4월 27일에는 무릉2리에서 에코파티가 개최된다. 주요프로그램으로는 무릉곶자왈 탐방, 과일과 초콜릿을 활용한 퐁듀 만들기 체험, 무릉2리 마을 한상 체험으로 구성되어 진행된다.마라리 '봄바람 타고 떠나는 마라여행, 마라분교 입학식' 4월 28일과 5월 5일에는 대한민국 최남단 마라도에서 에코파티가 개최된다. 주요프로그램으로는 마라도 탐방, 미술시간(내가 본 마라도 스케치), 체육시간, 추억의 도시락 체험으로 구성되어 진행된다.한남리 머체왓숲길 '유채꽃 향기로 가득한 머체왓 에코파티' 4월 29일부터 5월 3일까지는 한남리 머체왓숲길에서 매일 오전 10시, 오후 2시에 에코파티가 개최된다. 주요프로그램으로는 머체왓 소롱콧길 탐방, 건강워킹 체험, 하루의 피로를 날려줄 한방 족욕체험으로 구성되어 진행된다.선흘1리 '추억의 옛 놀이 여행' 5월 4일에는 제주 대표 생태마을인 선흘1리에서 개최된다. 주요프로그램으로는 선흘 주민들이 살아왔던 이야기를 들어보는 동백동산 탐방을 시작으로 추억의 옛놀이 체험(추억의 뽑기, 공기놀이, 사방치기 등), 동백동산과 살아온 주민들의 종이 인형극, 가시낭 도토리 만둣국 만들기 체험으로 구성되어 진행된다.하효마을 '감귤꽃 향기로 가득한 하효마을 에코파티' 5월 6일부터 5월 10일 까지는 제주 남쪽 하효마을 방귤당에서 에코파티가 개최된다. 앞서 개최했던 한남리 머체왓숲길 처럼 매일 오전 10시, 오후 2시 하루에 2회씩 에코파티가 개최된다. 주요프로그램으로는 감귤꽃 마을 탐방, 감귤 과즐 만들기 체험, 하효마을 대표 한상(베롱베롱브루스) 체험으로 진행된다.청수리 '제주가 숨쉬는 곶자왈 청수리 에코파티' 5월 11일 토요일에는 청수리 곶자왈 일원에서 에코파티가 개최된다. 주요프로그램으로는 청수 에코파티에서는 청정 청수마을 곶자왈 탐방과 함께 표고버섯 종자와 목부작이 함께하는 목부작 체험, 곶자왈 안에서 써보는 타임레터 체험, 마지막으로 청수마을 한상체험으로 구성되어 진행된다.신풍리 '어멍아방 잔치잔치.. 놀고가게마씸!' 봄 여행주간 마지막 날이자 부처님오신날에 개최되는 5월 12일 일요일 신풍리에서 에코파티가 개최된다. 에코파티에서는 제주 농촌체험마을의 원조답게 제주의 옛 모습을 볼 수 있는 집줄놓기 체험, 빙떡만들기 체험과 함께 FAO 세계중요농업유산으로 등재된 제주밭담을 보는 밭담길 투어, 신풍마을 한상 체험으로 구성되어 진행된다.제주에코파티 참가신청 제주에코파티 프로그램 확인 및 참가신청은 ‘탐나오’ 홈페이지에서 진행하고 있으며, 세부일정은 ‘탐나오’와 함께 ‘비짓제주’에서 확인할 수 있다. 에코파티 상품은 회당 30~50명 선착순으로 접수가 이뤄지며, 1인당 최대 10매까지 구매가 가능하다. 서미영 기자 pepero99@chosun.com 최신뉴스 Copyright ⓒ 디지틀조선일보&amp;dizzo.com</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 산정 위한 카지노 매출액 조사 시행-국민일보 시사 시사 &gt; 전체기사 제주도, 관광진흥기금 산정 위한 카지노 매출액 조사 시행 제주지역 8개 카지노 대상 오는 8일~17일 조사 입력 : 2019-04-05 13:27 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 제주관광진흥기금 산정을 위한 카지노 매출액 조사를 오는 8일부터 17일까지 10일간 실시한다. 사진은 제주 랜딩카지노(뉴시스 제공)제주도는 제주관광진흥기금 산정을 위한 카지노 매출액 조사를 오는 8일부터 17일까지 10일간 실시한다고 5일 밝혔다. 카지노 매출액 조사대상은 제주지역 외국인 전용 카지노 8개 사업체다.제주관광진흥기금 운용·관리조례 규정에 따라 카지노사업자는 매년 3월말까지 공인회계사의 감사보고서가 첨부된 재무제표를 제출해야 한다.제주도는 카지노사업자로부터 재무제표가 제출되면, 카지노별로 보고된 전년도 매출액과의 비교 조사를 통해 4월말까지 매출액을 확정, 카지노 총매출액의 10% 범위 내에서 관광진흥기금을 산정·부과할 계획이다.도내 외국인 전용 카지노 8개 사업체의 2018년도 잠정 매출액은 약 5112억원 규모이며, 2017년 1769억원 대비 약 189% 증가할 것으로 예상하고 있다. 이에 따른 제주관광진흥기금 부과액도 약 471억원으로 전년도 134억원 대비 약 250% 상승할 것으로 전망하고 있다.제주관광진흥기금 총수입 대비 카지노 징수 구성비율도 2016년 50%, 2017년 58%, 2018년 55%의 비중을 차지하고 있으며, 관광산업 활성화를 위한 재원으로 편성한다.도는 조사 전 카지노별로 제출한 매출액 산출내역과 재무제표를 면밀히 분석해 매출액 관련 누락 또는 축소 등 의문사항이 있을 경우 현장조사를 실시해 오차가 없게 확인한다는 방침이다.양기철 도 관광국장은 “카지노 매출액의 명확한 조사와 확정을 통해 제주관광진흥기금 산출액의 신뢰성을 확보할 것”이라며 “카지노 영업 및 회계절차의 투명성을 향상시켜 관광산업의 한 축으로 건전하게 관리해 나갈 계획”이라고 밝혔다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
+  </si>
+  <si>
+    <t>제주도의회, 저가관광 개선대책 마련 정책토론회 18일 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도의회, 저가관광 개선대책 마련 정책토론회 18일 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 제주도의회, 저가관광 개선대책 마련 정책토론회 18일 개최 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.04.16 15:12 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도의회 문화관광체육위원회(이경용 위원장) 주최 및 주관으로 오는 18일 오후 4시 도의회 대회의실에서 '저가관광 구조개선과 지속가능한 제주관광 해법찾기'를 주제로 정책토론회를 개최한다.이날 최경은 한국문화관광연구원 연구위원의 '관광상품 유통구조 변화동향과 제주의 시사점', 박현 제이제이 글로벌 대표의 '중국 사드전후 제주 저가관광 구조실태와 개선방안'을 주제로 발표한다.이어 문종태 도의원을 비롯해서 강동우 중국어관광통역안내사협회 회장, 고낙천 제주신라면세점 점장, 양홍식 제이트립 상무, 양기철 관광국장, 오복숙 자치경찰단 관광경찰과장의 지정토론이 진행된다.이번 토론회를 주최하는 이경용 위원장은 "관광객은 늘어도 지역의 낙수효과가 미미한 과거로의 회귀가 아니라 제주관광에 있어서 균형적인 수급정책과 내외부적인 환경요인에도 흔들림없이 안정적인 성장이 가능하도록 포스트 사드를 준비할 정책마련이 필요한 시점이여서 이번 정책토론회를 준비하게 됐다"고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>전주연탄은행, 독거노인들에 제주도 효도관광 선물 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 전북 전주연탄은행, 독거노인들에 제주도 효도관광 선물 (전북=뉴스1) 이종호 기자					| 2019-04-03 14:19 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 전북 전주연탄은행이 독거노인 26명과 함께 제주도 나들이 효도비행을 진행하고 있다. 2019.04.03 전북 전주연탄은행이 독거노인들에게 제주도 나들이 효도비행이라는 훈훈한 선물을 했다.전주연탄은행은 2일부터 2박3일 일정으로 육육걸즈, 한국국토정보공사, 전주시, 전북공동모금회, 개인후원자 등의 후원으로 독거노인 26명과 함께 제주도 나들이 효도비행을 하고 있다.대부분 한 번도 비행기를 탄 적이 없던 독거노인들은 비행기로 제주에 도착, 선녀와 나무꾼, 송악산, 아쿠아 플라넷 등 제주 전역을 관광하면서 즐거운 시간을 보내고 있다.윤국춘 전주연탄은행 대표는 “앞으로도 자원봉사자들과 함께 따뜻한 마음선물을 통해 소외된 취약계층을 대상으로 폭을 넓혀, 다양한 나눔 활동을 지속적으로 전개해 나갈 생각이다”는 소감을 밝혔다. lee@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>국내 1박2일 관광 여행지 추천, 제주도 아이들과 가볼만한 곳 『제주도 여행백서』 &lt; 책과 사람 &lt; 기사본문 - 한국강사신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATED. 2022-10-11 12:50 (화) 로그인 회원가입 전체기사 전체메뉴 버튼 강사뉴스 책과 사람 북세미나 인터뷰 칼럼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 국내 1박2일 관광 여행지 추천, 제주도 아이들과 가볼만한 곳 『제주도 여행백서』 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 책과 사람 국내 1박2일 관광 여행지 추천, 제주도 아이들과 가볼만한 곳 『제주도 여행백서』 기자명 한상형 기자 입력 2019.04.18 14:21 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [한국강사신문 한상형 기자] 대한민국의 영원한 파라다이스 제주도! 세계인의 휴양지이자 한국인이 가장 사랑하는 여행지, 제주도는 볼거리와 먹거리가 넘쳐나는 곳이다. 손만기의 『제주도 여행백서 : 대한민국 여행자를 위한, 2018-2019(나무자전거, 2018)』는 제주의 구석구석 숨어 있는 볼거리, 즐길거리, 먹거리 그리고 카페까지! 가고 싶은 곳을 주저 없이 갈 수 있도록 꼼꼼하게 안내한다. 『제주도 여행백서』는 여행자의 일정과 스타일까지 고려한 맞춤정보들로, 항상 곁에서 가장 든든한 여행 가이드 역할을 할 것이다.“푸른 바다가 손짓하는 제주, 가볍게 떠나자!”『제주도 여행백서』는 제주도에 들어가는 방법부터 제주에서 이용할 수 있는 교통편, 떠나기 전 알아야 할 모든 정보를 알차게 정리했다. 또한 제주를 동부, 서부, 남부, 북부로 나누어 구석구석에 자리한 볼거리, 즐길거리 먹거리, 카페를 엄선하여 알차게 소개했다. 고민 없이 여행백서 한 권으로 가볍게 제주여행을 즐기자! “제주를 만끽할 수 있는 다양한 동선 제시”『제주도 여행백서』는 해안도로를 따라 도는 2박 3일, 이미 제주를 만났던 여행자를 위한 3박 4일, 비경과 오름을 만날 수 있는 4박 5일, 아이와 함께하는 추억을 만드는 2박 3일, 비가 내릴 때 가장 효율적인 2박 3일, 한라산 등반을 위한 6박 7일, 주머니 가벼운 여행자를 위한 2박 3일 일정 등 다양한 제주여행 동선을 제시합니다. 또한 북부(제주시), 서부, 남부, 동부의 지역에서 돌아볼 수 있는 추천일정도 담았다. 간편하게 알찬 일정으로 제주여행을 떠나자!“최신 정보와 트렌드로 무장한 2018~2019년 개정판!”항상 여행자로 북적거리는 제주도의 최신 트렌드를 반영하여 주요 관광지, 레스토랑, 숙소 등의 정보를 보강했으며, 가격 및 영업시간 등의 정보까지 꼼꼼하게 체크했습니다. 특히 각 지역(파트)에서 들러봐야 할 카페와 올라볼 만한 오름 등을 추가 수록하고 커피 맛으로 입소문을 타고 있는 카페를 스페셜페이지로 추가 구성했다. 이 책 『제주도 여행백서』는 총 7개 파트로, 여행준비부터 제주도에서 꼭 필요한 정보까지 바로 파악할 수 있도록 구성했다. 1파트에서는 제주를 이해할 수 있는 전반적인 내용과 여행준비 과정, 추천일정을 소개했다. 또한 2~5파트에서는 제주도를 지역별로 구분하여 명소, 먹거리, 카페 등의 섹션으로 구분하여 세세한 정보를 담았다. 6파트에서는 제주의 오름, 올레, 해안도로, 주변 섬을 주제별로 소개했다. 마지막 7파트에서는 제주의 다양한 숙박시설을 다뤘다. 책 중간중간에는 한라산과 한라산의 주변 명소, 오일장과 벼룩시장 같은 독립적인 볼거리와 테마 여행지를 스페셜페이지로 구분하여 담았다.‘제주 북부지역에서 반드시 둘러봐야 할 명소’로 동문재래시장, 두멩이골목, 사라봉, 한라수목원, 서문공설시장, 제주목관아, 용담해안도로, 용두암, 원당봉(불탑사, 원당사, 문강사), 제주4.3평화공원, 제주도립미술관, 내도 알작지, 신비의도로, 제주민속자연사박물관, 산천단 등을 소개한다.‘제주 동부지역에서 반드시 둘러봐야 할 명소’로 녹산로, 제주돌문화공원, 만장굴, 비자림, 산굼부리, 섭지코지, 성산일출봉, 에코랜드, 제주허브동산, 월정리해변, 김녕 성세기해변, 김영갑갤러리(두모악), 다희연, 메이즈랜드, 함덕 서우봉해변, 혼인지, 고망난돌쉼터, 해녀박물관, 교래자연휴양림, 조천 스위스마을 등을 소개한다. ‘제주 서부지역에서 반드시 둘러봐야 할 명소’로 용머리해안, 협재해변, 곽지 과물해변, 산방산(산방굴사), 서광다원(오설록티뮤지엄), 애월초등학교 더럭분교, 라온더마(馬)파크, 구엄리 돌염전(소금빌레), 생각하는정원, 애월 한담해변산책로, 월령리 선인장군락지, 송악산, 성이시돌목장, 순례자의교회, 수월봉, 제주표착기념관, 모슬포항, 방림원, 유리의성, 저지문화예술인마을, 제주초콜릿박물관, 추사관과 추사유배길, 공룡랜드, 낙천리 아홉굿마을, 항파두리항몽유적지, 차귀도 해적잠수함, 마린파크, 차귀도 등을 소개한다.‘제주 남부지역에서 반드시 둘러봐야 할 명소’로 수(水.風.石)박물관, 카멜리아힐, 샹그릴라요트투어, 쇠소깍, 작가의산책길(유토피아로), 새연교(새섬), 서귀포매일올레시장, 걸매생태공원과 오솔길벽화마을, 갯깍주상절리, 천지연폭포, 대포해안주상절리, 박수기정, 안덕계곡, 엉또폭포, 약천사, 원앙폭포, 정방폭포, 중문 색달해변, 남원 큰엉해안경승지, 외돌개, 위미리 동백군락지, 세계조가비박물관, 천제연폭포, 방주교회, 세계자동차박물관, 들렁모루 등을 소개한다.저자 손만기는 카메라 하나 들쳐 메고 전국을 여행하면서 아름다운 풍경을 글과 사진으로 기록하는 자유여행가이자 여행작가이다. 국내 다수 지자체 취재활동과 더불어, 여행 컨설턴트, 여행작가로서 왕성한 활동을 하고 있다. 지금도 끊임없이 전국 방방곡곡에 발도장을 찍으며 자료를 수집하고, 여행자들과 소통하고 있다. 저서로는 『서울·경기 여행백서』, 『전라도 여행백서』, 『대한민국 대표 맛집 1000』(공저) 등이 있다. 현재 충청남도 농촌체험마을 자문위원, 여행블로그 기자단 우수 회원 등으로도 활동 중이다. 주요기사 [연애 잘하는 법] “질투: 집착과 질투의 차이” 『남자는 고쳐 쓰는 거 아니다』 “한국강사에이전시와 함께 슬기로운 강사생활을 시작하세요!” 장윤정 동화책 《모두의 눈 속에 내가 있어요》 “트로트의 여왕이 쓴 꽁냥꽁냥 생활 동화” “개그맨 황현희의 부동산·주식·비트코인 투자 방법” 황현희·제갈현열의 책 ‘비겁한 돈’ [신간도서] 가재산·김기진의『왜 지금 한국인가 : 한류경영과 K-리더십』 “하는 일마다 성공하는 사람들의 비결은 무엇일까?” 정회도의 신간 ‘운의 알고리즘’ 한상형 기자 han@lecturernews.com 다른기사 보기 저작권자 © 한국강사신문 무단전재 및 재배포 금지 주요기사 [연애 잘하는 법] “질투: 집착과 질투의 차이” 『남자는 고쳐 쓰는 거 아니다』 “한국강사에이전시와 함께 슬기로운 강사생활을 시작하세요!” 장윤정 동화책 《모두의 눈 속에 내가 있어요》 “트로트의 여왕이 쓴 꽁냥꽁냥 생활 동화” “개그맨 황현희의 부동산·주식·비트코인 투자 방법” 황현희·제갈현열의 책 ‘비겁한 돈’ [신간도서] 가재산·김기진의『왜 지금 한국인가 : 한류경영과 K-리더십』 하단영역 하단메뉴 신문사 소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 용산구 청파로 269 4층 대표전화 : 02-707-2210 팩스 : 02-707-2214 이메일 : han@lecturernews.com 한국강사신문 사업자 등록번호 : 407-81-30626 개업연월일 : 2016년 5월 15일 발행·편집인 : 한상형 신문사업인터넷신문사업 등록번호 : 서울, 아04090 등록일자 : 2016-05-24 청소년보호책임자 : 정헌희 한국강사신문을 통해 제공되는 모든 콘텐츠(뉴스, 사진, 동영상 등)는 무단 사용, 복사, 배포 시 저작권법에 저해되며, 법적 제재를 받을 수 있습니다. Copyright © 2022 한국강사신문. All rights reserved. mail to han@lecturernews.com 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정헌희 02-707-2210 han@lecturernews.com 위로 전체메뉴 전체기사 강사뉴스 책과 사람 북세미나 인터뷰 칼럼 커뮤니티 신문사 소개 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주관광대학교, 제주도 기능경기대회에서 우수한 성적 거둬 &lt; 대학뉴스 &lt; 뉴스 &lt; 기사본문 - 한국대학신문 - 409개 대학을 연결하는 '힘' 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 기사검색 검색 지면보기 광고신청 구독신청 뉴스레터 로그인 회원가입 2022-10-11 10:52 (화) 뉴스 정책 이슈·기획 대학뉴스 학술·연구 종합 에듀테크 &amp; 비즈니스 세계 혁신대학을 가다 올댓입시 입시종합 일반대입시 전문대입시 진로교육 오피니언 지성의 전당 사설 칼럼 기자수첩 UCN 칼럼 대학通 만평 피플∙컬쳐 사람과 생각 전문대인 인물·동정 인사·부고 헬스라이프 CHECK책 uniCon 유학생 단상 대담 카드뉴스 포토·영상 포토뉴스 UNN TV 찰칵 현장 그땐 그랬지 프리미엄 UI 대학혁신지원사업 ICK 전문대학 혁신지원사업 UCN PRESIDENT SUMMIT 한국대학경쟁력연구원 테마캠퍼스 공동기획 대학탐방 수시특집 정시특집 사이버대특집 LINC+ ACE PRIME WCC post youtube facebook rss 본문영역 이전 기사보기 다음 기사보기 제주관광대학교, 제주도 기능경기대회에서 우수한 성적 거둬 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 대학뉴스 제주관광대학교, 제주도 기능경기대회에서 우수한 성적 거둬 기자명 신지원 기자 입력 2019.04.10 22:23 댓글 0 바로가기 복사하기 SNS 기사보내기 페이스북(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 본문 글씨 줄이기 본문 글씨 키우기 뷰티디자인과 고나희, 한동매(유학생), 김서현 학생이 각각 금, 은, 동메달을 수상했다. [한국대학신문 신지원 기자] 제주관광대학교(총장 김성규)는 뷰티디자인과 학생들이 제주특별자치도가 주최하고 제주특별자치도 기능경기위원회(한국산업인력공단 제주지사)에서 주관한 ‘2019년 제39회 제주특별자치도 기능경기대회’에서 우수한 성과를 거뒀다고 밝혔다. 3일부터 8일까지 열린 대회에서 피부미용 직종에 출전한 뷰티디자인과 고나희, 한동매(유학생), 김서현 학생이 각각 금, 은, 동메달을 수상했다. 특히 은메달을 수상한 학생은 유일한 외국 유학생 참가자여서 더욱 주목을 받았다. 수상한 학생들은 오는 10월 4일부터 부산에서 개최되는 제54회 전국기능올림픽 대회 제주특별자치도 대표로 출전하게 된다. 신지원 기자 shinji35@unn.net 다른기사 보기 저작권자 © 한국대학신문 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 이 기사에 대한 당신의 생각은? 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 인기기사 1 “국립대 사무국장 10명 날벼락 대기발령, 당사자 사전협의도 문서도 없었다” 2 사립대 총장 평균 연봉 1.6억 원…경동대‧백석문화대 4억원대 최고 3 첨단 21개 분야, 일반대 온라인 학사학위 취득 길 열려 4 대전‧세종‧충남 고등교육혁신특화지역으로 신규 지정 5 성균관대 창업지원단, 2022 성균관대 동문 VC 포럼 개최…“플랫폼 유니버시티로 도약, 대학성장과 사회기여 선도” 6 [2022 국감] 홍원화 대교협 회장, “초·중·고 교부금 예산 요구한 적 없어…대학 재정 어려움 알아주길” 7 김교일 동양미래대 총장 “전통 공업 중심 이미지 벗어나…학과별 특성화 대학 만들 것” 8 ‘대학규제개선협의회’ 출범…어떤 규제가 대학 옭아매나 9 10년 만에 돌아온 이주호, ‘하이 터치 하이 테크’로 교육혁신 추진 힘받을 듯 10 [수요논단] 이주호 교육부장관 후보자와 교육주체 간 소통 최신기사 김지현·채여주·박서진 광주대 교수 ‘생애 첫 연구사업’ 선정 가톨릭관동대, 미주 5개 한인회와 글로벌 산학협력 협약 안산대, LINC 3.0 수도권 협력기반구축형 대학 업무협약 유한대, 우수 중견‧중소기업 채용설명회 청운대, 대학생 재능 나눔으로 지역 문제 해결 선도 삼육대, 공식 캐릭터 ‘수야·수호’ 탄생 UNN TV 2023학년도 전문대 수시 박람회, 더 다양해진 전문 학과에 관심 보여 포토 뉴스 또박또박...이화여대, 외국인 한국어 말하기대회 개최 서울지역 청년 찾아간 대학일자리플러스센터 최선 다하는 수험생들...국민대 수시 실기 우수자전형 실기고사 상담 또 상담...수시 전문대학 입학정보박람회 대학 경쟁력이 국가의 경쟁력입니다 - 선진 대학 만들기 캠페인 대학교 바로가기 가천대학교 가톨릭대학교 건국대학교 강원관광대학교 경동대학교 경희대학교 경희사이버대학교 계명문화대학교 금오공과대학교 국제대학교 계원예술대학교 --------------------- 남서울대학교 --------------------- 대구가톨릭대학교 대림대학교 덕성여자대학교 동남보건대학교 동서울대학교 동서대학교 동양대학교 --------------------- 명지대학교 --------------------- 배화여자대학교 --------------------- 삼육대학교 삼육보건대학교 상명대학교 서울여자대학교 서정대학교 선문대학교 세경대학교 송곡대학교 수원여자대학교 순천향대학교 숭실대학교 신성대학교 --------------------- 여주대학교 영남이공대학교 연암공과대학교 연암대학교 연성대학교 우송대학교 우송정보대학 울산대학교 유한대학교 인천대학교 인천재능대학교 인하공업전문대학 --------------------- 전북대학교 조선이공대학교 --------------------- 청주대학교 --------------------- 한국기술교육대학교 한국영상대학교 한국외국어대학교 한국전문대학교육협의회 한국항공대학교 한양대학교 한양사이버대학교 혜전대학교 호원대학교 하단영역 하단메뉴 매체소개 윤리강령 광고센터 기사제보 불편신고 제휴안내 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 등록번호 : (주간)서울 다 - 05879 (1988-08-31) 회장 : 이인원 대표이사·발행인 : 홍준 편집인 : 최용섭 청소년보호책임자 : 최용섭 대표전화 : 02)2223-5030 편집국 : 02)2223-5030 구독문의 : 02)2223-5050 대학광고 : 02)2223-5050 기업·광고 : 02)2223-5042 Fax : 02)2223-5004 주소 : 서울특별시 금천구 디지털로 9길 47 한신 IT타워 2차 14층 (가산동) ㈜한국대학신문 Copyright © 1999-2011 ㈜한국대학신문. All rights reserved. mail to news@unn.net Family sites : 위로 이전기사 이전 기사보기 다음기사 다음 기사보기 아래로 홈으로 전체메뉴 검색 기사검색 검색 전체메뉴 전체기사 뉴스 전체 정책 이슈·기획 대학뉴스 학술·연구 종합 에듀테크 &amp; 비즈니스 세계 혁신대학을 가다 피플∙컬쳐 전체 사람과 생각 전문대인 인물·동정 인사·부고 헬스라이프 CHECK책 공연·전시 uniCon 유학생 단상 경제 전체 김기자의 야시경 올댓입시 전체 입시종합 일반대입시 전문대입시 진로교육 오피니언 지성의 전당 전체 사설 칼럼 기자수첩 UCN 칼럼 대학通 만평 포토·영상 전체 포토뉴스 UNN TV 찰칵 현장 그땐 그랬지 프리미엄 전체 UI 대학혁신지원사업 ICK 전문대학 혁신지원사업 UCN PRESIDENT SUMMIT 한국대학경쟁력연구원 테마캠퍼스 공동기획 대학탐방 수시특집 정시특집 사이버대특집 LINC 3.0 ACE PRIME WCC 대학정보 대담 전체 카드뉴스 조동성이 만난 사람 오세조 교수가 끌고 고현규 대표가 미는 미래혁신 유통 이야기 ‘오고가고’ 아너스 칼럼 대학선택 한국대학경쟁력연구원 President Summit 한국대학신문대상 전체 대학직원대상 대학대상 기업대상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 올해 상반기 제주관광진흥기금 융자지원 추진 &lt; 전국 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 11:37 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 올해 상반기 제주관광진흥기금 융자지원 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주도, 올해 상반기 제주관광진흥기금 융자지원 추진 기자명 고영진 기자 입력 2019.04.02 14:35 수정 2019.04.02 14:41 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 내일(3일)부터 16일까지 제주관광진흥기금 융자지원 신청을 접수한다고 오늘(2일) 밝혔습니다.융자지원 대상은 경영안정자금 300억원, 관광시설 등의 개·보수자금 100억원, 관광객이용시설 등 건설자금 100억원 등입니다.관광진흥기금 접수는 제주도 관광정책과나 행정시 관광진흥과, 제주관광협회로 하면 됩니다.도는 올해 상반기에 모두 500억원 규모의 관광진흥기금을 융자지원한다는 계획입니다. 고영진 기자 yasab6@hanmail.net 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 [코로나19]신규확진 1만명대...오늘부터 개량백신 접종 시작 최신뉴스 국제 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 전국 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 지방사 인터뷰 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 사회 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 경제 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 포토뉴스 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 3 무주 일가족 사상사고...보일러 배기관 막혀 4 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 7 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 8 은해사 창건 1213주년, 해인사 창건 1220주년.....개산 기념 문화 행사 풍성 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 씀씀이 내국인 줄고 외국인 늘었다 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도 관광객 씀씀이 내국인 줄고 외국인 늘었다 관련이슈 디지털기획 입력 : 2019-04-02 03:00:00 수정 : 2019-04-01 17:12:29 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 제주를 찾은 관광객 씀씀이가 내국인은 줄고 외국인은 늘었다. 제주관광공사는 1일 2018년 한 해 동안 제주를 방문한 내국인과 외국인, 크루즈관광객의 제주여행 행태와 소비실태, 제주여행에 대한 평가 등을 조사한 ‘2018년 제주도 방문관광객 실태조사’(국가승인통계) 결과를 발표했다. 공사는 지난해 제주를 방문한 만 15세 이상 내국인(6000명)·외국인(4000명) 관광객, 크루즈(2000명) 관광객 등 약 1만2000명(매월 약 1000명)을 대상으로 제주국제공항, 제주여객터미널, 제주외항 크루즈 전용부두 등 주요 관문지역에서 면접조사 방식으로 실태조사를 했다. 제주를 방문한 내국인 관광객의 경우, 1인당 평균 지출경비는 51만5825원으로 2017년(54만307원) 대비 2만4482원이 감소한 것으로 나타났다. 내국인 관광객 평균 지출은 2016년 59만2461원에서 계속해서 감소하는 추세다. 내국인 관광객 여행형태별 1인당 지출은 개별여행객은 50만8759원, 완전 패키지 여행객 67만7336원, 부분 패키지 여행객 54만8117원이었다. 내국인 관광객 지출 감소는 숙박시설 과잉공급에 따른 숙박요금 하락으로, 보다 요금이 저렴한 숙소를 찾기 때문이란 분석도 나온다. 반면, 외국인 관광객의 경우 1인당 평균 지출경비는 1339.4달러(151만7138원)로 전년(1214.9달러)보다 124.5달러(14만1021원) 증가했다. 이는 주로 쇼핑비와 식음료비 증가에 기인한 것이었다. 외국인 관광객 여행형태별 1인당 지출경비 수준을 보면 개별여행객은 1348.8달러, 완전 패키지 여행객 1003.1달러, 부분 패키지 여행객 1136.7달러였다. 재방문횟수를 조사한 결과 내국인의 재방문율은 전년(69.8％)과 비슷한 68.7％였으며, 외국인은 전년(19.8％)보다 13.1％ 포인트 증가한 32.9％의 재방문율을 보였다. 평균 체류일수는 내국인 관광객의 경우 평균 3.95일, 외국인 관광객은 평균 4.9일간 제주에 머물렀다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20190401512401 0101070100000 0 2019-04-02 3:0:0 2019-04-01 17:12:29 0 제주도 관광객 씀씀이 내국인 줄고 외국인 늘었다 세계일보 임성준 9a19e7e4-78a9-43d0-9d4a-245149669a84 jun2580@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>‘권아솔 출전’ 로드FC “제주도 관광 산업 활성화 기대” : 스포츠동아 본문바로가기 로그인회원가입 지면보기 즐겨찾기 추가 전체메뉴보기 실시간 뉴스 연예 스포츠 포토 아이돌픽 트롯픽 엠엘비파크 인스타그램페이스북트위터검색 전체 검색 영역 전체 검색어 입력 검색 닫기 메뉴닫기 뉴스 실시간뉴스 연예 스포츠 포토 아이돌뉴스 인터뷰 기자스페셜 카툰 아이돌픽 동아닷컴 MLBPARK 비즈N VODA 보스 오늘의 운세 &lt;운수 좋은 날&gt;송혜교, 이제 나이테 느껴지는 성숙미스타들의 핫한 순간들 [화보] ‘권아솔 출전’ 로드FC “제주도 관광 산업 활성화 기대”입력 2019-04-02 05:30:00 카카오톡 페이스북 공유하기 프린트글씨작게글씨크게 공유하기 닫기 강영식 로드FC 제주 회장(오른쪽)은 5월 제주 한라체육관에서 굽네몰 로드FC 053을 개최하는 데 각별한 노력을 기울였다. 중국인들의 뜨거운 관심을 받는 이번 대회를 통해 중국 관광객들을 유치하고 그에 따른 제주 관광 산업 활성화를 기대하고 있다. 세계격투스포츠협회(WFSO) 정문홍 회장과 포즈를 취하고 있는 강 회장. 사진제공｜로드FC 로드FC가 100만 달러 토너먼트 최종전 개최지로 선택한 제주도가 뜨거운 관심을 끌고 있다. 스포츠 행사를 넘어 사드 여파로 위축된 관광 산업 활성화까지 기대되고 있다.로드FC는 5월 18일 제주 한라체육관에서 굽네몰 로드FC 053을 개최한다. ‘끝판왕’ 권아솔(33·팀 코리아MMA)과 ‘도전자’ 만수르 바르나위(27·TEAM MAGNUM/TRISTAR GYM)가 ‘100만 달러 토너먼트’ 최종전에서 맞붙어 우승자를 결정짓는다.또 중국의 인기 파이터인 아오르꺼러와 K-1 출신의 세계적인 레전드 파이터 제롬 르 밴너와의 경기도 예정돼 있어 중국 ‘요커’들의 대거 방문이 예상돼 굽네몰 로드FC 053 제주 대회의 분위기를 한층 고조시키고 있다.굽네몰 로드FC 053의 제주도 개최는 강영식 로드FC 제주 회장의 노력이 큰 힘이 됐다. 강 회장은 제주 21세기 한·중 교류협회 회장도 맡으며 제주도와 중국의 우호증진과 교류를 위해 다양한 활동을 하고 있다. 사드 배치로 중국인 관광객들이 감소하면서 제주 지역 경기 침체가 지속되자 제주 관광산업 활성화를 위해 여러 콘텐츠를 고민하다 로드FC 대회 유치를 결심했다.2015년 12월을 시작으로 총 6회의 로드FC 중국 대회가 매진되며 중국 내에서 불고 있는 격투기 한류에 대한 보도를 접한 것이 계기가 됐다. 강 회장은 1일, “로드FC 대회 개최를 지원해주고 있는 세계격투스포츠협회(WFSO) 정문홍 회장과 제주 관광산업 활성화라는 뜻이 맞아 손을 잡게 됐다. 사드로 인해 제주도의 중국인 관광객들이 줄어들며 관광 산업이 위축됐는데, 다시 중국인 관광객들이 방문하도록 제주 관광을 활성화하기 위해 로드FC 대회를 유치하게 됐다”고 말했다.관광 산업 활성화의 의미를 가진 것 외에 스포츠 산업으로 봤을 때도 굽네몰 로드FC 053은 의미가 깊다. 제주도에서 메이저 MMA 대회가 열리는 건 이번이 처음이다. 로드FC의 글로벌 프로젝트 100만 달러 토너먼트의 마지막 경기가 메인이벤트로 진행되기에 그 어느 때보다 주목받고 있다.실제로 로드FC가 지난달 20일 판매를 시작한 굽네몰 로드FC 053의 VVIP석은 100만 원이라는 고액에도 불구, 이틀 만에 전석 매진됐다. 이어 판매된 VIP석도 모두 매진되며 뜨거운 인기를 끌고 있다. 로드FC는 추후 추가 좌석을 확보해 잔여 판매티켓을 오픈할 예정이다.강 회장은 “아시아 최고의 격투 스포츠인 로드FC 대회로 인해 침체된 지역상권이 살아나고 제주도 관광산업의 붐을 일으키려고 한다. 대회의 성공적인 흥행을 통해 단발성 개최가 아닌 매년 대회를 개최할 예정이다”고 밝힌 뒤 “5월 18일 한라체육관에 오셔서 세계적인 파이터들의 플레이를 보면서 현장의 감동을 함께 느껴보시길 바란다”고 덧붙였다.장은상 기자 award@donga.com 기자의 다른기사 더보기 베스트 클릭1.홍진영, 더욱 앙상해진 몸매 [DA★]2.‘♥김준호’ 김지민 “쌍둥이 임신, 혼인 신고설 난리가 났다” (미선임파서블)3.조형기 미국에 있었다? 뜻밖의 근황설 [종합]4.최불암 근황 공개, ‘회장님네 사람들’ 게스트 출격 [공식]5.하니, 10세 연상 양재웅♥에 가스라이팅? “심신미약자 아냐” (레오제이)6.“집도 사주고파” 의뢰인 남친 미모 난리→서장훈도 인정 (물어보살)7.19세 김가연 “4살딸 양육비 달라”…전 남편 충격+분노유발 (고딩엄빠2)8.김혜자 눈물→최불암 근황 공개, ‘회장님네’ 오늘 첫방 [DA:투데이]9.80억 매출 현영, 맘카페들 난리 날 일상 (호적메이트)10.성유리 “여긴 KBS입니다” 화들짝→김창옥이 뭐랬길래? 뉴스스탠드 회사소개 지면광고문의 구독신청 인터넷광고문의ㆍ사업제휴 청소년보호정책(책임자: 구민회) 이용약관 개인정보처리방침 사이트맵 스포츠동아의 모든 콘텐츠를 커뮤니티, 카페, 블로그 등에서 무단 사용하는 것은 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright by sports.donga.com Email</t>
+  </si>
+  <si>
+    <t>제주도 "관광개발사업 새 투자 안 받고 기존 사업장 관리에 집중" 글로벌 Who is? 기업과산업 금융 시장과머니 시민과경제 정치·사회 인사이트 최신뉴스 검색 검색 닫기 정치·사회  지자체 제주도 "관광개발사업 새 투자 안 받고 기존 사업장 관리에 집중" 임한솔 기자 limhs@businesspost.co.kr 2019-04-05 18:41:52 확대 축소 공유하기 제주도가 기존 관광개발사업장에서 정상적으로 실적을 낼 때까지 새로운 사업을 유치하지 않기로 했다. 제주도는 5일 제주도청 대회의실에서 도내 관광개발사업 대표자들과 간담회를 열고 현재 승인절차가 진행되고 있는 사업과 기존에 승인한 사업 위주로 집중관리에 들어가겠다고 밝혔다. ▲ 원희룡 제주도지사. 간담회에는 개발사업이 장기간 중단됐거나 사업 추진이 미흡한 개발사업장 24곳의 대표자와 관계자 등 50여 명이 참석했다. 제주도는 앞으로 관광개발사업자가 고용실적과 투자실적을 정기적으로 공표하도록 하고 실적이 미흡하면 불이익을 주기로 했다. ‘제주도 개발사업 시행 승인 등에 관한 조례’를 개정해 개발사업심의위원회 기능을 확대하고 사업자 투자 적격성, 투자계획과 재원 확보계획 적정성 등에 관한 심의를 강화한다. 사업기간과 사업계획을 바꿀 때 변경 내용이 적절한지도 집중적으로 심의한다. 현재 제주도에서 추진되고 있는 관광개발사업장은 헬스케어타운, 성산포 해양관광단지, 롯데리조트 등 모두 24곳이다. 관광개발사업장은 민간자본 유치를 통해 관광산업을 육성한다는 목적으로 제주특별법과 관광진흥법에 따라 개발사업을 승인한 곳을 말한다. 양기철 제주도 관광국장은 “관광개발사업장을 엄격하게 관리해 실질적 투자와 고용 창출로 이어질 수 있도록 할 것”이라며 “관광개발사업자들의 건의를 제도 개선에 적극 반영하겠다”고 말했다. [비즈니스포스트 임한솔 기자] &lt;저작권자(c) 비즈니스포스트 무단전재 및 재배포금지&gt; 임한솔 기자의 다른기사보기 인기기사 삼성전자 파운드리 생산지 다변화 검토, 경계현 눈길은 유럽과 인도에 나병현 기자 윤석열 20대 지지율 대위기, 여가부 폐지 추진으로 '이대남' 마음 돌릴까 김남형 기자 쌍용차 중형SUV 토레스 판매호조, 곽재선 '전기차 전환' 든든한 기반 허원석 기자 키움증권 "SK바이오사이언스 목표주가 하향, 백신 생산 줄어 실적 부진" 임한솔 기자 대만 폭스콘 미국 생산 전기차 선보여, 애플 자율주행차 ‘애플카’ 예고편? 김용원 기자 댓글 (0) 등록 - 200자까지 쓰실 수 있습니다. (현재 0 byte / 최대 400byte) - 저작권 등 다른 사람의 권리를 침해하거나 명예를 훼손하는 댓글은 관련 법률에 의해 제재를 받을 수 있습니다. - 타인에게 불쾌감을 주는 욕설 등 비하하는 단어가 내용에 포함되거나 인신공격성 글은 관리자의 판단에 의해 삭제 합니다. 신문사소개 윤리강령 기사심의규정 인재채용 기사제보 광고문의 불편신고 이메일무단수집거부 청소년보호정책 개인정보처리방침 서울특별시 강남구 삼성로100길 15 명당빌딩 3-4층 대표전화 : 1800-6522 편집국 070-4010-8512 사업본부 070-4010-7078 팩스 : 070-4015-8658 등록번호 : 서울 아 02897 제호: 비즈니스포스트 등록일: 2013.11.13 발행·편집인 : 강석운 발행일자: 2013년 12월 2일 청소년보호책임자 : 강석운 ISSN : 2636-171X Copyright ? 2013 비즈니스포스트. All rights reserved. 열린보도원칙 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 박상유 1800-6522 bspost@businesspost.co.kr</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 2019 내나라여행박람회 제주관광 홍보관 우수상 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도·관광협회, 2019 내나라여행박람회 제주관광 홍보관 우수상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도·관광협회, 2019 내나라여행박람회 제주관광 홍보관 우수상 기자명 강지환 기자 입력 2019.04.08 11:03 수정 2019.04.09 09:13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도와 제주관광협회(회장 김영진)는 지난 4일부터 7일까지 4일간 서울 코엑스에서 개최된 2019 내나라여행박람회에 참가해 제주관광 홍보관 '우수상'을 수상했다.도와 협회는 이 기간 제주관광 홍보관에서 밀레니얼 세대를 겨냥, 제주의 야간 테마를 배경으로 한 포토존을 구성했다.이어 제주에서 인생샷을 찍고 사회관계망서비스(SNS)에 올리는 이벤트와 제주 감물 염색 체험 등 다양한 프로그램을 마련했다.이와 함께 제주라프, 제주러브랜드, 렛츠런파크 제주 등 업체들이 참여해 야간테마를 홍보해 많은 관람객들의 관심을 모았다.이에 도와 협회는 앞으로도 밀레니얼, 베이비부머 세대를 대상으로 세대별 맞춤형 관광 콘텐츠를 홍보하고, 온라인 홍보를 강화해 내국인 관광객 유치를 위한 홍보 마케팅을 지속적으로 추진할 예정이다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 테마상가 ‘플레이사계’ 분양…용머리관광지 개발사업지와 인접해 - 아이티비즈 × 전체기사 뉴스 전체 SW 보안 인터넷 통신 네트워크 모바일·콘텐츠 산업/경제 문화/생활 기획&amp;정책 전체 특집 업체탐방 인터뷰 리뷰 이슈분석 트렌드 비즈니스모델 리서치&amp;오피니언 전체 선호도조사 만족도조사 수요조사 시장조사 디지털경제 전체 금융 통신 공공 제조·유통 서비스 의료 교육 제약·물류 라이프 전체 컬럼 기고 문화생활 피플&amp;포토 전체 인사 동정 부음 축하 사무실이전 신간 이벤트 전체 세미나 포럼 조찬회 어워드 UPDATED. 2022-10-11 12:18 (화) 로그인 회원가입 기사제보 모바일웹 전체 최신뉴스 SW 보안 인터넷 통신 네트워크 모바일·콘텐츠 산업/경제 문화/생활 기획&amp;정책 특집 업체탐방 인터뷰 리뷰 이슈분석 트렌드 비즈니스모델 리서치&amp;오피니언 선호도조사 만족도조사 수요조사 시장조사 디지털경제 금융 통신 공공 제조·유통 서비스 의료 교육 제약·물류 라이프 컬럼 기고 문화생활 피플&amp;포토 인사 동정 부음 축하 사무실이전 신간 기사검색 검색 이전 다음 제주도 테마상가 ‘플레이사계’ 분양…용머리관광지 개발사업지와 인접해 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 산업/경제 제주도 테마상가 ‘플레이사계’ 분양…용머리관광지 개발사업지와 인접해 김종영 기자 승인 2019.04.11 18:26 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 용머리관광지 앞 공영주차장 봄이 만연한 가운데, 봄 여행을 떠나는 이들이 상당하다. 가족, 연인, 각종 동호회부터 학생들의 수련회나 수학여행 등 봄은 여행의 계절이다. 국내 명소 중 봄 여행지로 가장 많이 추천되는 곳은 단연 ‘제주도’다. 제주도는 과거부터 현재까지 국내 최대 여행지로 인기를 누려왔으며, 우리나라 최남단에 위치해 있어 봄을 알리는 유채꽃과 벚꽃이 가장 먼저 피었기에 국내에서 유채꽃축제와 벚꽃축제가 가장 먼저 시작되는 곳이기도 하다. 제주도는 낭만의 섬이기도 하다. 우리나라에서 가장 큰 섬이자 가장 따뜻하고 사면이 바다로 둘러싸여 있으며, 가볼만한 곳이 많다. 낭만적인 삶을 꿈꾸는 현대인들 입장에서는 제주도 이주에 대해 고려해볼만한데, 최근 몇 년 사이 제주도로 이주하는 이들이 상당했다. 제주도로 이주하는 이들이 많아진 덕에 제주도 타운하우스, 아파트, 신축빌라 및 단독주택 등이 늘어났다. 이주자들을 수용하기 위해 이처럼 주거단지가 대거 형성되었지만, 여행지로서의 면모를 전혀 잃지 않았다. 가장 유명한 명소인 한라산과 성산일출봉을 비롯해 서귀포 용머리관광지는 제주도 여행의 필수코스다. 특히 연인들의 가슴 설레는 제주도 여행을 고려한다면 용머리관광지를가 손꼽힌다. 한편, 연간 약1,500만명의 관광객이 유입되는 용머리관광지 일대에는 234억여원의 사업비가 투입, 오는 2020년 12월31일까지 개발사업이 예정되어 있다. 이는 용머리관광지를 찾는 여행객들의 편의를 위한 것으로 보인다. 더불어 제주도 유명 관광지 앞에 단일 규모로는 최대 면적을 보유한 ‘플레이사계’가 눈에 띈다. 대규모 광장형 테마상가인 ‘플레이사계’는 용머리관광지를 찾는 여행객들의 편의를 제공할 뿐만 아니라 용머리관광지의 또 다른 핫플레이스가 될 것으로 예상된다. 1~2층, 43개 호실로 구성된 ‘플레이사계’는 용머리관광지 자연경관을 훼손하지 않기 위해 2층까지만 설계되었으며, 각 호실에는 카페, 음식점, 쇼핑 등이 들어설 예정이다. 지리적 여건이 매우 좋은 ‘플레이사계’는 용머리관광지 공영주차장 바로 앞에 위치해 있다. 제주도 용머리관광지 인근 광장형 테마상가 플레이사계 분양관계자는 “제주도로 이주하는 인구가 늘고 여행객들 또한 꾸준하기 때문에 최근 부동산 투자자들의 눈길을 끌고 있다. 제주도 투자 목적을 갖고 있다면 제주도 최대 명소 중 하나인 용머리관광지의 개발사업에 초점을 둘 필요가 있고 이와 더불어 플레이사계는 용머리관광지 일원의 또 하나의 핫플레이스가 될 것이기에 상가분양 및 투자에 관심이 있다면 언제든 문의하면 된다”고 설명했다. 저작권자 © 아이티비즈 무단전재 및 재배포 금지 김종영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1이통3사, 아이폰 14 시리즈 사전예약 시작…마케팅 경쟁 돌입 2매스아시아, 中 홍지그룹과 E-모빌리티 사업 협력 3한국레노버, 씽크북 16p 3세대 출시 4팀뷰어, 현대자동차와 스마트팩토리 디지털 전환 맞손 5LG전자, 97형 올레드 TV 앞세워 북미 프리미엄 시장 공략 가속화 6티피링크, 와이파이 6E 공유기 ‘데코 XE75∙XE75 프로’ 출시 7사피온, NHN 데이터센터에 AI반도체 클라우드 인프라 구축 8KT "IPTV 넘어 새로운 홈 미디어 시대 열겠다"…'지니 TV' 출시 9LG전자, 식물생활가전 ‘LG 틔운 미니’ 파스텔톤 신제품 출시 10델테크놀로지스, 레드햇과 멀티 클라우드·데브옵스 분야 협력 강화 최신기사 네이버웹툰, 美 ‘뉴욕 코믹콘 2022’서 글로벌 플랫폼 위상 강화 KT, 듀얼 번호 가입 고객 23만 명 넘었다 '보안 위협에 선제적 대응'…지니언스, ‘버그 바운티’ 우수 신고자에 포상금 지급 라이브커넥트, 2022년 매출 세 자릿수 성장세 파수, 엔터프라이즈 문서 플랫폼 ‘랩소디’ 업데이트 버전 선보여 '키즈 디지털 금융습관 키운다'…하나은행-LG유플러스, 전략적 업무협력 과기정통부, '2022 코리아 메타버스 어워드' 수상작 9건 선정 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (우)02825 서울특별시 성북구 아리랑로5길 85, 101동 1901호 대표전화 : 02-919-8363 청소년보호책임자 : 김건우 명칭 : 아이티비즈랩 제호 : 아이티비즈 등록번호 : 서울 아02297 등록일 : 2012-10-18 발행일 : 2012-10-18 발행인 : 박미숙 편집인 : 박미숙 아이티비즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 아이티비즈. All rights reserved. mail to webmaster@it-b.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 미진한 관광개발사업장 관리 나선다 &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 미진한 관광개발사업장 관리 나선다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 제주도, 미진한 관광개발사업장 관리 나선다 기자명 문서현 기자 입력 2019.04.04 14:09 수정 2019.04.04 14:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 사업추진 미진한 24개소 대표자 대상 정책설명 및 건의사항 청취 제주도가 관광개발사업장에 대한 관리를 통해 실질적인 투자와 고용창출이 이어질 수 있도록 하기 위해 그간 중단됐거나 사업추진이 미진한 개발사업장 대표들을 만나 의견을 청취하는 자리가 마련된다.제주도는 오는 5일 오전 10시 도 청정마루에서 관광개발사업장 대표자와의 간담회를 개최한다고 4일 밝혔다.이날 간담회에는 관광지 관광단지 등 16개소 대표자와 유원지 8개소 대표자 등 50여명이 참석하며. 도의 관광개발정책 방향과 제도개선 사항에 대한 설명과 관광개발업자들이 사업추진 과정에서의 애로 및 건의사항을 청취할 예정이다.양기철 관광국장은 “관광개발사업장에 대한 엄격한 관리를 통해 실질적인 투자와 고용창출로 이어질 수 있도록 할 계획”이라며, “관광개발사업자들의 건의에 대해서는 제도개선에 적극 반영해 나갈 예정”이라고 밝혔다.간담회에 참석하는 관광지 및 관광단지 16곳은 봉개휴양림 관광지, 토산 관광지, 수망 관광지, 묘산봉 관광지, 에코랜드, 폴로승마 리조트, 한라힐링파크, 핀크스 비오토피아, 백통신원 제주리조트, 제주여성 테마파크, 제주동물 테마파크, 엠버 리조트, 록인제주 복합관광단지, 열해당 리조트, 애월 국제문화 복합단지, 프로젝트 ECO 등이다.유원지 8곳은 중문관광단지, 남원 1차 관광지, 롯데리조트, 우리들메디컬, 성산포 해양관광단지, 신화역사공원, 삼매봉, 헬스케어타운 등이다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 中 가성비 좋은 곳으로 알려져 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도관광협회 호텔업 등급결정제도 설명회 개최 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 호텔업 등급결정제도 설명회 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광협회 호텔업 등급결정제도 설명회 개최 기자명 강지환 기자 입력 2019.04.07 11:57 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도내 호텔업계의 서비스 수용태세 강화 기반조성 제주특별자치도관광협회(회장 김영진)는 도내 호텔업계의 등급결정 신청을 독려하고 원활한 신청을 지원하기 위해 오는 9일 오후 3시 제주종합비즈니스센터 3층 대회의실에서 '호텔업 등급결정제도 설명회'를 개최한다고 7일 밝혔다.이날 설명회는 등급결정제도와 관련한 전반적인 소개가 진행된다. 더불어 구 제도(무궁화등급)에서 신 제도(별등급제도)로 변경됨에 따른 업계의 평가 준비상의 애로사항을 해결하기 위해 등급결정 절차 및 구비서류, 평가기준 등에 대한 상세한 설명이 이어진다.설명회와 관련한 자세한 사항은 호텔등급결정 담당부서(064-741-8754)에서 확인할 수 있다.한편 지난 2014년 9월부터 관광호텔업을 대상으로 의무화된 호텔등급결정제도는 관광숙박시설에 대한 공정한 등급심사를 통해 관광호텔업계의 서비스 표준화와 운영의 선진화를 유도, 국내·외 관광객에게 국제기준에 부합하는 정보(등급) 제공을 통해 관광객 만족도 향상에 기여하기 위해 추진되고 있는 제도를 말한다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·도관광협회, 봄맞이 찾아가는 관광안내소 운영 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·도관광협회, 봄맞이 찾아가는 관광안내소 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·도관광협회, 봄맞이 찾아가는 관광안내소 운영 기자명 강지환 기자 입력 2019.04.06 13:50 수정 2019.04.07 11:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 봄을 맞아 제주를 방문하는 국내·외 관광객을 대상으로 '제주의 아름다운 봄과 함께 찾아가는 관광안내소'를 집중 운영하고 있다고 밝혔다.찾아가는 관광안내소는 제주의 대표적인 주요 축제 현장, 관광명소 등을 방문해 친절한 관광안내 및 편의 서비스를 제공한다. 이어 고사리 꺾기 등과 같은 계절별 융복합 지역관광 체험상품을 적극 홍보한다.이와 함께 사회관계망서비스(SNS)를 활용한 친구 맺기, 룰렛 게임 이벤트 등 관광객 참여형 프로그램을 실시, 경품을 제공하는 등 관광객들에게 또 한 번의 추억과 감동을 선사한다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광약자 접근성 안내센터, 2019년 '여행 작가 교실'참가자 모집 &lt; 문화뉴스 &lt; Culture &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 Culture 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 본문영역 이전 기사보기 다음 기사보기 제주도 관광약자 접근성 안내센터, 2019년 '여행 작가 교실'참가자 모집 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 Culture 문화뉴스 제주도 관광약자 접근성 안내센터, 2019년 '여행 작가 교실'참가자 모집 기자명 우종희 기자 입력 2019.04.08 17:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도 관광약자 접근성 안내센터(센터장 고은호)는 8일 '2019년도 여행작가 교실 참가자'를 모집한다고 밝혔다.올해로 6번째 실시하고 있는 여행작가 교실은 콘텐츠 기획 및 이해 등의 교육이 실시되며 관광약자 당사자가 여행작가로서 직접적으로 경험하고 느낄 수 있도록 현장 활동의 기회도 제공하고 소정의 활동비도 지급할 방침이다.현장 활동은 제주도 관광지를 체험하고 소개함으로써 접근 가능한 관광 인식이 개선될 수 있는 발판을 마련할 수 있을 것으로 보인다.장애인, 노약자, 임산부등 제주에 거주하는 관광약자 대상으로 참가자를 모집하고 있으며 센터에 문의 후 이메일로 접수하면 된다.합격자 발표는 지원 사유, 활동 경력 등을 고려해 이달 22일 개별 통보한다.기타 자세한 사항은 제주도관광약자접근성안내센터 페이스북(http://www.facebook.com/JTICA15664669)에서 확인할 수 있다. 문의=1566-4669.   우종희 기자 우종희 기자 haru0015@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·도관광협회, 내국인 관광객 유치 총력 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·도관광협회, 내국인 관광객 유치 총력 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·도관광협회, 내국인 관광객 유치 총력 기자명 강지환 기자 입력 2019.04.04 10:25 수정 2019.04.04 17:56 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 2019 내나라여행박람회 참가제주 야간 관광 콘텐츠 홍보제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 4일부터 오는 7일까지 4일간 서울 코엑스에서 개최되는 2019 내나라여행박람회에 참가해 제주관광 홍보관을 운영하고 있다고 4일 밝혔다.2019 내나라여행박람회는 '내나라 인생야행'이라는 주제로 각 지역의 야간 테마 관광 콘텐츠를 홍보할 수 있는 행사다.제주라프, 제주러브랜드, 렛츠런파크 제주 등 제주 업체들이 직접 참여했다.제주 업체는 이 기간 제주관광 홍보관에서 제주의 야간 테마를 배경으로 한 포토존을 구성해 제주에서 인생샷을 찍고 사회관계망서비스(SNS)에 올리는 이벤트와 제주 감물 염색 체험 등 다양한 관람객 참여형 이벤트를 진행한다.또 제주여행 종합쇼핑몰 및 제주시티투어를 홍보한다.한편 제주도와 도관광협회는 앞으로 'K-Festival 2019' '2019 서울국제관광산업박람회 등 대형 박람회 및 이벤트'에 참가해 내국인 관광객 유치 확대를 위한 지속적인 홍보마케팅을 펼칠 예정이다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[제주도 가볼만한 곳] 체험관광지, 제주도예촌부터 조랑말체험공원까지…제주도 어디까지 가봤니? &lt; 사회 &lt; 기사본문 - 내외경제TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 기사제보 2022-10-11 12:18 (화) facebook naver post 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [제주도 가볼만한 곳] 체험관광지, 제주도예촌부터 조랑말체험공원까지…제주도 어디까지 가봤니? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 [제주도 가볼만한 곳] 체험관광지, 제주도예촌부터 조랑말체험공원까지…제주도 어디까지 가봤니? 기자명 박정남 기자 입력 2019.04.12 14:06 수정 2020.03.12 08:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 오늘 저녁 제주 지역의 평균 기온은 12도일 것으로 보이며, 해가 진 후 바람은 2.4 m/s로 고요한 바람 예상 12일 제주도의 아침과 저녁은 바람와 기온의 영향으로 체감 기온이 크게 내려가 추운 날씨일 것으로 예상된다. 제주도 지역일대 아침 최저 기온은 10도 , 낮 최고기온은 18도 까지 올라갈 것으로 예상된다. 제주도에는 자연 관광지 뿐만 아니라 다양한 체험관광지 또한 준비돼 있다. 한국관광공사가 소개하는 제주도 가볼만한 체험관광지를 알아보자.     제주도예촌 ▲(사진출처=ⓒ한국관광공사) 제주도예촌은 제주도 무형문화재 제14호 허벅장 '신창현' 선생외 전수자 및 제주전통도공, 관련 기능인들이 전통도예의 맥을 잇고 있다. 세계에서 유일하게 돌로 축조된 제주전통가마인 석요는 1960년에 들어서면서 맥이 끊어졌다. 그러다 20년간의 조사와 연구를 토대로 2000년에 복원에 성공한 노랑굴이 공개되면서 유약을 칠하지 않고 불의 힘으로 얻어지는 천연도기가 생산되고 있다.도예촌에는 현재 '노랑굴', '검은굴' 외에 기왓굴, 축조 중인 굴을 합쳐서 6기를 보유하고 있다. 매년 최소한 1회 이상 학술발표회 및 세미나를 통해서 제주전통도예를 널리 알리고 함께 공유하며 도자기체험행사도 열린다.   조랑말체험공원 ▲(사진출처=ⓒ한국관광공사) 제주의 말 문화를 쉽고 재밌게 이해하고 체험할 수 있는 조랑말체험공원은 조선시대 최고의 말을 사육했던 갑마장이 있었던 가시리 마을 그 자리에 600년 목축문화의 역사를 고스란히 간직하고 있다. 농림부가 지원하는 '신문화공간 조성사업'의 일환으로 조성된 조랑말 박물관에 마을회의 노력으로 따라비승마장, 마음(馬音)카페, 게르 게스트하우스, 캠핑장, 아트숍, 체험장 등이 어우러진 복합 문화공간으로 확대 조성되었다. 마을에서 설립한 국내 최초의 전문 박물관이자, 마을의 역사와 문화를 주제로 한 문화공간으로 새로운 형식의 커뮤니티 비즈니스 모델로서도 큰 의미가 있다.         번개과학체험관 ▲(사진출처=ⓒ한국관광공사) 2015년 3월 개관한 번개과학체험관은 세계최초로 번개를 테마로 하는 상설 체험 과학관이다. 제주도 서귀포시 토평동 인근 83,000㎡ 규모에 우리나라 대표 화산섬인 한라산의 웅장함을 가까이에서 느낄 수 있고, 아름답기로 유명한 서귀포 앞바다가 한 눈에 펼쳐지는 광활한 풍광을 자랑한다. 첨단과학시대를 이끌어갈 우리 아이들에게 창의력과 탐구력을 길러주는 체험관으로 "번개터널", "번개뮤직쇼", "반데그라프" 등 신비로운 자연현상과 과학기술을 실습을 통해 느낄 수 있도록 준비되어 있다. 박정남 기자 nbtvrepoteam@gmail.com 다른기사 보기 저작권자 © 내외경제TV 무단전재 및 재배포 금지 당신만 안 본 뉴스 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" '나는 솔로' 9기 옥순 인스타, 수영복 패션에 정숙 "언니, 너무 섹시" '나는 솔로' 9기 정숙 인스타 "이렇게 단아하니 협찬 모델" '나는 솔로' 9기 영자 인스타, "선 넘네" 악플에 경고장? '나는 솔로' 옥순 완전체 결성되나 "7, 10기 옥순님들 들어와" '나는 솔로' 10기 영숙 인스타, 꿀피부 자랑…골프 협찬 모델 예고? '나는 솔로' 10기 현숙 인스타 "포00에서 뭐 하나" 협찬 모델 예고 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 최신뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 포토뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 인기뉴스 1 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 2 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 3 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 4 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 5 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 6 최근 3년간 불량 요소수 최소 300만 리터 이상 유통…일 평균사용량의 5배 7 식칼·망치로 위협당하는 국민연금 직원들...고독사·자살 현장 목격도 8 [UP! START] 에스테이트클라우드, 우대빵으로 부동산 중개시장 변혁 예고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 rss 매체정보 서울특별시 금천구 가산디지털1로 168, C동 12층 1209-1호(가산동, 우림라이온스밸리) 대표전화 : 070-4252-5497 청소년보호책임자 : 정동진 법인명 : (주)내외경제미디어 제호 : 내외경제TV 등록번호 : 서울 아 02225 등록일 : 2012-08-06 발행일 : 2012-08-06 발행·편집인 : 정동진 내외경제TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 내외경제TV. All rights reserved. mail to msn06s@nbntv.co.kr 위로 전체메뉴 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 베트남 제주관광 도약시장 삼는다 &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 베트남 제주관광 도약시장 삼는다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 제주도, 베트남 제주관광 도약시장 삼는다 기자명 문서현 기자 입력 2019.04.02 14:37 수정 2019.04.02 14:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ‘VITM Hanoi 2019’서 제주관광 홍보 … 베트남 관광청과도 협력 해외관광 잠재 수요가 높은 베트남 관광시장의 다변화를 위해 소비자 밀착형 제주관광 홍보 마케팅을 진행했다.제주도는 지난 달 27일부터 30일까지 베트남 하노이 I.C.E.(Hanoi International Center for Exhibition)에서 개최된 ‘VITM Hanoi 2019’에 참가해 베트남 현지 잠재소비자를 대상으로 제주관광 홍보 활동을 전개했다.도는 VITM Hanoi 2019에서 제주돌문화공원 등 제주의 대표 관광지와 제주해녀문화 등 차별화된 관광자원을 소개했으며, 현지 소비자들로부터 한라산과 오름 등 자연 관광지와 말레이시아 경유 노선에 대한 높은 관심을 확인했다.특히, 베트남 관광청을 방문해 공동홍보활동을 협의하고, 올 9월 예정된 제1회 제주관광산업전 및 제5회 마이스산업대전에 베트남 관광청과 현지 여행업계의 참가를 요청했다.는 지난 2016년 하노이관광홍보사무소를 개소한 이후, 베트남을 제주관광의 도약시장으로 선정해 현지 밀착형 제주관광 홍보활동을 적극적으로 전개하고 있다.한편 지난해 제주를 방문한 베트남 관광객수는 3만223명으로 전년보다 24.4% 증가했다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>속초시장, 재난급 강원 산불 피해…방심한 탓? "그 와중에 제주도 관광해" 눈길 &lt; 연예 &lt; Culture &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 Culture 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 본문영역 이전 기사보기 다음 기사보기 속초시장, 재난급 강원 산불 피해…방심한 탓? "그 와중에 제주도 관광해" 눈길 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 Culture 연예 속초시장, 재난급 강원 산불 피해…방심한 탓? "그 와중에 제주도 관광해" 눈길 기자명 심민호 기자 입력 2019.04.06 01:14 수정 2019.04.06 03:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 속초시장 강원 산불 피해 속초시장 강원 산불 피해 (사진: SBS) '강원 산불 피해' 속 속초시장 김철수를 향한 세간의 비난이 쏟아지고 있다.4일 강원도를 중심으로 고성, 속초, 강릉 등에서 '강원 산불'이 번졌고, 특히 관광지인 속초는 큰 피해를 입었다.하지만 이날 속초시장 김철수는 속초가 아닌 제주도에서 여행 및 관광을 즐겼던 것으로 드러나 도마 위에 올랐다.속초시장 김철수는 강원 산불 피해 소식에도 자리를 지키지 못한 것에 대해 "산불 소식을 듣고 4일 저녁 비행기를 타려고 했으나, 표가 없어서 5일 첫 비행기를 탈 수밖에 없었다"라고 해명했다.하지만 김철수가 속초시장 자리로 복귀한 것은 5일 오전 10시가 훌쩍 지난 시간, 이에 대해 일각에서는 "첫 비행기도 아니고, 할 일 다하고 천천히 놀다 온 것 같다"라며 의심을 떨치지 못하고 있다. 김철수 속초시장은 "부시장에게 강원 산불 관리를 해달라고 미리 지시했다"라고 덧붙인 바 있다.이 또한 "강원 산불의 피해 정도를 모르고 본인 여행을 우선시한 게 아니냐", "금방 꺼질 줄 알고 방심했는데 불길이 커져서 당황했을 듯" 등 그를 비난하는 목소리만 높아지고 있다. 한편 속초시장이 자리를 지키지 않은 4일 밤, 재난 영화급 산불이 속초 시내를 뒤덮었다. 심민호 기자 enter@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>상권, 관광지, 교육 3박자 골고루 갖춘 제주도 전원주택 팔라티노 타운하우스 2차 분양 - 파이낸스투데이 × 뉴스 일반 전체 비지니스 일반 economy 정치 문화 경제 사회 글로벌 신간서적&amp;작가 연예 스포츠 전시회&amp;박람회 기업 전체 종합뉴스 기업&amp;CEO 아이템뉴스 전시회&amp;박람회 스타트업 영상 리조트&amp;호텔 유명인 opinion 전체 정명재 박한명 인세영 이민세 송운학 이주상 최범 임명수 이준규 황상열 전정희 김영문 신근영 김용철 김형찬 김진덕 강진교 김태건 신성대 스타트업 전체 성신여대 창업지원단 덕성여대 스마트창작터 제주대 기술지주 연세대 창업지원단 유망기업 은행&amp;증권사 전체 은행일반 증권사 일반 City&amp;Global 전체 부산 서울 서부 전남 목포 전남 동부 Asia Big News 전북 대구 GLOBAL 제주 광주 Global 서울 중부 인천 경기 강원 충청 경북 중국(中國) 서울 남부 블록체인 전체 국내뉴스 글로벌이슈 핫이슈 주요행사 ICO 뉴스 전기자동차 칼럼 전체 전문가칼럼 시사칼럼 자유기고 리서치 황교안 이인제 도태우 민영삼 권성동 핫이슈 전체 부정선거 코로나19 미국정치 한강사건 기후변화 차이나게이트 대통령 선거 백신 부작용 사례 Art&amp;전시회 핫! 유튜브 전체 스타트업 CEO 영상 멘토링 스타트업 영상뉴스 벤처&amp;중소기업 기타 보도자료 금융라이프 Fn투데이 TV Business Today 소상공인 전체 푸드&amp;드링크 교육 보험 금융 여행 복지 의료&amp;법률 전체 병원 바이오 의료기기 Hospital 이코노미 의사&amp;간호사 법률 일반 변호사&amp;로펌 리서치 CEO아카데미 전체 평화&amp;피플 지식자산&amp;사회적경제 웰니스&amp;지속가능 사회공헌활동 新지식자산 웰니스 최고위과정 Fn브랜드 대상 증권사 전체 KB증권 NH투자증권 교보증권 대신증권 메리츠증권 삼성증권 신한금융투자 SK증권 한국투자증권 키움증권 하나금융투자 자산운용사 전체 미래에셋자산운용 메리츠자산운용 이지스자산운용 삼성자산운용 현대자산운용 KB자산운용 한화자산운용 한국투자신탁운용 에셋플러스자산운용 키운투자자산운용 대신자산운용 게시판 전체 정치게시판 월간Fn 전체 2020년7월 2020년8월 뷰티&amp;헬쓰 미디어공정위원회 전체 신문방송 공정위원회 뉴미디어 공정위원회 포털사이트 공정위원회 여론조사 공정위원회 지방선거 외신특종 골프 엔터테인 갤러리 전체 스타 섹시걸 풍경 무비 스포츠 공연 결혼 크리에이팅 전체 이벼리 작가 변수정 작가 윤애솔 작가 이본느 작가 조다슬 작가 기타 성신여대 국문과 챔피언스리그 챌리지리그 UPDATED. 2022-10-11 12:50 (화) 민족정론지 Fn투데이가 미디어 군자금을 모금합니다. (기간 : 5월30일 자정까지) 대한민국의 국익을 위한 목소리를 냈다는 이유로 Fn투데이는 중국공산당과 법적으로 싸우고 있습니다.부정선거와 코로나19의 음모를 파헤치면서도 많은 공격을 받고 네이버와도 소송중입니다.Fn투데이가 위기를 기회로 바꿔 민족정론지, 세계적인 언론이 될 수 있게 도와주세요. 후원바로가기 전체 뉴스일반 비지니스 일반 정치 문화 경제 사회 글로벌 신간서적&amp;작가 연예 스포츠 尹 대통령 "북한 핵 꾸준히 개발 고도화...전 계계 상대로 핵 위협" 尹 대통령 "북한 핵 꾸준히 개발 고도화...전 계계 상대로 핵 위협" [정성남 기자]윤석열 대통령은 11일 "북한이 지금 핵을 꾸준히 개발하고 고도화시켜 나가면... 일본 무비자 여행 개시, PCR검사는 여전히 남아있어 더불어민주당은 더이상 北인권재단 설립을 방해하지 말라 “다윈KS, Sahara LLC와 업무제휴” 주호영 "北 도발, 민주당 정권이 대응 제대로 안 한 결과" 기업 뉴스 종합 기업&amp;CEO 아이템뉴스 전시회&amp;박람회 스타트업 영상 리조트&amp;호텔 총과 카메라의 대결 총과 카메라의 대결 ‘We have power of truth, Chinese communists have p... [빅데이터투데이] 증권사 2022년 7월 브랜드평판 분석... 1위 미래에셋증권 [빅데이터투데이] 독립 보험대리점 2022년 7월 브랜드평판 분석결과... 1위 인카금융서비스 [빅데이터투데이] 저축은행 브랜드평판 2022년 7월 빅데이터 분석결과.... 1위 SBI저축은행 [빅데이터투데이] 비건화장품 2022년 7월 브랜드평판 분석... 1위 러쉬 핫이슈 기후변화 부정선거 대통령 선거 백신 부작용 사례 코로나19 미국정치 한강사건 차이나게이트 칼럼 전문가칼럼 시사칼럼 자유기고 리서치 황교안 이인제 [유나콘Q의 칼럼] MZ 세대 대학생 N잡러, ‘쇼호스트 무니’의 퍼스널 브랜딩 노하우 [유나콘Q의 칼럼] MZ 세대 대학생 N잡러, ‘쇼호스트 무니’의 퍼스널 브랜딩 노하우 눈부신 ICT기술발전으로 인한 4차산업혁명, 코로나19 대유행, 위드코로나의 지속 등 급격... [도태우의 법치와자유] (18) [연수을 선거무효소송 판결문 비판 15] [권성동의 수첩] (10) 탈핵운동가가 차지한 자리는 원래 원자력 전문가의 몫입니다 [이인제의 국민메시지] (139) 리얼리티 쇼는 막을 내렸다. [칼럼] 지금 대한민국은 체제 전쟁 중 Fn TV 핫! 유튜브 엔터테인 외신특종 골프 후원하기 로그인 회원가입 모바일웹 RSS 기사검색 검색 리서치 [여론]3명 중 1명 35.8% 현재 공무원 시험을 준비하고 있거나 준비할 의사가 있다. [안기한 기자]2021년 올해 공무원 시험은 더욱 치열해질 전망이다.구인구직 매칭플랫폼 사... 국회, "회의 불출석 의원...“국민 31.2%, 징계 강화 주문" 사전투표 참여, 50대와 60대가 가장 많아 日, 언론 "아베 반성해야...지지율 급락" "문재인 지지율 여론조사 믿을 수 없다" 목소리 커져 신간서적 세계의 소, 알기 쉽게 한 권에 담았다 세계의 소, 알기 쉽게 한 권에 담았다 [신간 서적] “영재, 똑똑한 아이가 위험하다”…행복하고 창조성 넘치는 영재를 위해 [신간 서적] “영재, 똑똑한 아이가 위험하다”…행복하고 창조성 넘치는 영재를 위해 [신간 서적] “천만 원에서 20억 부자가 된 채 부장”… 직장인을 위한 월급쟁이 투자서 [신간 서적] “천만 원에서 20억 부자가 된 채 부장”… 직장인을 위한 월급쟁이 투자서 [신간서적] ‘해수면의 비밀’...“18세기 서양지도에 북미 베링해는 육지” [신간서적] ‘해수면의 비밀’...“18세기 서양지도에 북미 베링해는 육지” [화제의 책] 임정민작가 ‘어른의 대화법 ... "화술 분야 부동의 정상 9쇄 찍어" [화제의 책] 임정민작가 ‘어른의 대화법 ... "화술 분야 부동의 정상 9쇄 찍어" [신간 서적] “기적의 스마트스토어 노하우”…스마트스토어를 통한 성공의 첫걸음 [신간 서적] “기적의 스마트스토어 노하우”…스마트스토어를 통한 성공의 첫걸음 칼럼 [유나콘Q의 칼럼] MZ 세대 대학생 N잡러, ‘쇼호스트 무니’의 퍼스널 브랜딩 노하우 [유나콘Q의 칼럼] MZ 세대 대학생 N잡러, ‘쇼호스트 무니’의 퍼스널 브랜딩 노하우 2022.10.07 [도태우의 법치와자유] (18) [연수을 선거무효소송 판결문 비판 15] [도태우의 법치와자유] (18) [연수을 선거무효소송 판결문 비판 15] 2022.10.07 [권성동의 수첩] (10) 탈핵운동가가 차지한 자리는 원래 원자력 전문가의 몫입니다 [권성동의 수첩] (10) 탈핵운동가가 차지한 자리는 원래 원자력 전문가의 몫입니다 2022.10.07 [이인제의 국민메시지] (139) 리얼리티 쇼는 막을 내렸다. [이인제의 국민메시지] (139) 리얼리티 쇼는 막을 내렸다. 2022.10.07 D+154 이전 다음 상권, 관광지, 교육 3박자 골고루 갖춘 제주도 전원주택 팔라티노 타운하우스 2차 분양 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 일반 상권, 관광지, 교육 3박자 골고루 갖춘 제주도 전원주택 팔라티노 타운하우스 2차 분양 김건희 승인 2019.04.05 10:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 상권, 관광지, 교육의 3박자를 골고루 갖춘 제주도 전원주택 제주 팔라티노 타운하우스가 2차 분양 소식을 밝혔다. 팔라티노 타운하우스 2차 분양지 애월은 직선 15km에 위치한 제주공항을 시작으로 제주시청, 제주도청, 애월읍사무소, 납읍리사무소 등의 생활 주요 업무 상권들이 주변에 위치했다. 또한 제주올레길, 금산공원, 곽지해수욕장, 과오름, 한담해수욕장, 협재해수욕장 등 자연 관광지가 근교에 위치했기 때문에 제주 자연의 경관을 한 곳에서 누릴 수 있다. 이와 함께 주택 주변에는 라온프라이빗CC, 에버리스CC, 렛츠런파크, 제주곶자왈도립공원, 제주신화월드, 제주중문관광단지 등 각종 골프장과 관광지가 있어 다양한 놀거리도 함께 즐길 수 있다. 아울러 자녀와 함께 제주도에 거주하는 학부모들의 경우 주변에 위치한 곽금초, 더럭초, 납읍초, 애월중/고등학교로 진학할 수 있기 때문에 교육 환경에 대한 걱정도 덜 수 있다. 한편 제주 팔라티노 타운하우스는 1차 분양으로 팔라티노 대흘을 선보인 바 있다. 팔라티노 대흘은 약 47평의 실 사용 면적, 17평 구조의 1, 2층 테라스로 구성됐으며, 총 분양 세대수는 19세대로 124평에서 199평까지 다양한 면적을 제공하고 있다. 또한 팔라티노 대흘은 제주 공항, 제2 신공항을 중심부로 제주 3대 명문학교로 알려진 ‘대흘초등학교’를 주변에 두고 있다. 또한 한라산국립공원, 비자림, 함덕해수욕장, 김녕해수욕장 등의 관광 명소, 제주돌문화공원, 한라생태숲 등 체험문화시설, 제피로스CC, 에코랜드CC, 세인트CC, 크라운CC 등의 골프장 등도 함께 누릴 수 있다. 제주도 타운하우스 팔라티노 관계자는 “제주도 전원주택 팔라티노 대흘, 애월은 천연 자재, 친환경 페인트 등의 친환경 재료 및 이건 창호와 이건강마루시공, 화장실 아메리칸 스탠다드 도기 시공, 거실 아트월 천연 무늬목 시공 등의 고급 자재를 사용하고 있다”며 “분양 시 대형 아일랜드 식탁, 대형 펜트리, 거실 6m 천정, 세탁기 옆 애벌 빨래 싱크대, 빌트인 냉장고, 김치냉장고, 스타일러, 넓은 드레스룸 등도 함께 제공하고 있으니 많은 관심 부탁드린다”고 전했다. 한편 1차 분양을 진행한 제주 팔라티노 대흘은 현재 준공 완료 후 입주를 시작한 상태로 분양 마감을 임박해 두고 있다. 제주 팔라티노 타운하우스 대흘, 애월과 관련된 보다 자세한 정보 및 문의사항은 팔라티노 홈페이지 및 전화문의로 확인할 수 있다. 메인화면 후원하기 무통장입금: 국민은행 917701-01-120396 (주)메이벅스 정기후원 (만원/삼만원/오만원) 일시후원 또는 자유금액 후원 ARS 후원하기 1877-0583 후원금은 CNN, 뉴욕타임즈, AP통신보다 공정하고 영향력있는 미디어가 되는데 소중히 쓰겠습니다. 저작권자 © 파이낸스투데이 무단전재 및 재배포 금지 Fn투데이는 여러분의 후원금을 귀하게 쓰겠습니다. 김건희 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 중요기사 일본 무비자 여행 개시, PCR검사는 여전히 남아있어 민경욱 대표, '이재명 찍은 비정상 투표지' 공개 언론계 자성의 목소리.."좌파 성향의 언론노조, 뼈를 깎아내는 반성 필요" 法 성락교회 분쟁 핵심 ‘성추문’ 의혹 사실 아닌 것으로 판단 MBC노조, "MBC가 왜 자막조작방송인가?" 자세히 설명 인기뉴스 1[성제준 TV] 김정숙 사상초유 사태 터졌다 2[단독]"자가조립하는 코로나 백신 성분에 관한 보고서" 3추락하는 MBC는 날개가 없다, "외교참사 외신보도 알고보니 죄다 검은머리 외국인" 4전국언론노동조합을 분석한다 (1) 5중국에서 행방불명 한국인 5년간 261명 "대책세워라" 6이준석 '당원권 정지 1년' 추가 징계...탈당하나? 7[미디어공정] 경향신문의 선동적인 기사제목 "도가 지나쳐" 8국군의날, 중국 장갑차 넣고 '멸공'없앤 책임자는? 9강원랜드 "한 해 1,400억대 적자 카지노로 겨우 메꾸고 있어" 10코리아씨이오서밋, '대한민국의 탄소중립 녹색성장 정책방향' 강연회 개최 최신기사 尹 대통령 "북한 핵 꾸준히 개발 고도화...전 계계 상대로 핵 위협" 尹 대통령 "북한 핵 꾸준히 개발 고도화...전 계계 상대로 핵 위협" 일본 무비자 여행 개시, PCR검사는 여전히 남아있어 일본 무비자 여행 개시, PCR검사는 여전히 남아있어 더불어민주당은 더이상 北인권재단 설립을 방해하지 말라 더불어민주당은 더이상 北인권재단 설립을 방해하지 말라 “다윈KS, Sahara LLC와 업무제휴” “다윈KS, Sahara LLC와 업무제휴” 주호영 "北 도발, 민주당 정권이 대응 제대로 안 한 결과" 주호영 "北 도발, 민주당 정권이 대응 제대로 안 한 결과" 尹대통령, 민주평통 수석부의장에 김관용 前지사 임명 尹대통령, 민주평통 수석부의장에 김관용 前지사 임명 민경욱 대표, '이재명 찍은 비정상 투표지' 공개 민경욱 대표, '이재명 찍은 비정상 투표지' 공개 신문사소개 Fn미디어그룹 소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제호 : 파이낸스투데이 서울시 서초구 서초동 사임당로 39 등록번호 : 서울 아 00570 법인명 : (주)메이벅스 사업자등록번호 : 214-88-86677 등록일 : 2008-05-01 발행일 : 2008-05-01 발행(편집)인 : 인세영 청소년보호책임자 : 장인수 본사긴급 연락처 : 02-583-8333 / 010-3797-3464 법률고문: 유병두 변호사 (前 수원지검 안양지청장, 서울중앙지검 , 서울동부지검 부장검사) 최기식 변호사 (前 서울고등검찰청 부장검사, 대구지방검찰청 제1차장검사, 수원지방검찰청 성남지청 차장검사) 파이낸스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 파이낸스투데이. All rights reserved. mail to news1@fntoday.co.kr 위로</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 봄꽃과 함께 갈치조림 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>속초시장, 제주도 관광 하느라 강원 산불 피해 몰라? "금방 꺼질 줄 알고 방심" 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.10.11 (화) 구름많음동두천 11.3℃ 맑음강릉 17.4℃ 맑음서울 12.3℃ 구름조금대전 13.8℃ 맑음대구 14.8℃ 맑음울산 15.5℃ 맑음광주 16.2℃ 맑음부산 16.5℃ 맑음고창 16.3℃ 구름많음제주 18.0℃ 맑음강화 12.1℃ 맑음보은 12.3℃ 구름조금금산 13.3℃ 구름조금강진군 16.6℃ 맑음경주시 15.4℃ 맑음거제 16.4℃ 기상청 제공 로그인 종합뉴스 세무ㆍ회계 정책 내국세 국제조세 관세 지방세 업계 예규·판례 금융 정책 은행 증권 보험 카드ㆍ제2금융 예규ㆍ판례 세ㆍ재테크 경제ㆍ산업 정책 경제일반 기업ㆍ재계 건설ㆍ부동산 식품ㆍ유통 글로벌동향 정치 LIFE 문화 교육 사회보험 인사ㆍ동정 개업ㆍ이전 결혼ㆍ부음 과학 HEALTH &amp; BEAUTY TF로 증권로 서적몰 조세금융TV 세꼬무 알기 쉬운 세금 10분세금 굿바이! 세금폭탄 조금뉴스 파워 인터뷰 세미나 현장취재 김하나 장보원의 이런稅上 연말정산 詩가 있는 아침 검색어를 입력해주세요. 검색하기 종합뉴스 홈 종합뉴스 속초시장, 제주도 관광 하느라 강원 산불 피해 몰라? "금방 꺼질 줄 알고 방심" 김효진 기자 ent@tfnews.co.kr 등록 2019.04.06 01:23:21 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 (조세금융신문=김효진 기자) 속초시장 김철수를 향한 비난이 여전히 쏟아지고 있다. 4일 강원도를 중심으로 고성, 속초, 강릉 등에서 어마어마한 산불이 퍼져 강원 산불 피해가 이만저만이 아니다. 하지만 이날 속초를 지켰어야 할 속초시장 김철수는 여행 및 관광을 위해 찾은 제주도에 머물렀다. 이에 대해 그는 "산불 소식을 듣고 4일 저녁 비행기를 타려고 했으나, 표가 없어서 5일 첫 비행기를 탈 수밖에 없었다"라며 "부시장에게 관리를 해달라고 미리 지시했다"라는 해명의 말을 전했다. 그럼에도 그의 변명에 대해 "첫 비행기도 아니고, 할 일 다하고 천천히 놀다 온 것 같다"라는 의심이 쏟아지는 것은 5일 오전 10시가 훌쩍 넘은 시간에 모습을 드러냈기 때문. 일각에서는 그가 자리를 지키지 않는 사이 재난 영화급 산불이 퍼진 것에 대해  "강원 산불의 피해 정도를 모르고 본인 여행을 우선시한 게 아니냐", "금방 꺼질 줄 알고 방심했는데 불길이 커져서 당황했을 듯"라며 연일 비판의 말을 전하고 있다. [조세금융신문(tfmedia.co.kr), 무단전재 및 재배포 금지] 김효진 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 최신기사 1라이나생명, TMR 6인의 이야기 담아 ‘Hearo’ 캠페인 진행 2[2022 국감] 윤주경 "심평원 인력·예산 부족…보험 수사 걸림돌" 3[2022 국감] BNK금융-한양증권 연결고리 의혹…강민국, 발행채권 급증 지적 4김천세무서, 농촌봉사 및 황옥사과 구매 행사 5대구국세청, 인적용역 2만3천명에 코로나19 소득세 환급 안내 6[수소TF] 수소도 이제 직접 충전...인천공항 수소충전소 현장 르포 7[수소TF] 에너지 자립과 탄소중립 두마리 토끼 다 잡아야 8[인터뷰] 황성필 변리사가 만난 스타트업 4편 (주)파일러 오재호 CEO 9[2022국감] 금융당국에 쏠린 가계부채 책임론…이복현, 아쉬움 인정 10[2022국감] 장애인 상생 외면하는 기재부…우선구매 실적 ‘기재위 꼴찌’ 전문가 코너 더보기 [전문가칼럼] 군자는 하루에 세 번 나 자신을 반성한다 나단(Nathan) 작가 [인터뷰] 황성필 변리사가 만난 스타트업 4편 (주)파일러 오재호 CEO 황성필 변리사 [골프회원권 동향] 기후위기에 내몰린 골프장들 그 해법은? 이현균 애널리스트 [전문가칼럼] 샤머니즘, 하늘과 인간의 화해를 위한 중재자 구기동 신구대 교수 [전문가칼럼] 천국으로 가는 길을 보여주며 상인의 주머니를 턴 교황의 재주 사샤 중세경제사학자 [전문가칼럼] 전세사기대책 보완이 필요하다 권대중 명지대학교 부동산대학원 교수 [전문가칼럼] 인후두염과 후비루로 본 목이물감과 입냄새 혜은당클린한의원 김대복 원장​ [전문가칼럼] 만성 뇌경색 진단은 보험에서 뇌졸중이 아닌가요? 한규홍 손해사정사 [전문가칼럼] 구매확인서 발급 의무화 제도 서판수 관세사 [전문가칼럼] 수용시 이것만은 꼭 기억하자! 이재홍 세무사 예규 · 판례 더보기 [예규·판례] 대법 "영문 투자계약서의 '고의'는 미필적 고의까지 포함" [예규·판례] 행법 "순환근무라며 지점장을 창구로 전보한 인사는 부당" [예규·판례] 대법 "비리로 승진하고 하는 일 그대로면 오른 월급 반납" [예규·판례] 잔금일 앞당겼다가 일시적 3주택 보유…행법 "중과세 부당" [예규·판례] 대법 "근로복지공단, 파산기업 경매서 임금채권 우선 배당 가능" 칼럼 인터뷰 [시론] 부부간 자산의 무상이전으로 인한 세금의 완화방안 (조세금융신문=안경봉 국민대 법대 교수) 부부간 자산의 무상이전으로 인한 세금문제에 대해 살펴보면, 현행 상속세 및 증여세법(상증세법)에서는 원칙적으로 배우자에 대한 증여나 상속에 대해 과세하지 않는다는 규정이 없으므로 생전에 부부 사이에 무상으로 재산을 증여하면 증여세, 부부 일방이 사망함으로써 타방이 재산을 상속하면 상속세가 부과된다. 다만, 배우자간 증여는 10년간 6억원까지 과세되지 않으며, 상속은 30억원까지 공제해 준다. 부부간 자산의 무상이전으로 인한 상속세와 증여세 실효세율 격차 상속세 배우자공제가 증여세 배우자공제에 비해 규모가 크다 보니 부부간 자산의 무상이전으로 인한 증여세의 실효세율이 상속세의 실효세율에 비해 일반적으로 높게 나타난다. 그러나 실증연구(강성훈·오종현, 상속과 증여에 대한 세부담 격차 연구, 2020)에 의하면 배우자 일방이 배우자 타방과 자녀들에게 상속 또는 증여하는 경우, 자녀수가 증가할 수록 상속세와 증여세의 실효세율 격차는 감소하는 것으로 밝혀졌다. 이와 같은 결과가 나타나는 것은 공동상속인의 수가 늘어날수록 배우자 상속분이 감소하게 되고, 이로 인해 상속세 배우자공제액도 작아지기 때문이다. 뿐만 아니라 상속세는 유 [데스크칼럼] 건강보험 국고지원금이 주머니 쌈짓돈인가 [김우일의 세상 돋보기] 대통령의 국정 독대보고, 故김우중 회장 본받아야 [시론] 금리인상이 부른 환율전쟁 [인터뷰] 세무법인 넥스트 조남철 대표세무사 “세상을 바꾸는 세무사가 되겠다” (조세금융신문=이지한 기자) 세무사 개업 10년차인 세무법인 넥스트 조남철 세무사는 법인전환, 가업승계, 상속증여 등 법인과 개인에 대한 전문 세무 컨설팅으로 정평이 나있다. 삼성·서초·역삼 합동세무서 바로 옆에 있는 한라클래식 4층에 위치한 세무법인 넥스트는 본점과 강남지점이 나란히 자리를 잡고 있다. 조남철 대표세무사는 전문 컨설팅 분야를 개척해 온 것은 물론 젊은 후배 세무사들에게도 전문성을 키우기 위한 전략에 대해 노하우를 전승하면서, 또 이를 IT와 연계한 프로그램 개발도 진행하고 있다. “세상을 바꾸는 세무사가 되겠다”는 원대한 비전을 하나씩 실천해 나가고 있다는 조남철 세무사를 만나봤다. Q. 세무법인 넥스트 홈페이지 인사말을 보면 “시시각각 변하는 조세제도에서 기업의 새로운 출구전략과 새로운 전문가 출현이 시대의 소명이라 생각하고 기존과 다른 형태의 세무컨설팅을 위해 출범했다”라고 밝히고 있는데요, 세무법인 넥스트는 어떤 차별점을 갖고 계시나요? 기본적인 법인세, 소득세 신고와 상속세, 증여세, 양도소득세 재산세 신고는 물론 기업에 필요한 부분이라면 공부하고 연구해서 기업에 도움을 줄 수 있어야 한다고 생각합니다. 세무는 물론 법률, 특허, 노 [인터뷰] 이상민 나라살림연구소 수석전문위원, 첫 세제개편안…"반시장주의적 요소 넘쳐난다" [초대석] 수소인프라 구축 선도 기업, 한국가스기술공사 조용돈 사장 [인터뷰] 주영진 연수지역세무사회장, 소통과 화합의 '코로나프리' 지역세무사회 만들어야 인기뉴스 1[2022 국감] 산은 부산이전 파열음 거센데…김주현 “빨리하겠다” 2국세청, MBC세무조사 진행 중…착수 시점은 8월 말 3대통령실 김동조 비서관 과거 ‘조세회피’ 발각…민주당, 즉각 해임 요구 4중부지방세무사회 '추계 회원 세미나'...플랫폼 사업자 대응 방안 등 현안 모색 5자금수혈 임박한 KB부코핀은행…금융노조 “추가 지원 반대” 인사/동정 더보기 [인사] 노사발전재단 팀장-지사장 발령 [인사] 중소벤처기업부 과장급 전보 [인사] 특허청 과장급 승진 [인사] 산업통상자원부 부이사관 승진 [인사] 식품의약품안전처 개방형 직위 임용 회사소개 매체소개 광고문의 사업분야 개인정보취급방침 청소년보호정책 (책임자 : 송기현) 이메일 무단수집거부 기사제보 문의하기 알립니다 회사명 : 주식회사 조세금융신문 사업자 등록번호 : 107-88-12727 주소 : 서울시 강서구 마곡중앙로 161-8(마곡동) 두산더랜드파크 B동 8층 인터넷신문등록번호 : 서울, 아01713 등록일자 : 2011. 07. 25 제호 : 조세금융신문 발행인:김종상 편집인:양학섭 발행일자 : 2014. 04. 20 TEL : 02-783-3636 FAX : 02-3775-4461 Copyright @ All rights reserved. UPDATE: 2022년 10월 11일 11시 52분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도 사업추진 더딘 관광개발사업장 애로사항 듣는다 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 사업추진 더딘 관광개발사업장 애로사항 듣는다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 사업추진 더딘 관광개발사업장 애로사항 듣는다 기자명 이은지 기자 입력 2019.04.04 17:38 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 5일 도청서...관광개발정책 방향 등 설명 제주도는 오는 5일 오전 10시 도에서 관광개발사업장 대표자와 간담회를 개최한다.이날 간담회에는 사업추진이 더딘 도내 개발사업장 24개 대표와 제주도 관계자 등 50여명이 참석한다.도는 관광개발정책 방향과 제도 개선사항을 설명하고 관광개발업자의 애로·건의사항 청취할 예정이다.양기철 제주도 관광국장은 "관광개발사업장에 대한 엄격한 관리를 통해 실질적인 투자와 고용창출로 이어질 수 있도록 하겠다"며 "관광개발사업자들의 애로?건의사항을 정책에 적극 반영할 예정"이라고 밝혔다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 용머리관광지, 단일규모 최대면적 테마상가 ‘플레이사계’ 상가분양 중 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, 기존 관광개발사업 정상화에 집중 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 기존 관광개발사업 정상화에 집중 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 기존 관광개발사업 정상화에 집중 홍수영 기자 승인 2019.04.06 12:57 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도가 신규 대규모 개발사업 유치보다 현재 진행 중인 기존 개발사업의 정상화에 집중한다. 제주도는 지난 5일 제주도청 청정마루에서 간담회를 열고 관광개발사업 가운데 장기간 중단됐거나 사업 추진이 미진한 24곳의 대표자의 의견을 청취했다. 이날 제주도는 앞으로의 관광개발사업 정책 방향에 대해 발표했다. 우선 개발사업 심의를 강화해 투자 적격성, 미래비전 가치실현성 등을 검증하고 제주형 유원지 가이드라인을 엄격히 적용해 유원지 개발사업의 공공성을 강화할 방침이다. 또 투자 및 고용실적이 미진한 사업장을 중점 관리해 나갈 예정이다. 특히 실질적인 투자와 고용창출로 경제파급효과를 극대화하기 위해 투자진흥지구 지정 사업장에 대한 관리가 강화된다. 이에 따라 신규 대규모 개발사업의 유치보다는 승인절차가 진행 중이거나 기존에 승인된 개발사업을 중심으로 정상화를 도모할 방침이다. 승인조건 확대 및 이행여부에 대한 모니터링을 강화해 사업자가 지분을 변동할 시 사전신고를 의무화하고 착공 전 매입하지 않은 사유지를 확보하도록 할 계획이다. 또 기간연장을 불허하고 미개발된 용지를 제척하거나 유보지를 존치하도록 하는 등 사업계획 이행이 미진한 사업장에 패널티를 부여할 예정이다. 아울러 ‘청정’과 ‘공존’의 도정철학을 구체화해 ▲중산간지역 난개발 억제 ▲오름·곶자왈 등에 대한 제도 및 계획적 관리 ▲관광개발사업 통합가이드라인 등 민선 6기 시책 강화를 위한 조례 개정 등을 추진한다. 또 제도개선을 통해 숙박시설 등 수익성 위주의 사업계획 변경을 불허하고 관광휴양시설로 변경은 적극 권장할 방침이다. 이날 전성태 행정부지사는 인사말을 통해 “사업을 하고 싶어도 국내·외 경제 여건이 워낙 어렵기 때문에 힘들다는 점을 잘 알고 있다”며 “행정 재량으로 가능한 부분은 적극 도움을 줄 수 있도록 하겠다”고 말했다. 홍수영 기자  gwin1@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 다크투어리즘 지원사업 실시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 다크투어리즘 지원사업 실시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 다크투어리즘 지원사업 실시 문유미 기자 승인 2019.04.03 13:40 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주역사의 올바른 인식을 위한 다크투어리즘 지원사업이 실시되고 있다. 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 제주4·3과 일제강점기 등 역사유적을 활용한 다크투어리즘 상품 개발 및 마케팅 지원사업을 실시하고 있다고 3일 밝혔다. 이번 지원사업은 지정 유적지를 1개소 이상 방문하는 단체(10인 이상)를 유치한 도내 여행업체를 대상으로 오는 11월 말까지 차량임차료, 공연·이벤트비 등 지원금을 지급한다. 지정 유적지는 4.3평화공원, 항일기념관, 알뜨르비행장 등이다. 신청방법 등 자세한 사항은 제주도관광협회 홈페이지를 참고하거나 전화(741-8794)로 문의하면 된다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>김철수 속초시장, 초비상 화재 현장에 안보여.. ‘제주도 관광 즐겨’ 속초시장 15시간 만에 나타나 &lt; 사회 &lt; 기사본문 - 한스경제(한국스포츠경제) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 ESG 경제 산업 생활 정치 사회 문화 스포츠 한스컷 Updated2022-10-11 10:50 (화) 로그인 로그인 회원가입 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 김철수 속초시장, 초비상 화재 현장에 안보여.. ‘제주도 관광 즐겨’ 속초시장 15시간 만에 나타나 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 김철수 속초시장, 초비상 화재 현장에 안보여.. ‘제주도 관광 즐겨’ 속초시장 15시간 만에 나타나 기자명 고예인 기자 입력 2019.04.06 06:46 댓글 0 바로가기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 닫기 내용요약 김철수 속초시장 ‘강원 산불 피해’ 속 15시간만에 나타나 김철수 속초시장 “아내 환갑, 결혼 35주년 제주도 여행” 속초시장 초비상 걸린 속초시, 15시간 만에 모습 드러나 논란 속초시장 “비행기가 매진돼 첫 비행기로 귀환했다” 말해 김철수 속초시장, 속초화재 피해 속 제주도 관광 즐겨 세간의 비난 쏟아져, '강원 산불 피해' 속 속초시장 김철수를 향한 세간의 비난이 쏟아지고 있다. SBS 방송화면 캡처 [한국스포츠경제=고예인 기자] 김철수 속초시장, 속초 초비상사태때 제주도 여행 즐겨.. 세간의 비난 쏟아져'강원 산불 피해' 속 속초시장 김철수를 향한 세간의 비난이 쏟아지고 있다.5일 오후 방송된 SBS '8뉴스'는 김철수 속초 시장이 화재 현장 15시간 만에 나타났다고 보도했다.이날 김철수 속초 시장은 화재 대응을 총괄해야 했으나, 부재중이었던 것으로 알려졌다. 그는 부인과 제주도 여행 중이었던 것으로 밝혀졌다. 강원도 중 가장 큰 피해를 입었던 속초시는 김철수 시장의 부재로 부시장이 관계장관회의에 참석했다. 김철수 시장은 화재 발생 15시간이 이날 오전 10시 20분에 상황실에 나타났다속초시장 김철수는 강원 산불 피해 소식에도 자리를 지키지 못한 것에 대해 "산불 소식을 듣고 4일 저녁 비행기를 타려고 했으나, 표가 없어서 5일 첫 비행기를 탈 수밖에 없었다"라고 해명했다.하지만 김철수가 속초시장 자리로 복귀한 것은 5일 오전 10시가 훌쩍 지난 시간, 이에 대해 일각에서는 "첫 비행기도 아니고, 할 일 다하고 천천히 놀다 온 것 같다"라며 의심을 떨치지 못하고 있다.김철수 속초시장은 "부시장에게 강원 산불 관리를 해달라고 미리 지시했다"라고 덧붙인 바 있다.이 또한 "강원 산불의 피해 정도를 모르고 본인 여행을 우선시한 게 아니냐", "금방 꺼질 줄 알고 방심했는데 불길이 커져서 당황했을 듯" 등 그를 비난하는 목소리만 높아지고 있다.한편 속초시장이 자리를 지키지 않은 4일 밤, 재난 영화급 산불이 속초 시내를 뒤덮었다.하지만 '8뉴스' 측은 "현재 '산불조심기간'으로 범정부 총력 대응이 이뤄지는 시기라, 바람직하지 못한 처신이다"라고 꼬집었다. 고예인 기자 yi4111@sporbiz.co.kr 관련기사 이정재-임세령 홍콩 데이트 즐겨, 임세령 상위 0.1%의 금수저 배우 이일재 폐암으로 별세, 이일재 생전 영정사진 직접 찍고, 가족여행도 다녀와 오늘날씨 ‘미세먼지 나쁨’ 한식날 강원 산불지역 눈비소식 있어 폴리코사놀 ‘새싹보리’에 듬뿍 들어있어.. ‘폴리코사놀’ 효능 화제 홍지민 다이어트 비법 '핑거루트' 효능 화제 ‘로또853회당첨번호’ 125억원 예상 ‘로또853회당첨번호’ 판매마감시간 및 방송시간은? 노유정 이혼, "전남편 나와 잘 아는 동료배우와 외도" 충격 류현진, 아내 배지현과 코리안 바비큐 파티 달달한 신혼 근황 알려 [속보]영천 산불, 현재 진화 중.. 소방헬기 7대 투입 전국적 대형 산불 빈번해 기안84, 동료에게 과한 막말 논란 일부 네티즌 “초심 잃은 듯...” 키워드 #김철수속초시장 #속초시장 #속초화재 고예인 기자 yi4111@sporbiz.co.kr 다른기사 보기 저작권자 © 한스경제(한국스포츠경제) 무단전재 및 재배포 금지 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 1 보험사, 기후위기 손실평가 등...본격적인 ESG경영 나서야 2 [김동용의 수소경제 톺아보기] 가스공사, '수소 기업'으로 전환 속도…충남도, 수소 전문기업 육성 박차 3 전 연령 대상 사회공헌 통해 ESG경영 나선 JB금융그룹 4 롯데건설, 층간소음 저감 기술 개발 박차 5 포스코-LG엔솔, 이차전지 사업 맞손 6 연준의 긴축 지속...뉴욕 3대 지수 하락 마감 7 [아파트 Hot&amp;Cold] “매물 ‘러시’”...경기 성남시 수정구 아파트값 한 주 만에 ‘곤두박질’ 8 [ESG포커스] ‘환경’지키는 뷰티업계, 공병수거에 리필패키지까지 ‘탈플라스틱’ 9 [부고] 정승희 IBK기업은행 남시화지점장 부친상 10 코레일·현대로템, KTX-이음 승차감 개선 비용 '떠넘기기' 한스경제 PICK 생활 [ESG포커스] ‘환경’지키는 뷰티업계, 공병수거에 리필패키지까지 ‘탈플라스틱’ 스포츠 [긴급진단①] 과정부터 이상했다? 국감으로 번진 KLPGT 중계권 논란 ESG [김동용의 수소경제 톺아보기] 가스공사, '수소 기업'으로 전환 속도…충남도, 수소 전문기업 육성 박차 경제 여풍 거세진 은행권…‘MZ 묻고 쉬코노미’에 집중 산업 ‘美 반도체 규제’에 업계 긴장…정부 “영향 제한적” 주요뉴스 ESG 세계 항공업계, 전기항공기 도입에 속도..."중국은 글쎄" 증권 코스피 장 초반 2%대 하락, 2170대로…코스닥은 3%대 하락 기업·CEO 법인세 3.3%p 인하…GDP 10년간 연평균 1.4% 증가 효과 건설·중공업 [아파트 Hot&amp;Cold] “매물 ‘러시’”...경기 성남시 수정구 아파트값 한 주 만에 ‘곤두박질’ 사회 일반 오늘부터 동절기 코로나19 추가접종 시작…당일 접종 가능 하단영역 하단메뉴 언론사소개 언론윤리 공정보도 독자문의 고충처리인 광고·제휴·콘텐츠문의 이용약관 개인정보취급방침 청소년보호정책 오시는길 매체정보 서울특별시 종로구 율곡로2길 7 서머셋팰리스서울 4층 대표전화 : 02-725-6007 팩스 : 02-725-3939 법인명 : ㈜한국뉴미디어 제호명 : 한스경제(한국스포츠경제) 등록번호 : 서울 아 03577 등록일 : 2015-02-09 발행일 : 2015-02-23 발행·편집인 : 송진현 편집국장·청소년보호책임자 : 송진현 한스경제(한국스포츠경제) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 한스경제(한국스포츠경제). All rights reserved. mail to news@sporbiz.co.kr 위로 전체메뉴 전체기사 ESG 전체 기업·CEO 공기업 지방자치단체 경제 전체 경제 일반 금융 증권 산업 전체 기업·CEO 전자·통신 IT·게임 자동차·물류 건설·중공업 바이오 에너지 생활 전체 유통 식·음료 패션·뷰티 정치 전체 정치 일반 사회 전체 사회 일반 지역 교육 전국 문화 전체 컬처 연예 스포츠 전체 스포츠 일반 스포츠 종합 야구 축구 골프 여행ㆍ레저 2021 한국컵 2020 도쿄올림픽 2022 한국컵 보도자료 전체메뉴닫기</t>
   </si>
   <si>
     <t>제주도, KTX+여객선 상품 개발…뱃길관광 ‘고삐’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, KTX+여객선 상품 개발…뱃길관광 ‘고삐’ 파이낸셜뉴스입력 2019.04.21 15:08수정 2021.01.23 00:49 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 완도 실버클라우드호를 비롯 고흥·부산·목포 4개 노선 지원밀레니얼·베이비부머, 수학여행단 맞춤형 선상 이벤트 진행 제주도 관문 제주항. 제주와 녹동을 잇는 아리온제주호가 입항하고 있다. /사진=fnDB [제주=파이낸셜뉴스 좌승훈 기자] 제주특별자치도가 내국인 관광객 유치를 위한 뱃길 관광 활성화에 적극 나선다. 도는 전남 완도 노선의 실버클라우드호(2만263톤·한일고속)와 전남 고흥 노선의 아리온제주호(6266톤·남해고속), 부산 노선의 뉴스타호(9997톤·엠에스페리), 전남 목포 노선의 퀸메리호(1만3665톤·씨월드고속훼리) 등 선사별 1개 노선을 선정해 집중 지원한다고 21일 밝혔다. 도는 이에 따라 선사와 공동 선상 이벤트와 제주 홍보 시설 지원 등의 여객 편의 서비스 제공을 통해 뱃길관광 수요층을 확대해 나갈 예정이다. 선상 이벤트는 ▷공연과 마술쇼·웨딩 촬영 등 밀레니얼 세대(1980년대 초~2000년대 초에 태어난 세대)를 위한 프로그램과 ▷미니콘서트·영화관람 등 베이비부머 세대(1955년~1963년 생)를 위한 프로그램, ▷SNS 이벤트 등 맞춤형 프로그램 등 수학여행단을 위한 프로그램 등 세대별 맞춤형으로 연중 추진한다. 제주-목포 노선에 취항하고 있는 목포 노선의 퀸매리호(1만3665톤·씨월드고속훼리) /fnDB 특히 수도권 광광객 유치 활성화를 위해 KTX와 연계한 ‘레일쉽(열차+선박, Rail-Ship)’ 관광상품(서울 용산·충북 오송 출발)을 개발하고, 목포발 제주행 퀸메리호에 탑승할 경우 승선료를 30~40% 할인해주기로 했다. 아울러 각종 대중매체를 활용해 제주 뱃길관광을 홍보하고, 통합 홍보물과 리플릿을 제작해 뱃길 관광객들에게 편의를 제공한다. 양기철 도 관광국장은 "향후 신규 취항 노선에 대해서도 여객편의 서비스와 즐길 거리 제공을 통해 침체한 국내 관광 활성화를 도모하겠다"고 밝혔다. 지난해 제주도를 찾은 관광객 중 3.4%(49만1천763명)가 뱃길을 이용했다. 제주 뱃길에는 총 4개 선사에서 7개 노선에 9척의 여객선을 운항하고 있다. 이와 함께 연내 세월호 참사 후 끊겼던 제주∼인천 노선 운항이 재개될 예정이며, 내년에는 성산포-전남 고흥(녹동), 제주-경남 사천(삼천포) 등에도 여객선이 신규 취항할 예정이다. jpen21@fnnews.com 좌승훈 기자 키워드#밀레니얼세대 #레일쉽(Rail-Ship) #베이비부머 세대 #수학여행단 #뱃길관광 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
   </si>
   <si>
-    <t>"배타고 제주 오세요" 제주도, 뱃길관광 활성화 나서 :: 공감언론 뉴시스통신사 :: 2022.10.04 (화) 서울 16℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹, NSC참석...한미일 안보협력 수준 상향 협의 지시 [속보]안보실 尹참석 NSC 개최 "北 도발 묵과 못해...대가 반드시 따를것" [속보]최강욱 '채널A 기자 명예훼손 혐의' 1심서 무죄 [속보]"北 탄도미사일, 4000㎞ 이상 비행…日 동쪽 약 3000km 해역 낙하 가능성" NHK [속보]尹 "서해공무원 사건 성역없는 수사가 일반 원칙" [속보]尹"北, 4천km미사일 발사...국제사회 결연히 대응할 것" [속보]尹 "대통령 외교는 국익위한 것...순방서 많은 성과 거양" [속보]尹, 감사원 文조사 논란에 "감사원은 독립기관…대통령이 언급 부적절" [속보]美 "北, 올해 탄도미사일 39발 발사…한·일 안보 약속 의심 말라" [속보]기시다 日총리 "北 탄도미사일 발사는 폭거" 강력 비난 [속보]日 관방장관 "북 미사일 동북상공 통과…EEZ 밖으로 낙하 추정" [속보]합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 오전까지 전국 가을비…비 그친 뒤 낮부터 기온 '뚝' 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 "배타고 제주 오세요" 제주도, 뱃길관광 활성화 나서 등록 2019.04.21 06:28:18 작게 크게 선사별 1개 노선 선정해 집중 지원 선상이벤트 등 맞춤형서비스 강화 【제주=뉴시스】제주와 완도를 잇는 실버클라우드호 모습. (사진=한일고속 제공)【제주=뉴시스】우장호 기자 = 제주도가 내국인 관광객 유치를 위해 뱃길 관광 활성화에 적극 나선다. 제주특별자치도는 육지와 제주를 잇는 여객선사의 대표 노선을 선사별로 1개씩 선정해 집중 지원한다고 21일 밝혔다. 선사별로 선정된 선박은 완도와 제주를 오가는 실버클라우드호를 비롯해 고흥과 제주를 잇는 아리온제주, 각각 부산과 제주를 연결하는 뉴스타와 퀸메리호다. 도는 선사와 공동 선상 이벤트를 마련하고 선박에 제주홍보 시설을 마련해 여객편의 서비스를 높여 뱃길관광 수요층을 점진적으로 확대해 나간다는 방침이다. 아울러 KTX-여객선사와 연계한 ‘레일쉽’ 상품(용산, 오송 출발)을 개발해 제주행 목포발 퀸메리호 탑승 시 승선료를 정가의 30~40% 할인하는 등 수도권 관광객 유치도 추진한다. 이 밖에도 각종 대중매체를 활용해 뱃길관광을 홍보하고, 제주뱃길 통합 홍보물과 리플릿을 제작해 뱃길 관광객에게 편의를 제공할 예정이다. 이와 관련해 양기철 도 관광국장은 “제주관광을 유도하기 위한 뱃길홍보를 강화하고, 특히 향후 신규 취항노선에 대해서도 여객편의 서비스 및 즐길거리 제공을 통해 침체된 국내 관광 활성화를 도모하겠다”고 말했다. 한편, 2018년도 입도객 통계에 따르면 제주도로 입도한 관광객 중 3.4%가 뱃길을 이용한 것으로 나타났다. 뱃길관광객 입도 추이는 지난해 같은 기간 9만9000여명에서 8.5% 증가한 10만7000여명인 것으로 집계됐다. 올해는 지난 세월호 참사 이후 중단됐던 제주~인천 노선이 재개될 예정이며, 내년에는 성산~녹동, 제주~삼천포 등의 노선이 신규 취항할 예정이어서 뱃길관광 활성화에 더욱 기대를 모으고 있다. woo1223@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 엔저쇼핑 러시 이제는 마약오염국 위기의 금융시장 오피니언 부부듀오 '선과영' 어른의 노래로 전하는 뭉근한 위로 담았죠 전재훈 기자 무심코 쓴 마약 신조어 범죄 경각심 낮춘다 뉴시스 PIC 中 국경절 중화인민공화국 성립 73주년 행사 거행 사진으로 보는 지난 주말 가을비 속에... 우비 입은 수문장의 임명의식 '기다려'... 기다려대회를 아시나요? 이시간 핫 뉴스 고우리, 5세 연상 사업가와 오늘 결혼 제니·뷔 '사생활 유출'에…YG, 결국 공식입장 내놨다 홍현희, 바로 둘째 임신?…사진 한장에 김지민 화들짝 성유리 "바람 피우는 사람 더 보수적"…외도에 분노 러시아인 안현수, 푸틴 징집령 이후 국내서 포착 "딸 송지아 가슴에 피멍"…박연수, 가족 험담에 분노 75세 女-38세 男 '다정한 부부' 유튜버 혼인신고 살찐 구혜선 몰라보겠네…"마음이 힘들었다" 오늘의 헤드라인 "北 탄도미사일, 4500여km 비행日상공 통과…한때 주민 대피령 북한이 최근 10일 동안 5차례 미사일 도발을 강행하며 위협 수위를 높이고 있다. 특히 앞선 4차례 미사일 발사와 달리 이번에는 일본 상공 넘어로 중거리 탄도미사일을 발사하며 동아시아 안보에 큰 위협이 되고 있다. 4일 합동참모본부는 오전 7시23분경 북한 자강도 무평리 일대에서 동쪽 방향으로 중거리 탄도미사일 1발이 발사됐다고 밝혔다. 해당 "尹 "감사원은 헌법기관…대통령이 언급 부적절" "한미연합사 평택 기지로 이전 개시…이달말 완료 "재정준칙 없으면 2060년 1인당 나랏빚 1억 넘는다 "억대 외제차 굴리며 임대주택…'가짜 서민' 수두룩 "금융위 "증안펀드·공매도 금지 등 전문가 논의 중" "확진 1만6423명…사망 19명, 63일만에 20명 밑돌아 "네이버, 미국판 당근마켓 '포쉬마크' 2.3조에 인수 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1박유진, 16세 첫 출산→18세 새남친과 임신…'친정과 갈등' 분가 18세 엄마 박유진이 어린 나이에 출산한 뒤 새 가정을 꾸리게 된 사연을 털어놓는다. 4일 오후 10시20분 방송하는 MBN 예능 '어른들은 모르는 고딩엄빠2(이하 고딩엄빠2)' 18회에서는 박유진이 출연해 파란만장한 인생사를 솔직하게 들려준다. 박유진은 14세 중1 시절 박유진은 평소 친하게 지내던 남사친에게 고백을 받아 진지하게 만나기 시작한다. 그러나 1년 뒤 남자친구는 180도 달라진 모습을 보이고 급기야 박유진을 협박하는 극단적 행동까지 해 스튜디오를 충격에 빠뜨린다. 결국 박유진은 남자친구와 이별하지만, 2"12세 겨울 두만강 건너 탈북"…'펜트하우스' 장명진, 추위 안타는 이유 3"미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 4황보라, 하정우 동생과 혼인신고 "시험관 시술 준비" 5합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 1합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 합동참모본부(합참)는 4일 북한이 동쪽 방향으로 미상의 탄도미사일을 발사했다고 밝혔다. 현재 군 당국은 미사일의 제원, 고도, 속도, 비거리 등을 정밀 조사하고 있다. 북한의 미사일 도발은 지난 1일 이후 3일 만에 다시 재개된 것으로, 최근 10일 동안 총 5번의 미사일 도발을 감행했다. 지난달 25일 지대지 단거리 탄도미사일(SRBM) 1발을 평북 태천 일대에서 발사했고, 28일에는 평양 순안 일대에서 SRBM 2발을 발사했다. 29일에는 평안남도 순천 일대에서 SRBM 2발을 발사한 바 있다. 지난 1일 2"한국인 다수, 美 대북 메시지보다 인플레법 중시" 3북한, 동쪽으로 탄도미사일 발사…3일만에 미사일 도발 재개(2보) 4尹정부 첫 국정감사…與 '文 때리기' vs 野 '尹 무능론' 격돌 5용적률 완화에 건물 간 이격거리 '협소'…대형 화재 매년 증가 1"미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 우크라이나 전쟁과 관련 블라디미르 푸틴 러시아 대통령의 핵무기 사용 위협에 직면한 미국이 대응 방법을 검토중이라고 미 CNN이 3일(현지시간) 보도했다. 미국은 전쟁 초기부터 푸틴이 핵과시 공격을 시도할 가능성에 대응하는 비상계획을 준비하기 시작했다. 이와 관련 한 당국자는 러시아가 자포리자 원자력 발전소를 공격하거나 핵무기를 고공 또는 비거주지역에 폭발시키는 방안 등이 이에 해당된다고 밝혔다. 당국자들은 러시아의 핵공격 준비 움직임은 포착되지 않았다고 밝혔다. 그러나 전문가들은 러시아의 우크라이나 점령 실패와 우 2"한국인 다수, 美 대북 메시지보다 인플레법 중시" 3"푸틴의 핵위협 심각하게 받아들여야" WSJ 4美 '역대급' 허리케인 이언 사망자 100명 넘어…"복구에 상당한 시일" 5OPEC+, 대규모 감산 검토…"유가 100달러 복귀 전망"(종합) 1보호무역주의·패권경쟁 속 생존법은? '수출로 먹고사는 나라'. 우리나라의 경제 발전 과정을 설명할 때 자주 소개되는 문장이다. 그만큼 수출이 우리 경제에서 차지하는 비중은 크다. 당장 코로나19 위기를 겪었던 지난해 4%대 성장률을 기록할 수 있었던 것은 수출이 든든한 버팀목 역할을 했기 때문이다. 올해 상황은 다르다. 무역수지 적자 규모가 역대 가장 클 것이라는 전망도 나온다. 우리나라가 수출로 돈을 벌지 못한다는 뜻인데, 이는 글로벌 금융위기를 겪던 2008년 이후 14년 만이다. 여러 이유가 있겠지만 보호무역주의와 주요국 패권 경쟁에 따른 글 2금융·증권(10월4일 화요일) 3경제(10월4일 화요일) 4경매시장 '꽁꽁'…서울 아파트 낙찰가율 2년 6개월만 '최저' 51억 넘는 외제차 굴리며 임대주택 거주…'가짜 서민' 수두룩 1자영업자 채무조정 지원 '새출발기금', 오늘 공식 출범 코로나19 극복과정에서 불가항력적 피해를 입은 소상공인·자영업자를 돕기 위한 최대 30조원 규모의 맞춤형 채무조정 프로그램 '새출발기금'이 4일 공식 출범했다. 이날부터 전국 76개소에 마련된 오프라인 현장창구와 온라인 플랫폼을 통해 새출발기금을 신청할 수 있다. 금융위원회와 한국자산관리공사(캠코)는 이날 서울 캠코 양재타워에서 19개 금융협회·금융기관이 참석한 가운데 '새출발기금 업무협약'을 맺었다고 밝혔다. 출범식에는 백혜련 정무위원장, 이영 중소벤처기업부장관, 김주현 금융위원장, 새출발기금 이사진, 금융협회장 및 금융 2금융·증권(10월4일 화요일) 3지니언스 "EDR 제품 첫 국정원 보안기능확인서 획득" 4하나증권, 현직 임원 48억 배임 고소…내부 감사서 파악 5미 증시 랠리에 비트코인도 급등…2800만원대 1'마지막 손실보상' 9일까지 홀짝제…확인요청·보상 신청 올해 2분기(4~6월) 소상공인 손실보상 신청 5부제가 4일부터 해제된다. 이날 오프라인 신청이 시작되는 가운데 9일까지 사업자등록번호 끝자리를 기준으로 '홀짝제'가 운영된다. 확인요청·확인보상 신청도 이날부터 가능하다. 손실보상금은 소상공인지원법에 따라 방역조치 이행에 따른 손실금을 분기별로 지급하는 것이다. 일회성 지원금인 '손실보전금'과는 다르다. 사회적 거리두기 조치가 지난 4월17일자로 해제돼 보상금 지급은 이번이 마지막이다. 중소벤처기업부(중기부)에 따르면 이날부터 사업자등록번호 끝자리 기준 5부제 손실보상 신 2보호무역주의·패권경쟁 속 생존법은? 34족 보행로봇 구경오세요…로봇세일페스타 7~9일 4 국내 유통 '일본산' 가전·주류 가격 내렸을까 51억 넘는 외제차 굴리며 임대주택 거주…'가짜 서민' 수두룩 1네이버, 북미 1위 패션플랫폼 포쉬마크에 2.3조 '베팅'…"실리콘밸리서 진검승부" 네이버는 북미 최대 패션 소비자대소비자(C2C) 커뮤니티 포쉬마크(Poshmark, Inc.)를 인수한다고 4일 밝혔다. 취득 금액은 2조3441억원 규모다. 최수연 대표가 네이버 경영을 맡은 후 던진 최대 승부수로로, 네이버 역사상 가장 큰 규모의 빅딜이다. 네이버는 포쉬마크의 순기업 가치를 주당 17.9 달러, 순기업가치 12억 달러로 평가했다. 포쉬마크가 보유한 현금 5.8억 달러에 대한 대가를 포함한 총 인수대금은 16억 달러이다. 네이버는 이번 인수가 버티컬 플랫폼으로의 진화가 빨라지고 있는 글로벌 C2C 2'일반 증인' 없는 과기정통부 국감, 망사용료·5G 현안 정조준 3폭발 화재 화일약품 "매출 피해 최소화할 것…재발 방지 최선" 4최수연號 네이버, 창사 이래 최대 빅딜…북미 C2C 정조준(종합) 5셀트리온, 27조 휴미라 시장 대체사용 추진…유럽 3상 승인 1합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 합동참모본부(합참)는 4일 북한이 동쪽 방향으로 미상의 탄도미사일을 발사했다고 밝혔다. 현재 군 당국은 미사일의 제원, 고도, 속도, 비거리 등을 정밀 조사하고 있다. 북한의 미사일 도발은 지난 1일 이후 3일 만에 다시 재개된 것으로, 최근 10일 동안 총 5번의 미사일 도발을 감행했다. 지난달 25일 지대지 단거리 탄도미사일(SRBM) 1발을 평북 태천 일대에서 발사했고, 28일에는 평양 순안 일대에서 SRBM 2발을 발사했다. 29일에는 평안남도 순천 일대에서 SRBM 2발을 발사한 바 있다. 지난 1일 2조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 3북한, 동쪽으로 탄도미사일 발사…3일만에 미사일 도발 재개(2보) 4오늘부터 요양병원 대면면회 재개…외출·외박도 허용 5"직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 1합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 합동참모본부(합참)는 4일 북한이 동쪽 방향으로 미상의 탄도미사일을 발사했다고 밝혔다. 현재 군 당국은 미사일의 제원, 고도, 속도, 비거리 등을 정밀 조사하고 있다. 북한의 미사일 도발은 지난 1일 이후 3일 만에 다시 재개된 것으로, 최근 10일 동안 총 5번의 미사일 도발을 감행했다. 지난달 25일 지대지 단거리 탄도미사일(SRBM) 1발을 평북 태천 일대에서 발사했고, 28일에는 평양 순안 일대에서 SRBM 2발을 발사했다. 29일에는 평안남도 순천 일대에서 SRBM 2발을 발사한 바 있다. 지난 1일 2조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 3북한, 동쪽으로 탄도미사일 발사…3일만에 미사일 도발 재개(2보) 4인천, 오전까지 30~60㎜ 비…낮부터 비 그치고 '쌀쌀' 5경기남부 오전까지 비온 뒤 '쌀쌀'...바람도 강해 14족 보행로봇 구경오세요…로봇세일페스타 7~9일 국내 로봇산업 신기술을 확인하고, 4족 보행로봇 시연도 볼 수 있는 행사가 창원에서 열린다. 경남도·창원시 주최, 경남로봇랜드재단 주관 '2022 로봇세일페스타' 행사가 오는 7일부터 9일까지 창원시 마산합포구 마산로봇랜드 일원에서 펼쳐진다. 다양한 최신 로봇 기술을 접할 수 있는 전시회로, 로봇기업들 제품 홍보 및 판로 확대, 로봇랜드 테마파크를 찾은 관람객들에게 로봇 신기술과 체험 기회를 제공하기 위해 마련했다. 첫날인 7일에는 국내 서비스로봇 발전을 논하는 '경남서비스로봇발전포럼'이 오전 10시부터 오후 23년간 외국산 삼결살·목살 국내산 둔갑시켜 판매한 업자 '집유' 3학교 손소독기 납품 알선, 계약금 절반 꿀꺽한 업자 집유 4제주 오후까지 비 최대 30㎜…낮 최고기온 24~26도 5현대 아웃렛 화재 참사 당시 1t 트럭에 시동 걸려 있었다 1조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 한국만화영상진흥원이 주최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림이 전시돼 논란이 일고 있다. 4일 한국만화영상진흥원에 따르면 전날 폐막한 제23회 부천국제만화축제 전시장에 ‘윤석열차’라는 제목의 만화가 전시됐다. 이 작품은 고등학생이 그린 카툰으로, 윤 대통령의 얼굴을 한 열차가 연기를 내뿜으며 달리자 시민들이 놀라 달아나는 모습을 담고 있다. 또 조종석 위치에는 윤 대통령의 부인 김건희 여사로 추정되는 인물이 자리하고 있으며 나머지 열차에는 검사복을 입은 이들이 칼을 들고 서 있었다. 이 작품은 2'푸에르자 부르타', 안방서도 본다…오늘 온라인 스트리밍 3국립극장 여우락과 협업…주영한국문화원, 'K-뮤직 페스티벌' 4임동민·케이트 리우·아르멜리니, 쇼팽으로 뭉친 세 피아니스트 5‘제27회 부산국제영화제’ 화려한 개막…3년 만의 정상 개최 1최지훈, 관중과 언쟁 이유는…"어린이팬 잘못 없어요" KIA 타이거즈와 SSG 랜더스의 경기가 열린 지난 1일 광주-기아 챔피언스필드. SSG가 3-2로 앞선 9회말 1사 2루 상황에서 KIA 최형우가 친 타구가 우중간 펜스 쪽으로 날아갔다. 우중간을 갈라 2루타가 될 수도 있는 타구였는데, 당시 우익수로 나서있던 최지훈이 빠르게 달려가 정확하게 점프해 타구를 낚아챘다. 타구를 잡은 최지훈은 재빨리 내야 쪽으로 송구했다. 문제는 그 다음이었다. 타구를 잡은 뒤 펜스에 부딪힌 최지훈은 갑자기 외야 관중석 쪽을 바라보며 불만을 드러냈다. 수비를 위해 우중간 쪽으로 달려왔 2'2주 연속 우승' 김수지, 세계랭킹 38위로 점프 3무라카미, 일본인 최다 56홈런+트리플크라운…30억 집이 선물로 4올해 크리스마스 씰 주인공은 손흥민 5인니 참사로 부각된 축구장 안전…반입 금지 품목은? 1박유진, 16세 첫 출산→18세 새남친과 임신…'친정과 갈등' 분가 18세 엄마 박유진이 어린 나이에 출산한 뒤 새 가정을 꾸리게 된 사연을 털어놓는다. 4일 오후 10시20분 방송하는 MBN 예능 '어른들은 모르는 고딩엄빠2(이하 고딩엄빠2)' 18회에서는 박유진이 출연해 파란만장한 인생사를 솔직하게 들려준다. 박유진은 14세 중1 시절 박유진은 평소 친하게 지내던 남사친에게 고백을 받아 진지하게 만나기 시작한다. 그러나 1년 뒤 남자친구는 180도 달라진 모습을 보이고 급기야 박유진을 협박하는 극단적 행동까지 해 스튜디오를 충격에 빠뜨린다. 결국 박유진은 남자친구와 이별하지만, 2"12세 겨울 두만강 건너 탈북"…'펜트하우스' 장명진, 추위 안타는 이유 3황보라, 하정우 동생과 혼인신고 "시험관 시술 준비" 4"널 사왔다"며 용돈 100만원 받는 백수남편…'결혼지옥' 5블랙핑크·레드벨벳…K팝, '클래식 샘플링' 다시 주목하는 이유 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 인사처장 "불필요 인사규제 바꾸고 공무원 처우도 개선" 대마 재배 면적 축구장 715개 크기…"관리·감독 강화해야" 이장우 대전시장 "선거 관여 공직자 앞으로 불이익 없을 것" 어촌체험휴양마을 특화 조성으로 이색 변신 시작 최재형 보은군수, 청소년들과 소통의 시간 가져 새출발기금 채무조정에 3410명 사전신청…5361억 규모 부산교육청, 2023학년도 전·후기고 입학전형 안내 민주, 감사원 文조사 계기…'문재명 지키기' 총력 [산청소식]군·실크연구원, 축제 콘텐츠 발굴 협약 등 코로나 꺽이니 간호인력 구조조정…경북대 106명 감축 [속보]尹, NSC참석...한미일 안보협력 수준 상향 협의 지시 해조류 '바다대나무'서 피부질환 유발 염증 억제 효능 발견 최강욱 '채널A기자 명예훼손 혐의' 1심 무죄…"비방 목적 아냐" 인사처장 "불필요 인사규제 바꾸고 공무원 처우도 개선" 대마 재배 면적 축구장 715개 크기…"관리·감독 강화해야" 민주, 감사원 文조사 계기…'문재명 지키기' 총력 코로나 꺽이니 간호인력 구조조정…경북대 106명 감축 [속보]尹, NSC참석...한미일 안보협력 수준 상향 협의 지시 [속보]안보실 尹참석 NSC 개최 "北 도발 묵과 못해...대가 반드시 따를것" 이창양 "美에 IRA 차별 반대 입장 전달…수출강화전략 추진" 권영세, 獨 숄츠 총리 만나 "한반도 평화·통일 지지" 당부 "정부, 식량자급 목표 달성 번번이 실패…적정 농지 확보 계획 부실" [속보]최강욱 '채널A 기자 명예훼손 혐의' 1심서 무죄 이상민 장관 "변화 기민대응 위해 정부 운영체계 개편" 아이티서 콜레라환자 발생..9700명 사망 2010년 악몽 재현되나 권영세, 獨 숄츠 총리 만나 "한반도 평화·통일 지지" 당부 머스크, 트위터서 우크라 평화안 투표 논란…"크름반도는 러 영토" "푸틴의 핵위협 심각하게 받아들여야" WSJ 中 국경절 중화인민공화국 성립 73주년 행사 거행 크렘린 "우크라 나토 가입 시도 예의주시" 9월 일본 자금공급량 6285조원 3.3%↓..."감소 10년5개월 만에" "미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 엔화, 북한 미사일 발사에 1달러=144엔대 중반 상승 출발 日관방장관 "北미사일 약 20분간 4000㎞ 이상 비행…안보리 결의 위반" 구글 "중국서 번역 서비스 중단"…5년 만에 철수 美 "北 발사 상황 평가 중…올해 들어 탄도미사일 39발 발사" HSD엔진, 삼성중공업 선박 엔진 공급 계약 체결 이창양 "美에 IRA 차별 반대 입장 전달…수출강화전략 추진" "정부, 식량자급 목표 달성 번번이 실패…적정 농지 확보 계획 부실" 머스크, 트위터서 우크라 평화안 투표 논란…"크름반도는 러 영토" "규제지역 풀렸다"…10월 분양 물량, 전년 동월 대비 3배 '껑충' 셀트리온, 유플라이마 유럽 임상 3상 시험계획 승인 네이버, 美 중고 패션 플랫폼 포쉬마크 2.3조 인수 9월 일본 자금공급량 6285조원 3.3%↓..."감소 10년5개월 만에" 김문수 경사노위 위원장 취임…"노동개혁 중심축 될 것" 공공분양주택 청약 미달 30% 달해…"공급량만 채운 결과" 전국 LH 어린이집 34곳서 석면 검출…10곳 중 1곳 비율 대우건설, 독립유공자 후손 노후주택 개선 새출발기금 채무조정에 3410명 사전신청…5361억 규모 HSD엔진, 삼성중공업 선박 엔진 공급 계약 체결 신한은행, 취약차주 지원 '기업 포괄 채무조정 프로그램' 신설 김주현 "증안펀드·공매도 금지 등 전문가들과 논의 중" 네이버·F&amp;F 셀트리온, 유플라이마 유럽 임상 3상 시험계획 승인 네이버, 美 중고 패션 플랫폼 포쉬마크 2.3조 인수 유진투자선물, 해외선물 실전투자대회 개최 삼성전자·SK하이닉스 4%↑…미 증시 급등 영향 SC제일은행, 현대카드와 개인·기업 제휴카드 출시 케이뱅크, 800만 고객 돌파…3분기 여수신 1조↑ 엔화, 북한 미사일 발사에 1달러=144엔대 중반 상승 출발 어촌체험휴양마을 특화 조성으로 이색 변신 시작 해조류 '바다대나무'서 피부질환 유발 염증 억제 효능 발견 이창양 "美에 IRA 차별 반대 입장 전달…수출강화전략 추진" "정부, 식량자급 목표 달성 번번이 실패…적정 농지 확보 계획 부실" 청호나이스, 정수기 4종 'IDEA 디자인 어워드' 본상 수상 전남에 전국 첫 '저메탄 조사료' 종합유통센터 들어선다 LG 구광모, 폴란드 총리 만나 부산엑스포 지지 요청 삼성전자, KES 2022서 맞춤형 '스마트싱스' 활용법 공개 "이색 가전 직접 경험"…LG전자, KES 2022서 혁신 제품 공개 김문수 경사노위 위원장 취임…"노동개혁 중심축 될 것" 삼성SDI, '친환경경영' 선언…"2050년 탄소중립 달성" 공공분양주택 청약 미달 30% 달해…"공급량만 채운 결과" 대마 재배 면적 축구장 715개 크기…"관리·감독 강화해야" KT엠모바일, 'e심' 특화 요금제 7종 출시…'양심' 브랜드도 선봬 에이비엘바이오 "이중항체 'ABL301' 美 임상 1상 신청" 삼성이 찜한 블록체인회사 '해치랩스', 120억 투자 유치 조이시티 자회사 로드비웹툰, ‘조이플 엔터테인먼트’로 사명 변경 컴투스 '멤버십 NFT 프로젝트', '붕어빵 타이쿤'으로 출발 콩스튜디오, '가디언 테일즈' 닌텐도 스위치 버전 출시 뱅크웨어글로벌, 마스턴투자운용 ERP 2차 구축 완료 KT, '올레 tv'→'지니 TV'로 바꾼다…미디어 계열사 시너지 강화 '위조 성적서' 받은 부적합 방송통신기자재 회수률 고작 5.4% '유미의 세포들'이 전하는 침대피로…한샘 'SNS 마케팅' 파수, 악성메일 모의훈련 ‘마인드 셋’에 보안 교육 서비스 결합 인사처장 "불필요 인사규제 바꾸고 공무원 처우도 개선" 대마 재배 면적 축구장 715개 크기…"관리·감독 강화해야" 부산교육청, 2023학년도 전·후기고 입학전형 안내 울산 학교들은 지금, 시나브로 말·글·얼 한글 교육 활발 충북 소방설비 오작동 빈번…소방차 헛걸음 하루 평균 10건 [인사]지디넷코리아 [속보]최강욱 '채널A 기자 명예훼손 혐의' 1심서 무죄 이상민 장관 "변화 기민대응 위해 정부 운영체계 개편" GH, 청년형 매입임대주택 228가구 입주자 모집 삐딱하게 주차해 놓곤..."조수석으로 타면 되지 않냐"는 벤츠 차주 北, 일본 상공 넘어로 중거리 탄도미사일 발사…10일 동안 5차례(종합) 전북병무청, 하반기 병역판정검사 시행…12월 7일까지 용인시, 장애인 직업재활 '기흥직업지원센터' 개선 민·관 맞손 인천스타트업파크, 대학생 인턴십 프로그램 '성과' GH, 청년형 매입임대주택 228가구 입주자 모집 北, 일본 상공 넘어로 중거리 탄도미사일 발사…10일 동안 5차례(종합) 경기도, '황복' 양식 도전…성장기간 단축·상품성 제고 경기, 3일 하루 확진자 4792명, 사망 3명 한국도자재단, '한국 현대 도예 작품' 17일까지 공개 구입 경기경제자유구역청, '제53회 한국전자전'서 투자유치 한미연합사 평택 기지로 이전 개시…미래 연합방위체제 발전기반 구축 가톨릭대, 유네스코 지속가능발전교육 감사패 수상 인천환경공단, 찾아가는 VR안전체험 교육 실시 IPA, ‘2022년 인천시 포워더 인센티브’ 지원기업 모집 이장우 대전시장 "선거 관여 공직자 앞으로 불이익 없을 것" 최재형 보은군수, 청소년들과 소통의 시간 가져 새출발기금 채무조정에 3410명 사전신청…5361억 규모 부산교육청, 2023학년도 전·후기고 입학전형 안내 코로나 꺽이니 간호인력 구조조정…경북대 106명 감축 마사회 부경본부, 말과 교감하며 환자 마음 치료 황규철 옥천군수 주민과 소통 창구 '도와줘OK' 호응 울산 학교들은 지금, 시나브로 말·글·얼 한글 교육 활발 충북 소방설비 오작동 빈번…소방차 헛걸음 하루 평균 10건 하동군, 군민편의 위한 '스피드 행복민원 서비스' 시행 LH 매입임대주택 빈집 방치, 광주 124채·전남 20채 ‘2022년 건설·교통 신기술 순회 전시회’ 5일 부산시청서 전북대 '한국의 헬렌켈러' 구경선 작가 초청 전시 [인사]지디넷코리아 전주박물관·전북태권도협회, '명품 태권도 시범공연' 9일 개최 임형주, 천주교서울대교구와 평화콘서트…12일 예술의전당 "국제회의복합지구와 국제회의집적시설 지정 신청하세요" 녹유의 '오늘의 운세 2022년 10월 5일 수요일(음력 9월 10일 신묘) 국립중앙박물관, 10월 매주 수요일 '큐레이터와의 대화' 사진으로 봤던 국보·보물 등 100건 3D로 만난다 문체부, 청년정책 위한 '2030 자문단' 공모 '반 클라이번 최연소 우승' 임윤찬, '황제' 실황 앨범 11월 발매 제24회 김상열연극상에 류주연 연출가 바다가 갈라진다, 보령 ‘무창포 신비의 바닷길 축제’ 월드컵 1승 제물 가나 '만만찮네'…주축들 EPL서 맹활약 '꼴찌에 발목' SSG, 우승 축포 어디서…숙소? 잠실? FC서울, 레알·바르샤보다 경기당 패스 많이 했다 '홀란 해트트릭 벤치서 보던' 호날두, 내년 1월 맨유 떠나나 인도네시아 참사로 본 축구장 비극의 역사 호날두 부진해도 걱정 없는 포르투갈, 레앙 잠재력 폭발 테니스 세계 8위 노리, 코리아오픈 기권 이유는? '월드컵서 한국 상대 해트트릭' 이과인, 그라운드 떠난다 인니 참사로 부각된 축구장 안전…반입 금지 품목은? '올해만 3번째' 애런 저지, AL 이달의 선수 수상 손흥민, 5일 프랑크푸르트 상대로 UCL 시즌 첫 골 도전 올해 크리스마스 씰 주인공은 손흥민 로이킴, 선공개 싱글 '그때로 돌아가' 14일 발매…2년5개월만 코요태 빽가, 지석진과 한솥밥…우쥬록스 합류 잔나비, 11월부터 전국투어…'판타스틱 올드 패션드 송년회' DC 원조 히어로 군단 공개…'블랙 아담' 임형주, 천주교서울대교구와 평화콘서트…12일 예술의전당 '배틀 트립' 시즌2로 돌아온다…성시경→이미주 MC 트레저, 오늘 컴백…전 세계 팬들에 외칠 'Hello' 기안84, '나혼산' PD와 새 예능 함께…'태어난 김에 세계 일주' 이보람 "야구선수와 결혼?…너무 황당" 루머 해명 빨간머리 찰떡이네…박지훈 '디 앤서' 무드 프리뷰 공개 레드벨벳 슬기, 오늘 솔로 데뷔…'28 리즌스' 원위, 오늘 '기어이 또'…팬들 위한 용훈·강현 선물 많이 본 기사 14족 보행로봇 구경오세요…로봇세일페스타 7~9일 23년간 외국산 삼결살·목살 국내산 둔갑시켜 판매한 업자 '집유' 3학교 손소독기 납품 알선, 계약금 절반 꿀꺽한 업자 집유 4제주 오후까지 비 최대 30㎜…낮 최고기온 24~26도 5현대 아웃렛 화재 참사 당시 1t 트럭에 시동 걸려 있었다 6‘제27회 부산국제영화제’ 화려한 개막…3년 만의 정상 개최 7광주서 중앙선 침범사고 낸 무면허 10대 숨져 1박유진, 16세 첫 출산→18세 새남친과 임신…'친정과 갈등' 분가 2"12세 겨울 두만강 건너 탈북"…'펜트하우스' 장명진, 추위 안타는 이유 3"미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 4황보라, 하정우 동생과 혼인신고 "시험관 시술 준비" 5[속보]합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 6"한국인 다수, 美 대북 메시지보다 인플레법 중시" 7"널 사왔다"며 용돈 100만원 받는 백수남편…'결혼지옥' 기자수첩 무심코 쓰는 마약 신조어, 범죄 경각심 낮춘다 거대 양당, 극단의 정치에 빠지지 말아야 피플 알렉 벤자민, 역시 팝 스토리텔러…"K팝 아티스트 직업정신 투철하죠" "세계 5위 암센터 서울아산병원, 통합진료로 폐암 치료 길 활짝" 세상에 이런 일이 8차선 도로서 자고 있던 남성..."누구 인생 망치려고" "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 접근금지 결정 위반, 전 여친 스토킹한 20대 집유 동거녀 상해·감금 20대 男, 집행유예 쏠쏠정보 사진으로 봤던 국보·보물 등 100건 3D로 만난다 주민등록번호 유출땐 온라인으로도 변경신청 가능 마누라·외다리…네이버, 어학사전에 차별표현 '주의' 문구 표시 "외국인도 안전 귀갓길"…안심이앱, 영‧중‧일어 서비스 DMZ·행리단길 숙박, 체험 할인…'경기도 여행상품 통합 기획전' 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
-  </si>
-  <si>
-    <t>뱃길 관광 활성화 나선 제주도, 여객편의 개선 - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-04 10:32 (화) 이전 다음 뱃길 관광 활성화 나선 제주도, 여객편의 개선 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 행정 제주도청 뱃길 관광 활성화 나선 제주도, 여객편의 개선 이감사 기자 승인 2019.04.21 11:27 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 선사별 1개 노선 선정·지원…선상이벤트 등 맞춤형서비스 강화 제주도가 내국인 관광객의 다각적 유치를 위해 뱃길관광 활성화에 나선다 / 사진 - 뉴스제주 자료 내국인 관광객 유치를 위해 제주도정이 맞춤형 뱃길관광을 활성화하기로 했다. 21일 제주특별자치도에 따르면 완도, 고흥, 부산, 목포 노선 중 선사별 1개 노선을 선정, 지원에 나선다. 각 노선은 실버클라우드(완도-제주), 아리온제주(고흥-제주), 뉴스타(부산-제주), 퀸메리호(목포-제주)다. 도정은 해당 선사와 함께 이벤트와 여객편의시설 등을 제공, 제주를 찾는 뱃길 관광객 유치에 노력을 기울인다는 계획이다. 선상이벤트는 ▶실버클라우드(완도-제주) : 켈리그라피 체험, 마술쇼 ▶아리온제주(고흥-제주) : 결혼, 생일 등 기념일 선물 제공 ▶뉴스타(부산-제주) : 선상불꽃놀이, 웨딩촬영 ▶퀸메리호(목포-제주) : 한지공예, 비누만들기 체험 등 노선별로 다양하다. 이와 함께 KTX-여객선사 '레일쉽' 상품(용산, 오송 출발)을 연계해 제주행 목포발 퀸메리호 탑승 시 승선료를 정가의 30~40% 할인한다. 제주도 관계자는 "여객편의서비스 등을 통해 국내관광 활성화에 기여하겠다"고 말했다. 한편 제주뱃길 선박은 씨월드고속훼리 등 총 4개 선사에서 9척의 여객선이 운항하고 있다. 노선은 완도, 목포, 여수, 고흥, 부산 등 7개다. 올해는 세월호 사고 이후 중단됐던 제주-인천 노선이 재개된다. 2020년도는 성산-녹동, 제주-삼천포 등 신규 노선이 취항할 예정이다. Tag #제주도 #뱃길관광 #실버클라우드(완도-제주) #아리온제주(고흥-제주) #뉴스타(부산-제주) #퀸메리호(목포-제주) 저작권자 © 뉴스제주 무단전재 및 재배포 금지 이감사 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 많이 본 뉴스 뉴스 댓글 1제주관광, 코로나19 이전 수준으로 회복 2제주 구직청년 8365명에 재난지원금 42억 지원 3제주 국악인 차영수, 세종 전통예술경연대회 대상 4제주시, 아동복지교사 기간제근로자 공개모집 5제주시, 여성장애인 출산 비용 지원 1ㅎ ㅎ ㅎ 2비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 3원희룡... 4문화관광체육위원회 소속 더불어민주당 이승아위원장을 비롯한 소속위원들은 쇼하지 마세요.청문회 하는거 보고 좀 달라졌나했더니 말은 그렇게 해놓고 행동은 이선화 찬성??ㅡ이제 당신들의 청치인생은 끝이가보네요.겉과 속이 다르니... 5뭐야? 이건! 최신기사 제주시, 맞춤형급여 탈락 가구에 공적지원제도 연계 제주시, 여성장애인 출산 비용 지원 제주시, 아동복지교사 기간제근로자 공개모집 제주 구직청년 8365명에 재난지원금 42억 지원 제주 구직청년 8365명에 재난지원금 42억 지원 제주관광, 코로나19 이전 수준으로 회복 제주관광, 코로나19 이전 수준으로 회복 제주 국악인 차영수, 세종 전통예술경연대회 대상 제주 국악인 차영수, 세종 전통예술경연대회 대상 FUN 윈드오케스트라 제8회 정기연주회 FUN 윈드오케스트라 제8회 정기연주회 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
-  </si>
-  <si>
-    <t>(제주특별자치도) 제주도와 알리페이, 개별관광객 유치 위해 힘 모은다 - 광명지역신문 UPDATE : 2022.10.4 화 09:26 기사검색 지방자치 경제·사회 사람과 사람 문화·복지 교육 사설·칼럼 오피니언 편집회의 홈으로로그인회원가입 RSS 전체기사보기 모바일웹 상단여백 이전 다음 로고 (제주특별자치도) 제주도와 알리페이, 개별관광객 유치 위해 힘 모은다 페이스북 트위터 구글 카카오스토리 메일 HOME 라이프 사회/일반 (제주특별자치도) 제주도와 알리페이, 개별관광객 유치 위해 힘 모은다 황준호 기자 승인 2019.04.19 17:39 댓글 0 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사(권장) 가나다라마바사 가나다라마바사 가나다라마바사 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 [광명지역신문=황준호 기자] 제주특별자치도는 지난 4월 17일 오후 알리페이 코리아와 업무협약을 체결했다.알리페이 코리아는 중국 내 9억 명에 달하는 가입자와 중국 내 모바일 결제 점유율 80%이상(2018년 기준)을 차지하고 있는 알리바바 그룹 계열사 알리페이의 한국법인이다.이번 협약을 통해 제주도는 알리페이 측으로부터 알리페이 데이터와 알리바바 그룹 계열사를 통한 제주도 관광 홍보 기회 및 제주 특산 제품 판매 창구 등을 제공받을 수 있을 것으로 예상된다.제주특별자치도는 알리페이로 결재한 사용자 빅데이터를 통해 보다 효과적으로 중국인 관광객의 소비 패턴과 구매력을 파악할 수 있게 되어, 궁극적으로 관광, 교통, 상권 등 여러 분야의 정책 수립 및 활용 기반을 공고하게 다지는 시금석이 될 것으로 기대된다.제주특별자치도와 알리페이코리아는 전통시장, 중소상공인, 택시 등을 대상으로 알리페이 가맹점을 확대하고, 중국인 개별 관광객에 대한 다양한 판매촉진 행사를 개최함으로써 도내 매출 신장을 함께 꾀할 예정이다.노희섭 제주특별자치도 미래전략국장은 “빅데이터 분석이 모든 정책에 기반이 되고 있는 시점에 알리페이 코리아와 협약을 체결하게 되어 기쁘다”면서 “이번 협약을 계기로 알리페이의 유의미한 빅데이터 수집 및 분석을 통해 제주지역 경제 활성화와 관광 홍보 채널의 다변화에 기여하는 유기적 선순환이 이루어질 것으로 기대한다.”고 밝혔다.또한, “앞으로 알리페이 코리아가 제주지역 전통시장, 중소상공인, 택시 등을 대상으로 판매 촉진을 통한 지역경제 활성화에 함께 협력해 줄 것으로 기대한다.”고 덧붙였다.한편 제주특별자치도는 지난해 과학기술정보통신부로부터 전국 행정기관 최초로 빅데이터 전문센터 지정을 받았으며, 올해에는 도내 문제해결을 목적으로 하는 민관 빅데이터랩을 운영하는 등 지속적으로 빅데이터 활용 생태계 조성에 주력해 나갈 방침이다.(출처=제주특별자치도) 황준호 기자  webmaster@joygm.com​&lt;저작권자 © 광명지역신문, 무단 전재 및 재배포 금지&gt; 메일보내기 인쇄하기 트윗하기 황준호 기자의 다른기사 보기 기사 댓글 0개 전체보기 0/300 등록 첫번째 댓글을 남겨주세요. 여백 최근 많이 본 기사 1. 햇빛 안들면 못 짓는다...광명뉴타운 1,2구역 초등학교 무산2. 경기도 버스 노사협상 결렬시 30일부터 파업3. 이형덕 광명시의원 "골프연습장 추가 건립...복지와 수익 일석이조"4. 제34회 광명시민대상 수상자에 오정옥-엄진호-구필회 선정5. 안성환 광명시의장, 경기 중부권의장협의회 회장 선출6. KTX광명역 평화마라톤 대회 3년만에 열려...3,600명 참가7. 아파트값 앞자리가 바뀐다...지방광역시 평균 4억대 붕괴8. 혈세 꼼꼼하게...광명시의회, 결산검사 앞두고 이색 퍼포먼스9. 김정미 광명시의원, "지역화폐 국비 없어도 지금처럼"10. SDX탄소감축위원회-(주)한국에너지산업, 디지털 전환 탄소감축 MOU 여백 여백 여백 사람과 사람 ‘그것이 알고 싶다’ 대한민국의 코로나19 백신 상황 진단 및 해결해야 할 문제들 살핀다 [광명지역신문=이서진 기자] 코로나19 백신전쟁이 시작됐다.9일(오늘 토요일) 오후 방송되... 여백 여백 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 우)14239 경기도 광명시 철산로30번길 19, 308호 (철산동, 중앙시장)  |  대표전화 : 02-2611-7961  |  팩스 : 02-2611-7962 등록번호 : 경기도아00120  |  등록일 : 2007.09.06		  |  발행인·편집인 : 홍석우  |  청소년보호책임자 : 장성윤 광명지역신문의 모든 컨텐츠(기사)는 저작권법의 보호를 받습니다. 무단 전재·복사·배포 등을 금지합니다. Copyright © 2022 광명지역신문. All rights reserved.  webmaster@joygm.com Back to Top</t>
-  </si>
-  <si>
-    <t>‘서민갑부’ 제주도 해물수타짬뽕 갑부의 맛집, 제주관광정보센터에서도 추천해 - 이정범 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-04 10:32 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2[빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3[최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4[브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5[최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 6'따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 7[댓글 순위] 영탁 198회째 1위, 김기태·이찬원·강혜연·김희재 TOP5…방탄소년단 지민·진해성·전유진·박창근·방탄소년단 진 뒤이어 8[브랜드파워] 10월 브랜드파워 투표 시작…현재순위는 영탁(26.0%)·김기태(16.2%)·이승윤·양준일·장민호·진해성·송가인·박창근·김희재·박서진 순 9[최고의앨범] 28일 하루 득표량 순위는 영탁(21.2%)·이승윤(19.6%)·장민호·김기태·송가인·갓세븐 뱀뱀·김희재·박서진·양준일·박창근 순 10영탁, 팬모임 '하우탁' 포항 침수 세대 도배, 장판 성금 기부…'선한 영향력 전해' 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [TOP이슈] “결단코 안 했다”…박유천, 싸늘한 반응 속 복귀 [TOP이슈] ‘은퇴 번복’ 박유천, 영화 ‘악에 바쳐’로 복귀…10월 개봉 ‘서민갑부’ 제주도 해물수타짬뽕 갑부의 맛집, 제주관광정보센터에서도 추천해 이정범 기자 승인 2019.04.08 09:48 댓글 제보하기 반론요청 이 기사를 공유합니다 × 제주도에서도 ‘서민갑부’ 해물수타짬뽕 갑부의 요리를 추천했다. 현재 제주관광정보센터 홈페이지(VISIT JEJU)에는 ‘수타명가’에 대한 소개가 게재돼 있다. 소개멘트는 아래와 같다. 직접 수타로 만든 면으로 요리해, 이곳에 들어서면 면을 치는 소리가 식당을 가득 메운다. 뿔소라, 전복, 홍합 등 다양한 해산물이 곁들어진 짬뽕과 이색적인 크림 탕수육 등을 맛볼 수 있다. 또, 수제만두와 아이스크림을 파는 작은 부스도 있다. 이 수타명가라는 가게가 바로 최근 ‘서민갑부’에서 소개된 해물수타짬뽕 갑부의 가게 이름이다. 4일 채널A ‘서민갑부’에서는 용궁을 담은 대형 해물짬뽕을 판매해 연매출 8억 원을 올리는 서민갑부로 자리 잡은 지흥선(49) 씨의 이야기를 소개했다. 지흥선 씨가 운영하는 ‘수타명가’(제주 제주시 한림읍 일주서로 5834)는 여느 중국집과는 다른 무언가가 있다. 바로 특대 사이즈 그릇에 나와 ‘대형 해물짬뽕’이라고 불리는 ‘용궁짬뽕’(용짬뽕)이다. 해물탕이라는 오해를 받을 정도다. 지흥선 씨는 “(대형 짬뽕을) 먹은 손님들이 거의 그런다. ‘이거 해물탕이야, 짬뽕이야?’라고 많이 말한다. 해산물을 원하는 것을 얻은 것이다. ‘도대체 대형 짬뽕이 무엇인가 해산물이 얼마만큼 들어있나’라고 (생각했을 때) 먹다 보니까 전복도 나오고 소라도 나오고 낚시하는 기부니다. (해산물이) 하나씩 자꾸 나오니까”라고 말했다. 들어가는 해산물은 전복, 뿔소라, 홍합, 대하 그리고 문어 한 마리까지 실로 다양하다. 용궁짬뽕을 먹으면 제주도 바다를 먹는 것과 마찬가지라는 말이 나올 정도다. 얼음물 밀가루 반죽을 24시간 숙성시켜 수타로 마무리하는 수타 면발도 쫄깃함을 자랑한다. 소, 돼지, 닭뼈가 사용된 육수는 국물 맛의 깊이를 더한다. 제주에 위치한 곳은 본점이고, 서산에서 운영되고 있는 ‘수타명가 2호점’(충남 서산시 팔봉면 팔봉2로 34) 또한 성황리에 장사 중이라고 한다. 아래는 해물수타짬뽕 갑부의 가게 위치. 채널A ‘서민갑부’ 방송 캡처 채널A ‘서민갑부’ 홈페이지&lt;br&gt; ‘전 재산 27만 원에서 27억 원으로! 만 배의 기적을 이룬 上남자’ *해물수타짬뽕 갑부 상호명: 수타명가 주소: 제주 제주시 한림읍 일주서로 5834 2호점 :  충남 서산시 팔봉면 팔봉2로 34 주인공: 지흥선이정범 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #서민갑부 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2019/04/08 09:48 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 ‘하나뿐인 내편’ 유이, 화장기 없는 민낯에도 변치 않는 아름다움…‘본명에도 관심↑’ 저칼로리 ‘비건삼겹살’, 비건(vegan)을 위한 콩고기…비건 뜻은? 채식주의자 ‘복고풍 걸그룹’ 바버렛츠는 어떤 그룹?…“스윗소로우와 ‘스바스바’ 결성해 활동 중” ‘구해줘 홈즈’, 삼남매 위한 ‘복 팀’ 부평 급행 역세권 집…이사지원금 제공 ‘닥터 프리즈너’ 권나라, 나이 믿기지 않는 우월한 미모…‘헬로비너스 메인 비주얼’ 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 다산의 숨결이 느껴지는 그곳에 진해성 가수가 간다 [F레터] 김기태의 노래와 함께한 10개월…겨울 같은 마음에 봄날을 선물한 노래 [F레터] 해성사랑의 카리스마 진해성…메말라있는 감성이 살아날때 그의 향기가 펴진다 [F레터] 진해성 가수를 향한 그리움 가득한 노르웨이에서 온 편지 [F레터] 진해에 진해의 별이 떳어요…″합!합!합! 바람고개 진해성″ 독자 추천 뉴스 1 1280 [최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2 1270 [빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3 1219 [최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4 1205 [브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5 1185 [최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 댓글많은뉴스 1 350 영탁, '신랑수업' 탁멍을 불러오는 나 홀로 촌캉스 즐기는 '귀여운 시골 삼촌'…'하와이 뺨치는 대야 물놀이 유행 조짐' 2 300 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 3 288 '따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 4 286 [스타포커스] 가수 김기태, 오랜 무명 생활 끝→‘싱어게인2’로 맞이한 전성기 5 257 "이 맛이 영탁 라거다" 영탁, '신랑수업' 촌캉스 풀빌라 룸서비스 즐기는 살림 9단의 영탁의 맛 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 2 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 3 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 4 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 5 "이미 이별" 박민영, 강종현과 열애설 이틀만에 '손절' 이유 6 이정재-정우성 측 '박민영 열애설' 재력가 회사 투자? "전혀 관련없다" 7 [2년 전 오늘] 블락비 박경, '학폭' 논란 인정→군 입대…최근 근황은? 8 [TOP이슈] ‘필로폰 혐의’ 돈스파이크, ‘오은영의 금쪽상담소’ 출연 이유도 의심 9 의문은 계속…배우 박민영, 강종현과 열애설 ‘이틀째 침묵’ 10 배우 박민영 측, “재력가와 열애? 확인 중” 11 [TOP이슈] 탑-박유천-정일훈 등, 연예계 마약 파문 계속 12 [TOP이슈] 용준형-로이킴, '정준영 단톡방' 파문→나란히 컴백…사건 다시 보니? 13 남궁민♥진아름, 10월 결혼한다…나이차-애칭 '재조명' 14 "와이프 어쩌나" 돈스파이크, 호텔서 남녀 필로폰 파티…방송가 '손절' [TOP이슈] 15 [TOP이슈] 배우 김선호, '사생활 논란' 이후 연극 복귀→12월 팬미팅 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 ‘지숙 남편’ 이두희 측, 메타콩즈 임금 미지급 논란→법적 대응 검토 [이슈종합] [이슈종합] 가수 양준일, '엉터리 라벨' 선캡…결국 행정조치 받는다 [이슈종합] ‘살림남’ 제작진, “포경 수술? 자발적 의사결정…제작진 개입 없어” 해명문 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘오은영 리포트’ 김응수X하하, 선 넘은 남편의 눈물에 아빠 공감…오은영은 “게임 중독 아니고 우울증” 솔루션은? [종합] ‘프리한19’ 전현무X오상진X한석준, 과학적 저주-소변 참으면 거짓말 잘한다?-롤러코스터 결석 제거?-아세트 아미노펜 마음 진통제 [종합] ‘안다행’ 리헤이, 제주도 출신 비 온 뒤 바다에서 낙지-광어 맨손으로 잡아 붐X안정환은 모니카 밖에서는 애기 같아 [종합] '구해줘! 홈즈' 오마이걸 미미, 배우 이정현 상대로 승리…7호선 매매 매물 찾기, '철산역 대단지 아파트' 우승 [종합] ‘SBS 스페셜-국과수-첫방’ 죽음의 추적자, 시신 냄새-화재 현장-혈흔 가득 사건 현장… 6개월 밀착 취재 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
-  </si>
-  <si>
-    <t>신한카드, ‘제주지니’ 통해 제주도 관광지 할인 혜택 제공 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.10.04 (화) 흐림동두천 16.3℃ 흐림강릉 18.3℃ 흐림서울 17.1℃ 비대전 19.1℃ 비대구 23.1℃ 비울산 23.6℃ 비광주 19.3℃ 흐림부산 24.7℃ 흐림고창 18.1℃ 구름많음제주 23.9℃ 구름많음강화 16.7℃ 흐림보은 19.0℃ 흐림금산 19.9℃ 흐림강진군 20.1℃ 흐림경주시 23.7℃ 흐림거제 23.6℃ 기상청 제공 회원가입 로그인 산업 재계 전자 통신 게임 자동차 화학·에너지 철강·중공업 유통 의료·제약 건설·부동산 항공·물류 중소·벤처기업 공기업 산업뉴스 경제·금융 경제 은행 보험 증권 제2금융 국제경제 푸드&amp; 푸드이슈 푸드마켓 식품 지역·해외 여행 펫 푸드영상 음식人文學 자연주의 음식 오피니언 칼럼 기자수첩 정해균의 Zoom - 人 이변변의 모르는게 죄 피플 인터뷰 인사 부고 전체기사 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 제2금융 홈 경제·금융 제2금융 신한카드, ‘제주지니’ 통해 제주도 관광지 할인 혜택 제공 최대 90% 할인 쿠폰 상시 제공 및 신한카드 결제 시 추가 10% 할인 개시 5개월여 만에 누적 다운로드 100만 돌파 길나영 기자 layoungs16@fetv.co.kr 등록 2019.04.12 14:39:05 수정 2019.04.12 14:42:11 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 [FETV=길나영 기자] 신한카드는 제주지역 특화 여행플랫폼 ‘제주지니(JEJUJINI)’를 통해 관광지 할인 쿠폰을 구매하는 고객을 대상으로 추가 할인 혜택을 제공한다고 12일 밝혔다. 이번 제휴로 신한카드 고객이라면 제주지니 모바일 앱 내 할인 쿠폰 서비스를 통해 각종 할인 쿠폰을 10%까지 추가 할인 받아 국내 최저가 수준으로 구입할 수 있다. ‘제주지니’ 할인 쿠폰 서비스는 워터서커스 공연, 우도 스카이라인, 요트 투어 등 제주도의 각종 테마파크, 박물관, 액티비티 입장권을 최대 90% 할인된 가격으로 구매할 수 있는 서비스이다. 신한카드 관계자는 “제주 여행을 계획 중인 고객들을 대상으로 여행 경비를 절감할 수 있는 할인 혜택 서비스를 제공하게 됐다”며 “앞으로도 참신한 아이디어의 연결을 통해 고객의 생활을 편리하게 하는 정보와 서비스를 제공해 고객이 매일같이 찾아오는 ‘라이프 인포메이션(Life Information)’ 기업으로 거듭나겠다”고 말했다. 한편 ‘제주지니’는 개시 5개월여 만에 누적 다운로드 100만을 돌파하며 제주도 관광정보 제공을 위해 현지인 맛집 소개, 관광 코스, 핸즈프리(Hands-free, 짐 옮김 서비스), 맛집 줄서기 예약, 관광지 할인쿠폰 등의 다양한 서비스를 실시하고 있다. 길나영 기자의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @FETV 무단전재 &amp; 재배포 금지 NEWS Time Line 2022-10-04_TUE 5년간 우울증·불안장애 코로나 여파로 899만명 "20대, 42%↑" 10:30 SKT, 새로운 ‘0’으로 MZ 취향저격 나선다 10:29 CJ푸드빌 더플레이스, ‘화이트 라구 파스타’ 선봬 10:26 하이투자증권, 비대면 계좌개설 및 주식거래 이벤트 진행 10:24 '경기방어주' 희비 갈렸다...식품 '웃고' 통신 '울고' 10:21 한독, ‘핑크퐁 아기상어 키즈 홍삼 스틱 젤리’ 출시 10:20 피플 더보기 [인사] ABL생명 [부고] 심혁(NH투자증권 강남금융센터 WM2 센터장)씨 부친상 [부고] 이경민(홈플러스 결산총괄이사) 씨 모친상 [인사] ABL생명 [부고] 김재경(MG손해보험 일반보험본부 상무)씨 부친상 신문사소개 찾아오시는 길 개인정보취급방침 청소년보호정책 (책임자 : 김대종) 이메일 무단수집거부 문의하기 제호: FETV | 명칭: ㈜뉴스컴퍼니 | 등록일: 2011.03.22 | 등록번호: 서울 아01559 | 발행인·편집인: 김대종 | 편집국장: 최남주 | 주소: 서울특별시 영등포구 국회대로 66길 23, 901호(여의도동,산정빌딩) | 전화: 02-2070-8316 | 팩스: 02-2070-8318 Copyright @FETV. All right reserved. FETV의 모든 컨텐츠는 저작권법의 보호를 받으며, 무단 복제 및 복사 배포를 금지합니다. UPDATE: 2022년 10월 04일 10시 33분 최상단으로</t>
+    <t>"배타고 제주 오세요" 제주도, 뱃길관광 활성화 나서 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 "배타고 제주 오세요" 제주도, 뱃길관광 활성화 나서 등록 2019.04.21 06:28:18 작게 크게 선사별 1개 노선 선정해 집중 지원 선상이벤트 등 맞춤형서비스 강화 【제주=뉴시스】제주와 완도를 잇는 실버클라우드호 모습. (사진=한일고속 제공)【제주=뉴시스】우장호 기자 = 제주도가 내국인 관광객 유치를 위해 뱃길 관광 활성화에 적극 나선다. 제주특별자치도는 육지와 제주를 잇는 여객선사의 대표 노선을 선사별로 1개씩 선정해 집중 지원한다고 21일 밝혔다. 선사별로 선정된 선박은 완도와 제주를 오가는 실버클라우드호를 비롯해 고흥과 제주를 잇는 아리온제주, 각각 부산과 제주를 연결하는 뉴스타와 퀸메리호다. 도는 선사와 공동 선상 이벤트를 마련하고 선박에 제주홍보 시설을 마련해 여객편의 서비스를 높여 뱃길관광 수요층을 점진적으로 확대해 나간다는 방침이다. 아울러 KTX-여객선사와 연계한 ‘레일쉽’ 상품(용산, 오송 출발)을 개발해 제주행 목포발 퀸메리호 탑승 시 승선료를 정가의 30~40% 할인하는 등 수도권 관광객 유치도 추진한다. 이 밖에도 각종 대중매체를 활용해 뱃길관광을 홍보하고, 제주뱃길 통합 홍보물과 리플릿을 제작해 뱃길 관광객에게 편의를 제공할 예정이다. 이와 관련해 양기철 도 관광국장은 “제주관광을 유도하기 위한 뱃길홍보를 강화하고, 특히 향후 신규 취항노선에 대해서도 여객편의 서비스 및 즐길거리 제공을 통해 침체된 국내 관광 활성화를 도모하겠다”고 말했다. 한편, 2018년도 입도객 통계에 따르면 제주도로 입도한 관광객 중 3.4%가 뱃길을 이용한 것으로 나타났다. 뱃길관광객 입도 추이는 지난해 같은 기간 9만9000여명에서 8.5% 증가한 10만7000여명인 것으로 집계됐다. 올해는 지난 세월호 참사 이후 중단됐던 제주~인천 노선이 재개될 예정이며, 내년에는 성산~녹동, 제주~삼천포 등의 노선이 신규 취항할 예정이어서 뱃길관광 활성화에 더욱 기대를 모으고 있다. woo1223@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 5예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 범한퓨얼셀, 12일 기업설명회 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 범한퓨얼셀, 12일 기업설명회 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 김해시, 올해 계약심사 35억 절감…부실시공 예방 "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 7예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>뱃길 관광 활성화 나선 제주도, 여객편의 개선 - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-11 11:57 (화) 이전 다음 뱃길 관광 활성화 나선 제주도, 여객편의 개선 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 행정 제주도청 뱃길 관광 활성화 나선 제주도, 여객편의 개선 이감사 기자 승인 2019.04.21 11:27 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 선사별 1개 노선 선정·지원…선상이벤트 등 맞춤형서비스 강화 제주도가 내국인 관광객의 다각적 유치를 위해 뱃길관광 활성화에 나선다 / 사진 - 뉴스제주 자료 내국인 관광객 유치를 위해 제주도정이 맞춤형 뱃길관광을 활성화하기로 했다. 21일 제주특별자치도에 따르면 완도, 고흥, 부산, 목포 노선 중 선사별 1개 노선을 선정, 지원에 나선다. 각 노선은 실버클라우드(완도-제주), 아리온제주(고흥-제주), 뉴스타(부산-제주), 퀸메리호(목포-제주)다. 도정은 해당 선사와 함께 이벤트와 여객편의시설 등을 제공, 제주를 찾는 뱃길 관광객 유치에 노력을 기울인다는 계획이다. 선상이벤트는 ▶실버클라우드(완도-제주) : 켈리그라피 체험, 마술쇼 ▶아리온제주(고흥-제주) : 결혼, 생일 등 기념일 선물 제공 ▶뉴스타(부산-제주) : 선상불꽃놀이, 웨딩촬영 ▶퀸메리호(목포-제주) : 한지공예, 비누만들기 체험 등 노선별로 다양하다. 이와 함께 KTX-여객선사 '레일쉽' 상품(용산, 오송 출발)을 연계해 제주행 목포발 퀸메리호 탑승 시 승선료를 정가의 30~40% 할인한다. 제주도 관계자는 "여객편의서비스 등을 통해 국내관광 활성화에 기여하겠다"고 말했다. 한편 제주뱃길 선박은 씨월드고속훼리 등 총 4개 선사에서 9척의 여객선이 운항하고 있다. 노선은 완도, 목포, 여수, 고흥, 부산 등 7개다. 올해는 세월호 사고 이후 중단됐던 제주-인천 노선이 재개된다. 2020년도는 성산-녹동, 제주-삼천포 등 신규 노선이 취항할 예정이다. Tag #제주도 #뱃길관광 #실버클라우드(완도-제주) #아리온제주(고흥-제주) #뉴스타(부산-제주) #퀸메리호(목포-제주) 저작권자 © 뉴스제주 무단전재 및 재배포 금지 이감사 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 많이 본 뉴스 뉴스 댓글 1[김광수 교육감 축사] 뉴스제주 창간 16주년 2[강병삼 시장 축사] 뉴스제주 창간 16주년 3[오영훈 지사 축사] 뉴스제주 창간 16주년 4[김한규 의원 축사] 뉴스제주 창간 16주년 5[이종우 시장 축사] 뉴스제주 창간 16주년 1수상자 본인 입니다. 확인 되지 않은 사실을 기반으로 허유사실을 공론화하지 않으시길 바랍니다. 2나 조만간 자살 할 것 같아 3ㅎ ㅎ ㅎ 4비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 5원희룡... 최신기사 제주소방 상황실, 빈틈 없는 신고 접수 제주소방 상황실, 빈틈 없는 신고 접수 제주 지구시민 해양정화 페스티벌 성황리 개최 제주 지구시민 해양정화 페스티벌 성황리 개최 서귀포시, 자립준비청년 지원 방안 마련 민·관 공유회의 개최 신용보증지원, 수도권에 지나치게 편중... 제주 소외 신용보증지원, 수도권에 지나치게 편중... 제주 소외 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 서귀포시, 사무관 승진의결자 8명 승진임용 서귀포시, 사무관 승진의결자 8명 승진임용 친절은 누구나 춤추게 한다. 친절은 누구나 춤추게 한다. 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
+  </si>
+  <si>
+    <t>(제주특별자치도) 제주도와 알리페이, 개별관광객 유치 위해 힘 모은다 - 광명지역신문 UPDATE : 2022.10.11 화 12:44 기사검색 지방자치 경제·사회 사람과 사람 문화·복지 교육 사설·칼럼 오피니언 편집회의 홈으로로그인회원가입 RSS 전체기사보기 모바일웹 상단여백 이전 다음 로고 (제주특별자치도) 제주도와 알리페이, 개별관광객 유치 위해 힘 모은다 페이스북 트위터 구글 카카오스토리 메일 HOME 라이프 사회/일반 (제주특별자치도) 제주도와 알리페이, 개별관광객 유치 위해 힘 모은다 황준호 기자 승인 2019.04.19 17:39 댓글 0 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사(권장) 가나다라마바사 가나다라마바사 가나다라마바사 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 [광명지역신문=황준호 기자] 제주특별자치도는 지난 4월 17일 오후 알리페이 코리아와 업무협약을 체결했다.알리페이 코리아는 중국 내 9억 명에 달하는 가입자와 중국 내 모바일 결제 점유율 80%이상(2018년 기준)을 차지하고 있는 알리바바 그룹 계열사 알리페이의 한국법인이다.이번 협약을 통해 제주도는 알리페이 측으로부터 알리페이 데이터와 알리바바 그룹 계열사를 통한 제주도 관광 홍보 기회 및 제주 특산 제품 판매 창구 등을 제공받을 수 있을 것으로 예상된다.제주특별자치도는 알리페이로 결재한 사용자 빅데이터를 통해 보다 효과적으로 중국인 관광객의 소비 패턴과 구매력을 파악할 수 있게 되어, 궁극적으로 관광, 교통, 상권 등 여러 분야의 정책 수립 및 활용 기반을 공고하게 다지는 시금석이 될 것으로 기대된다.제주특별자치도와 알리페이코리아는 전통시장, 중소상공인, 택시 등을 대상으로 알리페이 가맹점을 확대하고, 중국인 개별 관광객에 대한 다양한 판매촉진 행사를 개최함으로써 도내 매출 신장을 함께 꾀할 예정이다.노희섭 제주특별자치도 미래전략국장은 “빅데이터 분석이 모든 정책에 기반이 되고 있는 시점에 알리페이 코리아와 협약을 체결하게 되어 기쁘다”면서 “이번 협약을 계기로 알리페이의 유의미한 빅데이터 수집 및 분석을 통해 제주지역 경제 활성화와 관광 홍보 채널의 다변화에 기여하는 유기적 선순환이 이루어질 것으로 기대한다.”고 밝혔다.또한, “앞으로 알리페이 코리아가 제주지역 전통시장, 중소상공인, 택시 등을 대상으로 판매 촉진을 통한 지역경제 활성화에 함께 협력해 줄 것으로 기대한다.”고 덧붙였다.한편 제주특별자치도는 지난해 과학기술정보통신부로부터 전국 행정기관 최초로 빅데이터 전문센터 지정을 받았으며, 올해에는 도내 문제해결을 목적으로 하는 민관 빅데이터랩을 운영하는 등 지속적으로 빅데이터 활용 생태계 조성에 주력해 나갈 방침이다.(출처=제주특별자치도) 황준호 기자  webmaster@joygm.com​&lt;저작권자 © 광명지역신문, 무단 전재 및 재배포 금지&gt; 메일보내기 인쇄하기 트윗하기 황준호 기자의 다른기사 보기 기사 댓글 0개 전체보기 0/300 등록 첫번째 댓글을 남겨주세요. 여백 최근 많이 본 기사 1. 경기도 버스 노사협상 결렬시 30일부터 파업2. 이형덕 광명시의원 "골프연습장 추가 건립...복지와 수익 일석이조"3. 임오경 의원, 행안부 특별교부세 7억원 확보4. 양기대 의원, "이스타항공 채용청탁 사실무근...윤창현은 의원직 걸어라"5. 김정미 광명시의원, "지역화폐 국비 없어도 지금처럼"6. 혈세 꼼꼼하게...광명시의회, 결산검사 앞두고 이색 퍼포먼스7. 임오경 의원 "골목상권 절규 안 들리나? 지역화폐 예산 재편성하라"8. 광명 다세대주택 불...사다리차로 이웃 구조9. 양기대 의원, 행안부 특별교부금 7억원 확보10. 광명, '제1회 선배시민 페스티벌' 10월 4일 개최 여백 여백 여백 사람과 사람 ‘그것이 알고 싶다’ 대한민국의 코로나19 백신 상황 진단 및 해결해야 할 문제들 살핀다 [광명지역신문=이서진 기자] 코로나19 백신전쟁이 시작됐다.9일(오늘 토요일) 오후 방송되... 여백 여백 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 우)14239 경기도 광명시 철산로30번길 19, 308호 (철산동, 중앙시장)  |  대표전화 : 02-2611-7961  |  팩스 : 02-2611-7962 등록번호 : 경기도아00120  |  등록일 : 2007.09.06		  |  발행인·편집인 : 홍석우  |  청소년보호책임자 : 장성윤 광명지역신문의 모든 컨텐츠(기사)는 저작권법의 보호를 받습니다. 무단 전재·복사·배포 등을 금지합니다. Copyright © 2022 광명지역신문. All rights reserved.  webmaster@joygm.com Back to Top</t>
+  </si>
+  <si>
+    <t>‘서민갑부’ 제주도 해물수타짬뽕 갑부의 맛집, 제주관광정보센터에서도 추천해 - 이정범 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-11 13:02 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2[최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3[최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4[브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5'울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 6[브랜드파워] 4일 하루 득표량 순위는 영탁(25.4%)·김기태(23.2%)·이승윤·장민호·송가인·김희재·진해성·이찬원·박서진·양준일 순 7[댓글 순위] 영탁 200회째 1위, 김기태·이찬원·강혜연·방탄소년단 진 TOP5…진해성·김희재·방탄소년단 지민·김다현·방탄소년단 뷔 뒤이어 8[최고의앨범] 6일 하루 득표량 순위는 영탁(3.2%)·장민호(2.1%)·이승윤·송가인·김기태·양준일·김희재·박서진·이찬원·박창근 순 9[최고의앨범] 5일 하루 득표량 순위는 영탁(3.9%)·장민호(2.6%)·이승윤·송가인·김기태·김희재·이찬원·양준일·박서진·박창근 순 10[브랜드파워] 5일 하루 득표량 순위는 영탁(26.3%)·김기태(24.0%)·이승윤·장민호·송가인·김희재·이찬원·진해성·박서진·박창근 순 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 "멤버 단톡방서 제외?"…이달의 소녀 츄, '소속사 갈등설' 재수면 이달의 소녀 츄, '스테이지 업' 공연 MC 발탁 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 스타쉽, 아이브(IVE) 공연 취소 경북대 측 주장에 추가 입장…“계약금 전달된 바 없어” (전문) '출장 십오야', 스타쉽 협업 성사…아이브→이동욱 출연할까 ‘서민갑부’ 제주도 해물수타짬뽕 갑부의 맛집, 제주관광정보센터에서도 추천해 이정범 기자 승인 2019.04.08 09:48 댓글 제보하기 반론요청 이 기사를 공유합니다 × 제주도에서도 ‘서민갑부’ 해물수타짬뽕 갑부의 요리를 추천했다. 현재 제주관광정보센터 홈페이지(VISIT JEJU)에는 ‘수타명가’에 대한 소개가 게재돼 있다. 소개멘트는 아래와 같다. 직접 수타로 만든 면으로 요리해, 이곳에 들어서면 면을 치는 소리가 식당을 가득 메운다. 뿔소라, 전복, 홍합 등 다양한 해산물이 곁들어진 짬뽕과 이색적인 크림 탕수육 등을 맛볼 수 있다. 또, 수제만두와 아이스크림을 파는 작은 부스도 있다. 이 수타명가라는 가게가 바로 최근 ‘서민갑부’에서 소개된 해물수타짬뽕 갑부의 가게 이름이다. 4일 채널A ‘서민갑부’에서는 용궁을 담은 대형 해물짬뽕을 판매해 연매출 8억 원을 올리는 서민갑부로 자리 잡은 지흥선(49) 씨의 이야기를 소개했다. 지흥선 씨가 운영하는 ‘수타명가’(제주 제주시 한림읍 일주서로 5834)는 여느 중국집과는 다른 무언가가 있다. 바로 특대 사이즈 그릇에 나와 ‘대형 해물짬뽕’이라고 불리는 ‘용궁짬뽕’(용짬뽕)이다. 해물탕이라는 오해를 받을 정도다. 지흥선 씨는 “(대형 짬뽕을) 먹은 손님들이 거의 그런다. ‘이거 해물탕이야, 짬뽕이야?’라고 많이 말한다. 해산물을 원하는 것을 얻은 것이다. ‘도대체 대형 짬뽕이 무엇인가 해산물이 얼마만큼 들어있나’라고 (생각했을 때) 먹다 보니까 전복도 나오고 소라도 나오고 낚시하는 기부니다. (해산물이) 하나씩 자꾸 나오니까”라고 말했다. 들어가는 해산물은 전복, 뿔소라, 홍합, 대하 그리고 문어 한 마리까지 실로 다양하다. 용궁짬뽕을 먹으면 제주도 바다를 먹는 것과 마찬가지라는 말이 나올 정도다. 얼음물 밀가루 반죽을 24시간 숙성시켜 수타로 마무리하는 수타 면발도 쫄깃함을 자랑한다. 소, 돼지, 닭뼈가 사용된 육수는 국물 맛의 깊이를 더한다. 제주에 위치한 곳은 본점이고, 서산에서 운영되고 있는 ‘수타명가 2호점’(충남 서산시 팔봉면 팔봉2로 34) 또한 성황리에 장사 중이라고 한다. 아래는 해물수타짬뽕 갑부의 가게 위치. 채널A ‘서민갑부’ 방송 캡처 채널A ‘서민갑부’ 홈페이지&lt;br&gt; ‘전 재산 27만 원에서 27억 원으로! 만 배의 기적을 이룬 上남자’ *해물수타짬뽕 갑부 상호명: 수타명가 주소: 제주 제주시 한림읍 일주서로 5834 2호점 :  충남 서산시 팔봉면 팔봉2로 34 주인공: 지흥선이정범 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #서민갑부 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2019/04/08 09:48 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 ‘하나뿐인 내편’ 유이, 화장기 없는 민낯에도 변치 않는 아름다움…‘본명에도 관심↑’ 저칼로리 ‘비건삼겹살’, 비건(vegan)을 위한 콩고기…비건 뜻은? 채식주의자 ‘복고풍 걸그룹’ 바버렛츠는 어떤 그룹?…“스윗소로우와 ‘스바스바’ 결성해 활동 중” ‘구해줘 홈즈’, 삼남매 위한 ‘복 팀’ 부평 급행 역세권 집…이사지원금 제공 ‘닥터 프리즈너’ 권나라, 나이 믿기지 않는 우월한 미모…‘헬로비너스 메인 비주얼’ 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 진해성 가수의 콘서트 직관후기 ‘내눈에 너만보여’ [F레터] 주접은 행복…김기태 가수에게 우리들의 노래를 들려주다 [F레터] 오늘은 특별한 날…내 삶에 스며든 별을 만나러 가는 날 ‘진해성’이 있다 [F레터] 진해성 가수와 함께하는 트롯전국체전 성남콘서트 [F레터] 진해성의 판타지 만약에…귀한 찰라, 귀한 경험을 순간 완전무결한 환상의 결과이고 진해성의 판타지다 독자 추천 뉴스 1 1011 [최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2 992 [최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3 954 [최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4 933 [브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5 884 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 댓글많은뉴스 1 468 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 2 251 영탁, 신사답게 원더케이 뮤직비디오 200만 뷰…"말이 필요 없는 최고의 퍼포먼스 가창력" 3 240 '박지의 귀환' 영탁, 부산 콘서트에서 '영혼의단짝' 광민이 형이 밝힌 영탁이의 '장점과 담점' 4 174 '공연 역사의 새로운 역사를 쓴 위대한 탁쇼' 영탁, 서울 앙코르 콘서트 개최 확정…초광속 매진 행렬에 '티켓 대란'예상 5 165 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 신화 신혜성, 음주운전 혐의에…과거 전진 ‘면허 100일 정지’ 재조명 2 [TOP이슈] 신화 신혜성, 도난차량서 음주 측정 거부→체포…음주운전만 두 번째 3 [TOP이슈] "안타깝고 속상해"…이채연 측, 데뷔 앨범 디자인 유사성 논란 해명 4 남우현도 울림 떠난다…인피니트 멤버 전원 계약 종료 5 “코로나 후유증으로 컨디션 난조”…BAE173 남도현, 활동 중단 6 [TOP이슈] 영화는 2편…‘7년째 불륜’ 홍상수-김민희, 부국제 불참 7 “미련 못 버려”…아이브 VS 경북대 축제 갈등, 섭외 담당 에이전시 공식 사과 8 “구두 확답-출연료 송금 완료” 경북대 측, 대동제 아이브 공연 취소→스타쉽 주장에 반박 9 [TOP이슈] '친부 폭행' 박수홍, 와이프와 안정 중…'미우새' 댓글창 비난 폭주 10 "흉기로 XX"…박수홍, 친부에게 폭행 당해→병원으로 긴급 후송 11 [TOP이슈] "호주서 골프하고 싶다고"…박연수, 딸 송지아 음해에 분노→아들 송지욱 반응 언급 12 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 13 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 14 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 15 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 '필로폰 투약' 돈스파이크, 오늘(5일) 검찰 송치…母 가슴에 대못 박아 [이슈종합] [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘더 플레이어 케이팝 퀘스트-최종회’ 펠라즈 2기, 플레이어 더보이즈 스릴 라이드 ‘승’…데뷔곡 ‘도깨비집’ 최초 공개 [종합] '구해줘! 홈즈' 소유진, 김호영, 2PM 닉쿤 '무승부'…대형정원부터 테라스 주택까지, 7억원대 경기남부 매물 총출동 [종합] '작은 아씨들' 최종화 김고은, 300억의 주인공 됐다…추자현 "엄지원이 살인했다" 폭로⟶빌런 엄지원 사망 [종합] '뭉쳐야찬다2' 위례 FC를 상대로 완벽한 승리, 류은규 MOM 등극…이형택, '폭풍 성장'에 감탄 [종합] '도시어부4' 이태곤, '감성돔' 1인자 등극…구본승 "꼴찌하면 커피차, 사무장하겠다" 공약 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
+  </si>
+  <si>
+    <t>신한카드, ‘제주지니’ 통해 제주도 관광지 할인 혜택 제공 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.10.09 (일) 흐림동두천 11.6℃ 흐림강릉 11.9℃ 흐림서울 14.1℃ 흐림대전 13.9℃ 흐림대구 12.1℃ 흐림울산 13.9℃ 비광주 14.1℃ 흐림부산 16.0℃ 흐림고창 13.4℃ 흐림제주 18.9℃ 흐림강화 13.9℃ 흐림보은 10.8℃ 흐림금산 11.6℃ 흐림강진군 14.5℃ 흐림경주시 10.1℃ 흐림거제 14.7℃ 기상청 제공 회원가입 로그인 산업 재계 전자 통신 게임 자동차 화학·에너지 철강·중공업 유통 의료·제약 건설·부동산 항공·물류 중소·벤처기업 공기업 산업뉴스 경제·금융 경제 은행 보험 증권 제2금융 국제경제 푸드&amp; 푸드이슈 푸드마켓 식품 지역·해외 여행 펫 푸드영상 음식人文學 자연주의 음식 오피니언 칼럼 기자수첩 정해균의 Zoom - 人 이변변의 모르는게 죄 피플 인터뷰 인사 부고 전체기사 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 제2금융 홈 경제·금융 제2금융 신한카드, ‘제주지니’ 통해 제주도 관광지 할인 혜택 제공 최대 90% 할인 쿠폰 상시 제공 및 신한카드 결제 시 추가 10% 할인 개시 5개월여 만에 누적 다운로드 100만 돌파 길나영 기자 layoungs16@fetv.co.kr 등록 2019.04.12 14:39:05 수정 2019.04.12 14:42:11 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 [FETV=길나영 기자] 신한카드는 제주지역 특화 여행플랫폼 ‘제주지니(JEJUJINI)’를 통해 관광지 할인 쿠폰을 구매하는 고객을 대상으로 추가 할인 혜택을 제공한다고 12일 밝혔다. 이번 제휴로 신한카드 고객이라면 제주지니 모바일 앱 내 할인 쿠폰 서비스를 통해 각종 할인 쿠폰을 10%까지 추가 할인 받아 국내 최저가 수준으로 구입할 수 있다. ‘제주지니’ 할인 쿠폰 서비스는 워터서커스 공연, 우도 스카이라인, 요트 투어 등 제주도의 각종 테마파크, 박물관, 액티비티 입장권을 최대 90% 할인된 가격으로 구매할 수 있는 서비스이다. 신한카드 관계자는 “제주 여행을 계획 중인 고객들을 대상으로 여행 경비를 절감할 수 있는 할인 혜택 서비스를 제공하게 됐다”며 “앞으로도 참신한 아이디어의 연결을 통해 고객의 생활을 편리하게 하는 정보와 서비스를 제공해 고객이 매일같이 찾아오는 ‘라이프 인포메이션(Life Information)’ 기업으로 거듭나겠다”고 말했다. 한편 ‘제주지니’는 개시 5개월여 만에 누적 다운로드 100만을 돌파하며 제주도 관광정보 제공을 위해 현지인 맛집 소개, 관광 코스, 핸즈프리(Hands-free, 짐 옮김 서비스), 맛집 줄서기 예약, 관광지 할인쿠폰 등의 다양한 서비스를 실시하고 있다. 길나영 기자의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @FETV 무단전재 &amp; 재배포 금지 NEWS Time Line 2022-10-09_SUN KB국민은행, '한글 수호자, 독립운동가 주시경' 영상 공개 06:00 미래에셋증권 “국내 모든 증권사 보유종목 한눈에 조회 가능” 06:00 2022-10-08_SAT [부고] 장영순(현대이지웰·현대드림투어 대표이사) 씨 모친상 22:51 KB손보 “마이데이터 서비스 체험하고 상금 받으세요” 18:00 SKC, 1662억원 규모 자사주 매입 "주주가치 제고" 09:48 한화에어로스페이스, ‘한국판 스페이스X’ 첫 발 뗀다! 09:44 피플 더보기 [부고] 장영순(현대이지웰·현대드림투어 대표이사) 씨 모친상 [부고] 정호순(휴온스 로컬사업본부 전무)씨 모친상 [부고] 장용준(이베스트투자증권 IB금융3팀 이사)씨 모친상 [인사] 하이투자증권 [인사] ABL생명 신문사소개 찾아오시는 길 개인정보취급방침 청소년보호정책 (책임자 : 김대종) 이메일 무단수집거부 문의하기 제호: FETV | 명칭: ㈜뉴스컴퍼니 | 등록일: 2011.03.22 | 등록번호: 서울 아01559 | 발행인·편집인: 김대종 | 편집국장: 최남주 | 주소: 서울특별시 영등포구 국회대로 66길 23, 901호(여의도동,산정빌딩) | 전화: 02-2070-8316 | 팩스: 02-2070-8318 Copyright @FETV. All right reserved. FETV의 모든 컨텐츠는 저작권법의 보호를 받으며, 무단 복제 및 복사 배포를 금지합니다. UPDATE: 2022년 10월 09일 06시 00분 최상단으로</t>
   </si>
 </sst>
 </file>
@@ -434,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -488,6 +878,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -497,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +923,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +945,750 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
